--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1867</v>
+        <v>1074</v>
       </c>
       <c r="B2" t="n">
-        <v>1900</v>
+        <v>1108</v>
       </c>
       <c r="C2" t="n">
-        <v>2004</v>
+        <v>1370</v>
       </c>
       <c r="D2" t="n">
-        <v>2.225341381102924</v>
+        <v>4.421031640666531</v>
       </c>
       <c r="E2" t="n">
-        <v>1.589736695716141</v>
+        <v>3.783412510695665</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6356046853867836</v>
+        <v>-0.637619129970866</v>
       </c>
       <c r="G2" t="n">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="H2" t="n">
-        <v>29.80795519651474</v>
+        <v>67.53906471656819</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="K2" t="n">
-        <v>151.4902255510017</v>
+        <v>460.5079202501053</v>
       </c>
       <c r="L2" t="n">
-        <v>13.44573717360154</v>
+        <v>26.41827113493176</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.805553974491093</v>
+        <v>0.8442574539558183</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3173076923076923</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4312996340064692</v>
+        <v>0.4415732619304954</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5807632586033393</v>
+        <v>0.9709488386531595</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>368</v>
+        <v>788</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1813</v>
+        <v>1869</v>
       </c>
       <c r="B3" t="n">
-        <v>1839</v>
+        <v>1899</v>
       </c>
       <c r="C3" t="n">
         <v>2004</v>
       </c>
       <c r="D3" t="n">
-        <v>2.461514422496188</v>
+        <v>2.298830649178385</v>
       </c>
       <c r="E3" t="n">
-        <v>1.819789599200187</v>
+        <v>1.661211519207519</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6417248232960014</v>
+        <v>-0.637619129970866</v>
       </c>
       <c r="G3" t="n">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="H3" t="n">
-        <v>72.28062138345945</v>
+        <v>28.78880389868232</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="K3" t="n">
-        <v>178.1833952046858</v>
+        <v>151.2640001532319</v>
       </c>
       <c r="L3" t="n">
-        <v>8.346884860920207</v>
+        <v>13.73686874906186</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.9092567880456747</v>
+        <v>0.8225084920260086</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1575757575757576</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4341458250027074</v>
+        <v>0.4369679438607458</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8763559403850858</v>
+        <v>0.5907039101161211</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>369</v>
+        <v>789</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1634</v>
+        <v>1814</v>
       </c>
       <c r="B4" t="n">
-        <v>1669</v>
+        <v>1837</v>
       </c>
       <c r="C4" t="n">
-        <v>1753</v>
+        <v>2004</v>
       </c>
       <c r="D4" t="n">
-        <v>3.707378817407769</v>
+        <v>2.464635034795251</v>
       </c>
       <c r="E4" t="n">
-        <v>3.095444897811532</v>
+        <v>1.823451710442503</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6119339195962377</v>
+        <v>-0.6411833243527486</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="H4" t="n">
-        <v>79.85180629703245</v>
+        <v>72.893379075545</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="K4" t="n">
-        <v>290.2360912010752</v>
+        <v>178.6578482301607</v>
       </c>
       <c r="L4" t="n">
-        <v>16.18290022529295</v>
+        <v>8.387626500095894</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7735096650977411</v>
+        <v>0.9019488841395512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1076280960563047</v>
+        <v>0.4252379416989657</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9908721178210733</v>
+        <v>0.8714324989608059</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>370</v>
+        <v>790</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1753</v>
+        <v>554</v>
       </c>
       <c r="B5" t="n">
-        <v>1791</v>
+        <v>583</v>
       </c>
       <c r="C5" t="n">
-        <v>2004</v>
+        <v>656</v>
       </c>
       <c r="D5" t="n">
-        <v>2.988234504016803</v>
+        <v>2.383392121801647</v>
       </c>
       <c r="E5" t="n">
-        <v>2.376300584420565</v>
+        <v>1.764711200599959</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6119339195962377</v>
+        <v>-0.618680921201688</v>
       </c>
       <c r="G5" t="n">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="H5" t="n">
-        <v>57.3416012716159</v>
+        <v>79.33079134219008</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="K5" t="n">
-        <v>383.2187880262691</v>
+        <v>168.0979866197457</v>
       </c>
       <c r="L5" t="n">
-        <v>13.04379811451106</v>
+        <v>10.40918980988666</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8594912372646354</v>
+        <v>0.8009503900596888</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1784037558685446</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3890397434725999</v>
+        <v>0.19758368471221</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9432695683086869</v>
+        <v>0.7385388834032653</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>371</v>
+        <v>791</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1075</v>
+        <v>1132</v>
       </c>
       <c r="B6" t="n">
-        <v>1110</v>
+        <v>1157</v>
       </c>
       <c r="C6" t="n">
-        <v>1254</v>
+        <v>1357</v>
       </c>
       <c r="D6" t="n">
-        <v>4.357377321999157</v>
+        <v>0.9814232361484022</v>
       </c>
       <c r="E6" t="n">
-        <v>3.64077666438175</v>
+        <v>0.3627423149467142</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7166006576174062</v>
+        <v>-0.618680921201688</v>
       </c>
       <c r="G6" t="n">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="H6" t="n">
-        <v>135.612419850194</v>
+        <v>68.2457302430189</v>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>397.3937141485437</v>
+        <v>88.85829415302931</v>
       </c>
       <c r="L6" t="n">
-        <v>20.39224444094445</v>
+        <v>4.286252629374148</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9099306743130385</v>
+        <v>0.825016620871372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2430555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3811012880036558</v>
+        <v>0.3910927456705982</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9605809671568122</v>
+        <v>0.7177288862251521</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>372</v>
+        <v>792</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1254</v>
+        <v>1357</v>
       </c>
       <c r="B7" t="n">
-        <v>1294</v>
+        <v>1420</v>
       </c>
       <c r="C7" t="n">
-        <v>1432</v>
+        <v>1499</v>
       </c>
       <c r="D7" t="n">
-        <v>2.495982108657202</v>
+        <v>2.129593056541591</v>
       </c>
       <c r="E7" t="n">
-        <v>1.779381451039795</v>
+        <v>1.510912135339903</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7166006576174062</v>
+        <v>-0.618680921201688</v>
       </c>
       <c r="G7" t="n">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="H7" t="n">
-        <v>77.59054835916436</v>
+        <v>75.28376668815577</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J7" t="n">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="K7" t="n">
-        <v>270.8504530493776</v>
+        <v>161.2160444774767</v>
       </c>
       <c r="L7" t="n">
-        <v>11.68103506276326</v>
+        <v>9.300751706186492</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8348056356868033</v>
+        <v>0.6602145811278806</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2898550724637681</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1352039388267873</v>
+        <v>0.8804252117730114</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7081621486914813</v>
+        <v>0.7478519415251308</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>373</v>
+        <v>793</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1432</v>
+        <v>1636</v>
       </c>
       <c r="B8" t="n">
-        <v>1470</v>
+        <v>1668</v>
       </c>
       <c r="C8" t="n">
-        <v>1612</v>
+        <v>1756</v>
       </c>
       <c r="D8" t="n">
-        <v>1.68383628532821</v>
+        <v>3.746229564803023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9672356277108041</v>
+        <v>3.127548643601335</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7166006576174062</v>
+        <v>-0.618680921201688</v>
       </c>
       <c r="G8" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H8" t="n">
-        <v>51.26732822251256</v>
+        <v>79.52751024189729</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="K8" t="n">
-        <v>162.1512548811</v>
+        <v>293.0632603583977</v>
       </c>
       <c r="L8" t="n">
-        <v>7.880245062915712</v>
+        <v>16.36122493430356</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.9050053814953658</v>
+        <v>0.8023465739058362</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2676056338028169</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2740402333782834</v>
+        <v>0.1121750724158008</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8155646761223038</v>
+        <v>0.991634202497451</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>374</v>
+        <v>794</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>680</v>
+        <v>1756</v>
       </c>
       <c r="B9" t="n">
-        <v>720</v>
+        <v>1789</v>
       </c>
       <c r="C9" t="n">
-        <v>870</v>
+        <v>2004</v>
       </c>
       <c r="D9" t="n">
-        <v>3.435438055950846</v>
+        <v>2.979282182748281</v>
       </c>
       <c r="E9" t="n">
-        <v>2.567919362196141</v>
+        <v>2.360601261546593</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8675186937547055</v>
+        <v>-0.618680921201688</v>
       </c>
       <c r="G9" t="n">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="H9" t="n">
-        <v>154.7242137331069</v>
+        <v>55.28391944169221</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="K9" t="n">
-        <v>452.3276735449316</v>
+        <v>379.9424825051826</v>
       </c>
       <c r="L9" t="n">
-        <v>12.29593512723771</v>
+        <v>13.01167082569605</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.920929065155711</v>
+        <v>0.8450194503830778</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="R9" t="n">
-        <v>0.278070186919524</v>
+        <v>0.389047312747446</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9674141217396615</v>
+        <v>0.9408287286283783</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>375</v>
+        <v>795</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>870</v>
+        <v>1077</v>
       </c>
       <c r="B10" t="n">
-        <v>904</v>
+        <v>1109</v>
       </c>
       <c r="C10" t="n">
-        <v>1080</v>
+        <v>1244</v>
       </c>
       <c r="D10" t="n">
-        <v>2.238908354282209</v>
+        <v>4.413085249585473</v>
       </c>
       <c r="E10" t="n">
-        <v>1.371389660527504</v>
+        <v>3.690552555460583</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8675186937547055</v>
+        <v>-0.7225326941248903</v>
       </c>
       <c r="G10" t="n">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="H10" t="n">
-        <v>54.17811269218146</v>
+        <v>133.9925404624499</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J10" t="n">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="K10" t="n">
-        <v>260.8807103537873</v>
+        <v>386.6959040547164</v>
       </c>
       <c r="L10" t="n">
-        <v>8.013380370051557</v>
+        <v>20.62399453500165</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8875063229462488</v>
+        <v>0.9015124873783233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1931818181818182</v>
+        <v>0.237037037037037</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4064302567809153</v>
+        <v>0.3532821041586891</v>
       </c>
       <c r="S10" t="n">
-        <v>0.970254282592791</v>
+        <v>0.947717354668424</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>376</v>
+        <v>796</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1080</v>
+        <v>1244</v>
       </c>
       <c r="B11" t="n">
-        <v>1210</v>
+        <v>1293</v>
       </c>
       <c r="C11" t="n">
-        <v>1376</v>
+        <v>1435</v>
       </c>
       <c r="D11" t="n">
-        <v>2.054557504927858</v>
+        <v>2.531030835623491</v>
       </c>
       <c r="E11" t="n">
-        <v>1.187038811173152</v>
+        <v>1.808498141498601</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8675186937547055</v>
+        <v>-0.7225326941248903</v>
       </c>
       <c r="G11" t="n">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="H11" t="n">
-        <v>130.9607415680885</v>
+        <v>77.03123263307907</v>
       </c>
       <c r="I11" t="n">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="J11" t="n">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="K11" t="n">
-        <v>402.6130608444058</v>
+        <v>279.7706620857207</v>
       </c>
       <c r="L11" t="n">
-        <v>7.353561724686726</v>
+        <v>11.82845179043907</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.6170853208874745</v>
+        <v>0.8151544709059367</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7831325301204819</v>
+        <v>0.3450704225352113</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2125771375473555</v>
+        <v>0.2255498762649031</v>
       </c>
       <c r="S11" t="n">
-        <v>0.950757353827357</v>
+        <v>0.7281275277305241</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>377</v>
+        <v>797</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1376</v>
+        <v>1435</v>
       </c>
       <c r="B12" t="n">
-        <v>1405</v>
+        <v>1469</v>
       </c>
       <c r="C12" t="n">
-        <v>1516</v>
+        <v>1614</v>
       </c>
       <c r="D12" t="n">
-        <v>2.06912209906783</v>
+        <v>1.708305065215741</v>
       </c>
       <c r="E12" t="n">
-        <v>1.201603405313125</v>
+        <v>0.9857723710908506</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8675186937547055</v>
+        <v>-0.7225326941248903</v>
       </c>
       <c r="G12" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="H12" t="n">
-        <v>25.98772077952799</v>
+        <v>44.81181888589958</v>
       </c>
       <c r="I12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="K12" t="n">
-        <v>196.2259233397648</v>
+        <v>163.9051729168803</v>
       </c>
       <c r="L12" t="n">
-        <v>7.40569053672845</v>
+        <v>7.983547186729394</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7280262995205415</v>
+        <v>0.8665314231190927</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2612612612612613</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2316822249681321</v>
+        <v>0.2815264042608903</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2548259316246047</v>
+        <v>0.8007310488604079</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>378</v>
+        <v>798</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1516</v>
+        <v>1662</v>
       </c>
       <c r="B13" t="n">
-        <v>1551</v>
+        <v>1681</v>
       </c>
       <c r="C13" t="n">
-        <v>1915</v>
+        <v>1784</v>
       </c>
       <c r="D13" t="n">
-        <v>2.925369763739572</v>
+        <v>2.407012340482779</v>
       </c>
       <c r="E13" t="n">
-        <v>2.057851069984867</v>
+        <v>1.684479646357889</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8675186937547055</v>
+        <v>-0.7225326941248903</v>
       </c>
       <c r="G13" t="n">
-        <v>399</v>
+        <v>122</v>
       </c>
       <c r="H13" t="n">
-        <v>142.693624023894</v>
+        <v>17.89066370448018</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>364</v>
+        <v>103</v>
       </c>
       <c r="K13" t="n">
-        <v>499.3047518872538</v>
+        <v>200.3910024266494</v>
       </c>
       <c r="L13" t="n">
-        <v>10.47032612793504</v>
+        <v>11.24886707331596</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8848746694254721</v>
+        <v>0.8075934653454448</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="R13" t="n">
-        <v>0.399887846168864</v>
+        <v>0.323386838647609</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9234985714899111</v>
+        <v>0.8660218786302921</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>379</v>
+        <v>799</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1212</v>
+        <v>681</v>
       </c>
       <c r="B14" t="n">
-        <v>1249</v>
+        <v>719</v>
       </c>
       <c r="C14" t="n">
-        <v>1361</v>
+        <v>872</v>
       </c>
       <c r="D14" t="n">
-        <v>3.050636986006137</v>
+        <v>3.418042726597813</v>
       </c>
       <c r="E14" t="n">
-        <v>2.266824438812688</v>
+        <v>2.553353921592568</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7838125471934486</v>
+        <v>-0.8646888050052441</v>
       </c>
       <c r="G14" t="n">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="H14" t="n">
-        <v>82.00751154332102</v>
+        <v>158.8424631583825</v>
       </c>
       <c r="I14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="K14" t="n">
-        <v>370.5302529070979</v>
+        <v>454.9734285969625</v>
       </c>
       <c r="L14" t="n">
-        <v>21.78322480069132</v>
+        <v>12.25243675684138</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7719568964046906</v>
+        <v>0.9102054217936384</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3303571428571428</v>
+        <v>0.2483660130718954</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06315946956286408</v>
+        <v>0.2573343519959951</v>
       </c>
       <c r="S14" t="n">
-        <v>0.924928428646854</v>
+        <v>0.9669840744843456</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1361</v>
+        <v>872</v>
       </c>
       <c r="B15" t="n">
-        <v>1426</v>
+        <v>900</v>
       </c>
       <c r="C15" t="n">
-        <v>1667</v>
+        <v>1082</v>
       </c>
       <c r="D15" t="n">
-        <v>3.15860871704256</v>
+        <v>2.246655586374992</v>
       </c>
       <c r="E15" t="n">
-        <v>2.374796169849112</v>
+        <v>1.381966781369748</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7838125471934486</v>
+        <v>-0.8646888050052441</v>
       </c>
       <c r="G15" t="n">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="H15" t="n">
-        <v>183.2473840171997</v>
+        <v>53.27070018124948</v>
       </c>
       <c r="I15" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="K15" t="n">
-        <v>602.974417568682</v>
+        <v>258.1101389147622</v>
       </c>
       <c r="L15" t="n">
-        <v>22.55420230475855</v>
+        <v>8.053441015309742</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7843416011128903</v>
+        <v>0.8675372189964354</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2697095435684647</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1587212473426955</v>
+        <v>0.3921192771336984</v>
       </c>
       <c r="S15" t="n">
-        <v>0.946612519022807</v>
+        <v>0.9705651004756983</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>381</v>
+        <v>801</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1667</v>
+        <v>1082</v>
       </c>
       <c r="B16" t="n">
-        <v>1704</v>
+        <v>1206</v>
       </c>
       <c r="C16" t="n">
-        <v>1753</v>
+        <v>1376</v>
       </c>
       <c r="D16" t="n">
-        <v>1.329410220036198</v>
+        <v>2.072486464293744</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5455976728427495</v>
+        <v>1.2077976592885</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7838125471934486</v>
+        <v>-0.8646888050052441</v>
       </c>
       <c r="G16" t="n">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="H16" t="n">
-        <v>54.91401716506948</v>
+        <v>133.4745547671052</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="J16" t="n">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="K16" t="n">
-        <v>98.24096622029418</v>
+        <v>400.9763806435325</v>
       </c>
       <c r="L16" t="n">
-        <v>9.492719654362299</v>
+        <v>7.429108224882875</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.582688134215511</v>
+        <v>0.6205068304011899</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04067799053130182</v>
+        <v>0.2138219511379762</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8632708615458554</v>
+        <v>0.9344213695288734</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>382</v>
+        <v>802</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1753</v>
+        <v>1376</v>
       </c>
       <c r="B17" t="n">
-        <v>1790</v>
+        <v>1404</v>
       </c>
       <c r="C17" t="n">
-        <v>2004</v>
+        <v>1468</v>
       </c>
       <c r="D17" t="n">
-        <v>2.233430115593105</v>
+        <v>2.107395681706304</v>
       </c>
       <c r="E17" t="n">
-        <v>1.449617568399657</v>
+        <v>1.24270687670106</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7838125471934486</v>
+        <v>-0.8646888050052441</v>
       </c>
       <c r="G17" t="n">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="H17" t="n">
-        <v>116.2550746266888</v>
+        <v>24.77181971371988</v>
       </c>
       <c r="I17" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="K17" t="n">
-        <v>319.6765327810817</v>
+        <v>132.0207732748615</v>
       </c>
       <c r="L17" t="n">
-        <v>15.94791858479773</v>
+        <v>7.554245039367331</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.867978298375925</v>
+        <v>0.7629781100979398</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1728971962616822</v>
+        <v>0.4375</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1936539793575557</v>
+        <v>0.175135945718373</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8710931159599535</v>
+        <v>0.7042664940916371</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>383</v>
+        <v>803</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>1551</v>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>1916</v>
       </c>
       <c r="D18" t="n">
-        <v>2.279837268536546</v>
+        <v>2.951529274092491</v>
       </c>
       <c r="E18" t="n">
-        <v>1.596283552739543</v>
+        <v>2.086840469087246</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6835537157970024</v>
+        <v>-0.8646888050052441</v>
       </c>
       <c r="G18" t="n">
-        <v>179</v>
+        <v>448</v>
       </c>
       <c r="H18" t="n">
-        <v>77.16397689333989</v>
+        <v>141.5817869432228</v>
       </c>
       <c r="I18" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J18" t="n">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="K18" t="n">
-        <v>208.1457605434131</v>
+        <v>561.9350798784885</v>
       </c>
       <c r="L18" t="n">
-        <v>5.588378143402505</v>
+        <v>10.58015614766169</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.800125565390816</v>
+        <v>0.7519613367383564</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3065693430656934</v>
+        <v>0.2273972602739726</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2068591510521335</v>
+        <v>0.36076115279632</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9512494814733049</v>
+        <v>0.9176312870307599</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>384</v>
+        <v>804</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1872</v>
+        <v>1102</v>
       </c>
       <c r="B19" t="n">
-        <v>1897</v>
+        <v>1156</v>
       </c>
       <c r="C19" t="n">
-        <v>2004</v>
+        <v>1309</v>
       </c>
       <c r="D19" t="n">
-        <v>3.40122933451417</v>
+        <v>4.411438149511309</v>
       </c>
       <c r="E19" t="n">
-        <v>2.890375047426548</v>
+        <v>3.923007868776817</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5108542870876218</v>
+        <v>-0.4884302807344912</v>
       </c>
       <c r="G19" t="n">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="H19" t="n">
-        <v>20.31036892624525</v>
+        <v>160.7126027720933</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="J19" t="n">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="K19" t="n">
-        <v>398.4558380643535</v>
+        <v>580.9010976606351</v>
       </c>
       <c r="L19" t="n">
-        <v>11.75035617732507</v>
+        <v>27.59473706258362</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.737223064358175</v>
+        <v>0.8079492105423027</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2336448598130841</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9972011762553388</v>
+        <v>0.2671236276488769</v>
       </c>
       <c r="S19" t="n">
-        <v>0.425051833791393</v>
+        <v>0.9847468381525062</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>385</v>
+        <v>805</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1871</v>
+        <v>1309</v>
       </c>
       <c r="B20" t="n">
-        <v>1929</v>
+        <v>1330</v>
       </c>
       <c r="C20" t="n">
-        <v>2004</v>
+        <v>1359</v>
       </c>
       <c r="D20" t="n">
-        <v>2.952037772644791</v>
+        <v>1.600609419325813</v>
       </c>
       <c r="E20" t="n">
-        <v>2.369224874889397</v>
+        <v>1.112179138591322</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5828128977553932</v>
+        <v>-0.4884302807344912</v>
       </c>
       <c r="G20" t="n">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>33.84508283210971</v>
+        <v>21.48211815415652</v>
       </c>
       <c r="I20" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="K20" t="n">
-        <v>240.6526949719888</v>
+        <v>70.3162025192687</v>
       </c>
       <c r="L20" t="n">
-        <v>10.87291718120823</v>
+        <v>10.01224420908709</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7548224599508849</v>
+        <v>0.687864027110653</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3771689736775813</v>
+        <v>0.08451678309780905</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9707591165957867</v>
+        <v>0.9654836510997513</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>386</v>
+        <v>806</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>1248</v>
       </c>
       <c r="C21" t="n">
-        <v>110</v>
+        <v>1360</v>
       </c>
       <c r="D21" t="n">
-        <v>2.823354250456346</v>
+        <v>3.040513269961787</v>
       </c>
       <c r="E21" t="n">
-        <v>2.20192008712991</v>
+        <v>2.254313124304919</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6214341633264365</v>
+        <v>-0.7862001456568675</v>
       </c>
       <c r="G21" t="n">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H21" t="n">
-        <v>43.95498236310149</v>
+        <v>84.04560818587515</v>
       </c>
       <c r="I21" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="K21" t="n">
-        <v>197.3314721279943</v>
+        <v>367.2028847888381</v>
       </c>
       <c r="L21" t="n">
-        <v>6.318431343941765</v>
+        <v>21.70480496997876</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.625471751678934</v>
+        <v>0.7795958920775571</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6417910447761194</v>
+        <v>0.3125</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1505567322195642</v>
+        <v>0.0693854814434816</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9869090540058566</v>
+        <v>0.905407117738196</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>387</v>
+        <v>807</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110</v>
+        <v>1360</v>
       </c>
       <c r="B22" t="n">
-        <v>143</v>
+        <v>1424</v>
       </c>
       <c r="C22" t="n">
-        <v>343</v>
+        <v>1669</v>
       </c>
       <c r="D22" t="n">
-        <v>2.866293155536962</v>
+        <v>3.153831226143074</v>
       </c>
       <c r="E22" t="n">
-        <v>2.244858992210525</v>
+        <v>2.367631080486207</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6214341633264365</v>
+        <v>-0.7862001456568675</v>
       </c>
       <c r="G22" t="n">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="H22" t="n">
-        <v>69.60215513680241</v>
+        <v>182.7378714979138</v>
       </c>
       <c r="I22" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="K22" t="n">
-        <v>314.2134081285782</v>
+        <v>607.3596144499327</v>
       </c>
       <c r="L22" t="n">
-        <v>6.414525032394798</v>
+        <v>22.51372896409847</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8787469756899283</v>
+        <v>0.7357442116573034</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.165</v>
+        <v>0.2612244897959184</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3677259234759755</v>
+        <v>0.146039641015379</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8946480322864854</v>
+        <v>0.9467406285358043</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>388</v>
+        <v>808</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>343</v>
+        <v>1669</v>
       </c>
       <c r="B23" t="n">
-        <v>378</v>
+        <v>1699</v>
       </c>
       <c r="C23" t="n">
-        <v>505</v>
+        <v>1755</v>
       </c>
       <c r="D23" t="n">
-        <v>2.645807505417508</v>
+        <v>1.338261094921365</v>
       </c>
       <c r="E23" t="n">
-        <v>2.024373342091072</v>
+        <v>0.5520609492644973</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6214341633264365</v>
+        <v>-0.7862001456568675</v>
       </c>
       <c r="G23" t="n">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="H23" t="n">
-        <v>50.19175497214826</v>
+        <v>54.83664688064391</v>
       </c>
       <c r="I23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="K23" t="n">
-        <v>221.0302115786763</v>
+        <v>98.50552680837491</v>
       </c>
       <c r="L23" t="n">
-        <v>5.921096535995893</v>
+        <v>9.553221277190321</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9350529588993066</v>
+        <v>0.6531430957574187</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2700005613539354</v>
+        <v>0.05822474313137462</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8751179902752327</v>
+        <v>0.8395632542558252</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>389</v>
+        <v>809</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>505</v>
+        <v>1755</v>
       </c>
       <c r="B24" t="n">
-        <v>543</v>
+        <v>1788</v>
       </c>
       <c r="C24" t="n">
-        <v>622</v>
+        <v>1843</v>
       </c>
       <c r="D24" t="n">
-        <v>2.820962996879667</v>
+        <v>2.237709420544967</v>
       </c>
       <c r="E24" t="n">
-        <v>2.199528833553231</v>
+        <v>1.451509274888099</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6214341633264365</v>
+        <v>-0.7862001456568675</v>
       </c>
       <c r="G24" t="n">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="H24" t="n">
-        <v>79.43900544014537</v>
+        <v>115.921236004986</v>
       </c>
       <c r="I24" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="K24" t="n">
-        <v>212.3602681978271</v>
+        <v>154.7338720559251</v>
       </c>
       <c r="L24" t="n">
-        <v>6.313079917868412</v>
+        <v>15.97396302533589</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7886085055728658</v>
+        <v>0.7886215621957421</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4810126582278481</v>
+        <v>0.6</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1580951789370406</v>
+        <v>0.2408124073089281</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9708380728285495</v>
+        <v>0.9963390018827368</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>390</v>
+        <v>810</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1718</v>
+        <v>1843</v>
       </c>
       <c r="B25" t="n">
-        <v>1751</v>
+        <v>1869</v>
       </c>
       <c r="C25" t="n">
-        <v>1917</v>
+        <v>2004</v>
       </c>
       <c r="D25" t="n">
-        <v>3.779146757836124</v>
+        <v>1.809606940674664</v>
       </c>
       <c r="E25" t="n">
-        <v>3.262181298091291</v>
+        <v>1.023406795017797</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5169654597448332</v>
+        <v>-0.7862001456568675</v>
       </c>
       <c r="G25" t="n">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="H25" t="n">
-        <v>78.15951601255369</v>
+        <v>22.11982445554668</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J25" t="n">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="K25" t="n">
-        <v>365.8175004876388</v>
+        <v>163.6289837555884</v>
       </c>
       <c r="L25" t="n">
-        <v>14.93438456774096</v>
+        <v>12.91793925311734</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.9094664396603828</v>
+        <v>0.7881814961144618</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1987951807228916</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2933172969580504</v>
+        <v>0.4695391551055407</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7949941457221096</v>
+        <v>0.7752647881483017</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>391</v>
+        <v>811</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1892</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1930</v>
+        <v>42</v>
       </c>
       <c r="C26" t="n">
-        <v>2004</v>
+        <v>182</v>
       </c>
       <c r="D26" t="n">
-        <v>4.990297904590214</v>
+        <v>2.767958899931201</v>
       </c>
       <c r="E26" t="n">
-        <v>4.482326026501402</v>
+        <v>2.20264943753237</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5079718780888115</v>
+        <v>-0.5653094623988311</v>
       </c>
       <c r="G26" t="n">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="H26" t="n">
-        <v>29.6736170510087</v>
+        <v>68.65331793959062</v>
       </c>
       <c r="I26" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J26" t="n">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>405.3811753730816</v>
+        <v>254.285071326006</v>
       </c>
       <c r="L26" t="n">
-        <v>20.86340889092205</v>
+        <v>5.394534893324129</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8133874952812117</v>
+        <v>0.816348596796967</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.3</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3694813647633579</v>
+        <v>0.1611468953997637</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8890958498036304</v>
+        <v>0.9147562456630132</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>392</v>
+        <v>812</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2710,37 +2710,37 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C27" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D27" t="n">
-        <v>2.452131970515878</v>
+        <v>2.309875838802735</v>
       </c>
       <c r="E27" t="n">
-        <v>1.937925551880047</v>
+        <v>1.624296695354407</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5142064186358315</v>
+        <v>-0.6855791434483279</v>
       </c>
       <c r="G27" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="H27" t="n">
-        <v>70.34732451295247</v>
+        <v>76.80704254522293</v>
       </c>
       <c r="I27" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="K27" t="n">
-        <v>192.5384287211298</v>
+        <v>209.7492096945031</v>
       </c>
       <c r="L27" t="n">
-        <v>10.02182202821229</v>
+        <v>5.669830280411473</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6075885078523477</v>
+        <v>0.8191129069913488</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7386363636363636</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7617576923103502</v>
+        <v>0.2338816194144096</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8663166068647838</v>
+        <v>0.9503152201026513</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>393</v>
+        <v>813</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>184</v>
+        <v>1592</v>
       </c>
       <c r="B28" t="n">
-        <v>217</v>
+        <v>1624</v>
       </c>
       <c r="C28" t="n">
-        <v>372</v>
+        <v>1669</v>
       </c>
       <c r="D28" t="n">
-        <v>5.074993904614892</v>
+        <v>3.13027143788766</v>
       </c>
       <c r="E28" t="n">
-        <v>4.624137055710578</v>
+        <v>2.444692294439332</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4508568489043144</v>
+        <v>-0.6855791434483279</v>
       </c>
       <c r="G28" t="n">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5057287532108</v>
+        <v>235.6552141597099</v>
       </c>
       <c r="I28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="K28" t="n">
-        <v>553.4836349288296</v>
+        <v>188.4179677759853</v>
       </c>
       <c r="L28" t="n">
-        <v>22.65280439837926</v>
+        <v>7.683576530954102</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8694553870897398</v>
+        <v>0.7049084897997152</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2129032258064516</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2621308154568895</v>
+        <v>0.1745825495569343</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8414386747466551</v>
+        <v>0.982989574033204</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>394</v>
+        <v>814</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>372</v>
+        <v>1669</v>
       </c>
       <c r="B29" t="n">
-        <v>423</v>
+        <v>1698</v>
       </c>
       <c r="C29" t="n">
-        <v>582</v>
+        <v>1755</v>
       </c>
       <c r="D29" t="n">
-        <v>1.251709441489838</v>
+        <v>2.908722953128156</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8008525925855238</v>
+        <v>2.223143809679828</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4508568489043144</v>
+        <v>-0.6855791434483279</v>
       </c>
       <c r="G29" t="n">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="H29" t="n">
-        <v>38.63199037270772</v>
+        <v>35.2074802652221</v>
       </c>
       <c r="I29" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J29" t="n">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K29" t="n">
-        <v>142.5979812186874</v>
+        <v>202.9653771116825</v>
       </c>
       <c r="L29" t="n">
-        <v>5.58714545763095</v>
+        <v>7.139762752582445</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.796242184541489</v>
+        <v>0.7740955361173752</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3207547169811321</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4657501939563558</v>
+        <v>0.09965556262024174</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6818438043876697</v>
+        <v>0.9824566705387622</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>395</v>
+        <v>815</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>772</v>
+        <v>375</v>
       </c>
       <c r="B30" t="n">
-        <v>806</v>
+        <v>443</v>
       </c>
       <c r="C30" t="n">
-        <v>914</v>
+        <v>620</v>
       </c>
       <c r="D30" t="n">
-        <v>4.457740766059962</v>
+        <v>3.329167172233269</v>
       </c>
       <c r="E30" t="n">
-        <v>3.857375165585572</v>
+        <v>2.820256988357237</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6003656004743904</v>
+        <v>-0.5089101838760314</v>
       </c>
       <c r="G30" t="n">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="H30" t="n">
-        <v>108.6552659042271</v>
+        <v>87.86730100967401</v>
       </c>
       <c r="I30" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="J30" t="n">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K30" t="n">
-        <v>373.4072294519529</v>
+        <v>324.1865734095107</v>
       </c>
       <c r="L30" t="n">
-        <v>15.29497525338201</v>
+        <v>11.45558861728334</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8966052572478113</v>
+        <v>0.7360185300714126</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.384180790960452</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2644198264119834</v>
+        <v>0.4081744829363386</v>
       </c>
       <c r="S30" t="n">
-        <v>0.896992160351776</v>
+        <v>0.8652886319343753</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>396</v>
+        <v>816</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1930</v>
+        <v>620</v>
       </c>
       <c r="B31" t="n">
-        <v>1955</v>
+        <v>645</v>
       </c>
       <c r="C31" t="n">
-        <v>2004</v>
+        <v>797</v>
       </c>
       <c r="D31" t="n">
-        <v>2.879656998078453</v>
+        <v>1.556464181744678</v>
       </c>
       <c r="E31" t="n">
-        <v>2.381066931928467</v>
+        <v>1.047553997868647</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4985900661499861</v>
+        <v>-0.5089101838760314</v>
       </c>
       <c r="G31" t="n">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="H31" t="n">
-        <v>51.4779235394235</v>
+        <v>25.86752689792922</v>
       </c>
       <c r="I31" t="n">
         <v>25</v>
       </c>
       <c r="J31" t="n">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="K31" t="n">
-        <v>155.6567194285208</v>
+        <v>96.6488157050851</v>
       </c>
       <c r="L31" t="n">
-        <v>11.21774873411906</v>
+        <v>5.355757894141048</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.795055219303372</v>
+        <v>0.7019349938466162</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="R31" t="n">
-        <v>0.347024506287222</v>
+        <v>0.6069352463925556</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7985078506398051</v>
+        <v>0.4277975338953007</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>397</v>
+        <v>817</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" t="n">
+        <v>55</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7575732150401828</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1788554264791872</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.5787177885609956</v>
+      </c>
+      <c r="G32" t="n">
+        <v>55</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25.99018146640716</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20</v>
+      </c>
+      <c r="J32" t="n">
         <v>35</v>
       </c>
-      <c r="B32" t="n">
-        <v>65</v>
-      </c>
-      <c r="C32" t="n">
-        <v>150</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.789862189379653</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.317028447888684</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.472833741490969</v>
-      </c>
-      <c r="G32" t="n">
-        <v>115</v>
-      </c>
-      <c r="H32" t="n">
-        <v>55.82046818707498</v>
-      </c>
-      <c r="I32" t="n">
-        <v>30</v>
-      </c>
-      <c r="J32" t="n">
-        <v>85</v>
-      </c>
       <c r="K32" t="n">
-        <v>116.617960903588</v>
+        <v>31.15569040735258</v>
       </c>
       <c r="L32" t="n">
-        <v>6.635399982425267</v>
+        <v>2.789899618387498</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.9055929612288341</v>
+        <v>0.76244461282785</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R32" t="n">
-        <v>0.234870392151969</v>
+        <v>0.1318395179522983</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8834193576601319</v>
+        <v>0.973634371457192</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>398</v>
+        <v>818</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1849</v>
+        <v>338</v>
       </c>
       <c r="B33" t="n">
-        <v>1876</v>
+        <v>376</v>
       </c>
       <c r="C33" t="n">
-        <v>2004</v>
+        <v>622</v>
       </c>
       <c r="D33" t="n">
-        <v>1.822212175848287</v>
+        <v>4.629073961472662</v>
       </c>
       <c r="E33" t="n">
-        <v>1.349378434357318</v>
+        <v>4.050356172911667</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.472833741490969</v>
+        <v>-0.5787177885609956</v>
       </c>
       <c r="G33" t="n">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="H33" t="n">
-        <v>47.80504384421147</v>
+        <v>91.02756699487981</v>
       </c>
       <c r="I33" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J33" t="n">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="K33" t="n">
-        <v>112.1191295705132</v>
+        <v>627.1628946176385</v>
       </c>
       <c r="L33" t="n">
-        <v>6.755328265685907</v>
+        <v>17.04739742932314</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8219409509057291</v>
+        <v>0.9016875372839659</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2109375</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4722079245419415</v>
+        <v>0.2940859804475546</v>
       </c>
       <c r="S33" t="n">
-        <v>0.517157311884337</v>
+        <v>0.9709711634815591</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>399</v>
+        <v>819</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>657</v>
+        <v>1874</v>
       </c>
       <c r="B34" t="n">
-        <v>696</v>
+        <v>1926</v>
       </c>
       <c r="C34" t="n">
-        <v>786</v>
+        <v>2004</v>
       </c>
       <c r="D34" t="n">
-        <v>3.154106032320401</v>
+        <v>3.00259920028114</v>
       </c>
       <c r="E34" t="n">
-        <v>2.569135408382511</v>
+        <v>2.423881411720144</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5849706239378898</v>
+        <v>-0.5787177885609956</v>
       </c>
       <c r="G34" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H34" t="n">
-        <v>82.66520182510021</v>
+        <v>31.67716332357691</v>
       </c>
       <c r="I34" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J34" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6558056098388</v>
+        <v>239.9955162783967</v>
       </c>
       <c r="L34" t="n">
-        <v>11.67562715379993</v>
+        <v>11.05761159017565</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7585212385505273</v>
+        <v>0.7740779276034913</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R34" t="n">
-        <v>0.160630932026671</v>
+        <v>0.3570647616026016</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7233401687703673</v>
+        <v>0.9708079885113943</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>826</v>
+        <v>44</v>
       </c>
       <c r="C35" t="n">
-        <v>1029</v>
+        <v>113</v>
       </c>
       <c r="D35" t="n">
-        <v>1.840685177251335</v>
+        <v>2.700980587998361</v>
       </c>
       <c r="E35" t="n">
-        <v>1.255714553313445</v>
+        <v>2.105935398018919</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5849706239378898</v>
+        <v>-0.5950451899794422</v>
       </c>
       <c r="G35" t="n">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="H35" t="n">
-        <v>102.1203558088287</v>
+        <v>43.60440757722714</v>
       </c>
       <c r="I35" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J35" t="n">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="K35" t="n">
-        <v>300.2030174902932</v>
+        <v>204.2016142047746</v>
       </c>
       <c r="L35" t="n">
-        <v>6.81370683702164</v>
+        <v>5.395994370013576</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8558645275281969</v>
+        <v>0.6796244181238051</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1970443349753695</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1613829187971755</v>
+        <v>0.2206986073797568</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8433038637067581</v>
+        <v>0.9693308822677063</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>401</v>
+        <v>821</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>605</v>
+        <v>113</v>
       </c>
       <c r="B36" t="n">
-        <v>676</v>
+        <v>140</v>
       </c>
       <c r="C36" t="n">
-        <v>888</v>
+        <v>345</v>
       </c>
       <c r="D36" t="n">
-        <v>4.751164842331139</v>
+        <v>3.251022601538988</v>
       </c>
       <c r="E36" t="n">
-        <v>4.268052095802724</v>
+        <v>2.655977411559546</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4831127465284157</v>
+        <v>-0.5950451899794422</v>
       </c>
       <c r="G36" t="n">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="H36" t="n">
-        <v>96.69198347655868</v>
+        <v>75.24185381878601</v>
       </c>
       <c r="I36" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="J36" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K36" t="n">
-        <v>530.6853852972483</v>
+        <v>356.3010932801453</v>
       </c>
       <c r="L36" t="n">
-        <v>53.63496670848316</v>
+        <v>6.494863285075159</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.9075111246691976</v>
+        <v>0.8796891472618876</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3349056603773585</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="R36" t="n">
-        <v>0.5210292351565349</v>
+        <v>0.3518189198357215</v>
       </c>
       <c r="S36" t="n">
-        <v>0.975174982188872</v>
+        <v>0.9066459946254151</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>402</v>
+        <v>822</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1888</v>
+        <v>345</v>
       </c>
       <c r="B37" t="n">
-        <v>1920</v>
+        <v>375</v>
       </c>
       <c r="C37" t="n">
-        <v>2004</v>
+        <v>509</v>
       </c>
       <c r="D37" t="n">
-        <v>4.130852798388156</v>
+        <v>2.514400305682147</v>
       </c>
       <c r="E37" t="n">
-        <v>3.647740051859741</v>
+        <v>1.919355115702705</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4831127465284157</v>
+        <v>-0.5950451899794422</v>
       </c>
       <c r="G37" t="n">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="H37" t="n">
-        <v>31.34733102616838</v>
+        <v>55.45958830381466</v>
       </c>
       <c r="I37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="K37" t="n">
-        <v>305.4450264700895</v>
+        <v>212.0788560673407</v>
       </c>
       <c r="L37" t="n">
-        <v>46.63238588255059</v>
+        <v>5.023245984702172</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.873161986458651</v>
+        <v>0.9322490563839061</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4120867874211588</v>
+        <v>0.2377008996494627</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9062178844703176</v>
+        <v>0.9237917748198176</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>403</v>
+        <v>823</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="B38" t="n">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="C38" t="n">
-        <v>826</v>
+        <v>621</v>
       </c>
       <c r="D38" t="n">
-        <v>1.332705350707744</v>
+        <v>2.674708585882557</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8541488421665508</v>
+        <v>2.079663395903115</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4785565085411935</v>
+        <v>-0.5950451899794422</v>
       </c>
       <c r="G38" t="n">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="H38" t="n">
-        <v>30.48290807051592</v>
+        <v>66.28303084279185</v>
       </c>
       <c r="I38" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="J38" t="n">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="K38" t="n">
-        <v>108.2607076050643</v>
+        <v>184.6919778183406</v>
       </c>
       <c r="L38" t="n">
-        <v>6.12735531287669</v>
+        <v>5.343508403940446</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.5811064102936823</v>
+        <v>0.8136785794314577</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.327485380116959</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6589189580031219</v>
+        <v>0.1477145707719851</v>
       </c>
       <c r="S38" t="n">
-        <v>0.5225179412650311</v>
+        <v>0.9742717219702927</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>404</v>
+        <v>824</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>824</v>
+        <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>999</v>
+        <v>112</v>
       </c>
       <c r="D39" t="n">
-        <v>2.622086930422721</v>
+        <v>2.901173170261825</v>
       </c>
       <c r="E39" t="n">
-        <v>2.029176954407557</v>
+        <v>2.274927362692966</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5929099760151649</v>
+        <v>-0.6262458075688593</v>
       </c>
       <c r="G39" t="n">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H39" t="n">
-        <v>84.39339985105801</v>
+        <v>42.53720382860868</v>
       </c>
       <c r="I39" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J39" t="n">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="K39" t="n">
-        <v>345.1787368257677</v>
+        <v>200.8135025786411</v>
       </c>
       <c r="L39" t="n">
-        <v>7.743363647202754</v>
+        <v>6.493511924495564</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8571137560693176</v>
+        <v>0.6417244358120137</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3028571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2746851773662219</v>
+        <v>0.1548458730284251</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7282620091373058</v>
+        <v>0.9879320738934231</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>405</v>
+        <v>825</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>999</v>
+        <v>112</v>
       </c>
       <c r="B40" t="n">
-        <v>1036</v>
+        <v>142</v>
       </c>
       <c r="C40" t="n">
-        <v>1138</v>
+        <v>344</v>
       </c>
       <c r="D40" t="n">
-        <v>3.391548793373514</v>
+        <v>2.933285152880582</v>
       </c>
       <c r="E40" t="n">
-        <v>2.798638817358349</v>
+        <v>2.307039345311722</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5929099760151649</v>
+        <v>-0.6262458075688593</v>
       </c>
       <c r="G40" t="n">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="H40" t="n">
-        <v>46.19593538472907</v>
+        <v>67.55716516489214</v>
       </c>
       <c r="I40" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J40" t="n">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0090585255849</v>
+        <v>313.5276092397208</v>
       </c>
       <c r="L40" t="n">
-        <v>10.01568457918708</v>
+        <v>6.56538613875878</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.92804119681412</v>
+        <v>0.8640522016593055</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3627450980392157</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2492884415222628</v>
+        <v>0.3751486117121691</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9763004478242567</v>
+        <v>0.8778675919408412</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>406</v>
+        <v>826</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1196</v>
+        <v>344</v>
       </c>
       <c r="B41" t="n">
-        <v>1234</v>
+        <v>377</v>
       </c>
       <c r="C41" t="n">
-        <v>1355</v>
+        <v>507</v>
       </c>
       <c r="D41" t="n">
-        <v>2.945725380162049</v>
+        <v>2.682176975313839</v>
       </c>
       <c r="E41" t="n">
-        <v>2.659268954872921</v>
+        <v>2.05593116774498</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2864564252891278</v>
+        <v>-0.6262458075688593</v>
       </c>
       <c r="G41" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H41" t="n">
-        <v>77.47733219382189</v>
+        <v>50.07866281081596</v>
       </c>
       <c r="I41" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J41" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K41" t="n">
-        <v>211.8084283951142</v>
+        <v>223.0526232788913</v>
       </c>
       <c r="L41" t="n">
-        <v>8.886741256862315</v>
+        <v>6.003346629334791</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.816124355186185</v>
+        <v>0.920228316427075</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3140495867768595</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4950714346087898</v>
+        <v>0.2915680084615069</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3895620900644253</v>
+        <v>0.8672651101252026</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>407</v>
+        <v>827</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1634</v>
+        <v>507</v>
       </c>
       <c r="B42" t="n">
-        <v>1660</v>
+        <v>540</v>
       </c>
       <c r="C42" t="n">
-        <v>1889</v>
+        <v>621</v>
       </c>
       <c r="D42" t="n">
-        <v>4.657510684882899</v>
+        <v>2.830479945440215</v>
       </c>
       <c r="E42" t="n">
-        <v>4.179585410020513</v>
+        <v>2.204234137871356</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4779252748623863</v>
+        <v>-0.6262458075688593</v>
       </c>
       <c r="G42" t="n">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H42" t="n">
-        <v>126.4981189157704</v>
+        <v>79.67259236479993</v>
       </c>
       <c r="I42" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J42" t="n">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="K42" t="n">
-        <v>541.2426374103187</v>
+        <v>210.1387795639602</v>
       </c>
       <c r="L42" t="n">
-        <v>26.22905046794525</v>
+        <v>6.335283762500415</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8811580854317724</v>
+        <v>0.8101532888411598</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1135371179039301</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5040143070765453</v>
+        <v>0.1511355235002039</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9698880720550703</v>
+        <v>0.9694808701931203</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>408</v>
+        <v>828</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1693</v>
+        <v>1719</v>
       </c>
       <c r="B43" t="n">
-        <v>1791</v>
+        <v>1750</v>
       </c>
       <c r="C43" t="n">
-        <v>2004</v>
+        <v>1920</v>
       </c>
       <c r="D43" t="n">
-        <v>3.504348795039192</v>
+        <v>3.739060446842359</v>
       </c>
       <c r="E43" t="n">
-        <v>3.029630177556869</v>
+        <v>3.222131601096331</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4747186174823231</v>
+        <v>-0.5169288457460279</v>
       </c>
       <c r="G43" t="n">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0153417066706</v>
+        <v>80.90643064766437</v>
       </c>
       <c r="I43" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="J43" t="n">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="K43" t="n">
-        <v>540.8470052414177</v>
+        <v>366.6670250414406</v>
       </c>
       <c r="L43" t="n">
-        <v>11.99866168212559</v>
+        <v>14.67840152961777</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.6677404319294631</v>
+        <v>0.8961579214424479</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.460093896713615</v>
+        <v>0.1823529411764706</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3968659368814556</v>
+        <v>0.3008961482782332</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7414279337792823</v>
+        <v>0.7869814742247091</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>409</v>
+        <v>829</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1261</v>
+        <v>1920</v>
       </c>
       <c r="B44" t="n">
-        <v>1278</v>
+        <v>1954</v>
       </c>
       <c r="C44" t="n">
-        <v>1308</v>
+        <v>2004</v>
       </c>
       <c r="D44" t="n">
-        <v>1.927767888307138</v>
+        <v>3.263401622706542</v>
       </c>
       <c r="E44" t="n">
-        <v>1.382451598258762</v>
+        <v>2.746472776960514</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.545316290048376</v>
+        <v>-0.5169288457460279</v>
       </c>
       <c r="G44" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H44" t="n">
-        <v>24.5461461295838</v>
+        <v>30.1141074353543</v>
       </c>
       <c r="I44" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>75.664598334918</v>
+        <v>202.3489018829021</v>
       </c>
       <c r="L44" t="n">
-        <v>6.796191061442924</v>
+        <v>12.81111125415094</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.6600341981801662</v>
+        <v>0.8105332773788124</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.68</v>
       </c>
       <c r="R44" t="n">
-        <v>0.03493885509068485</v>
+        <v>0.6590275352848689</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9461970663884743</v>
+        <v>0.8930301962289083</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>410</v>
+        <v>830</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1661</v>
+        <v>1894</v>
       </c>
       <c r="B45" t="n">
-        <v>1712</v>
+        <v>1929</v>
       </c>
       <c r="C45" t="n">
         <v>2004</v>
       </c>
       <c r="D45" t="n">
-        <v>4.610771243305704</v>
+        <v>4.994898844671757</v>
       </c>
       <c r="E45" t="n">
-        <v>4.18069381367642</v>
+        <v>4.481428667336165</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.4300774296292836</v>
+        <v>-0.513470177335592</v>
       </c>
       <c r="G45" t="n">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="H45" t="n">
-        <v>102.487067430792</v>
+        <v>28.75529982527769</v>
       </c>
       <c r="I45" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J45" t="n">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="K45" t="n">
-        <v>717.522653840047</v>
+        <v>403.3979143696286</v>
       </c>
       <c r="L45" t="n">
-        <v>27.73638415673633</v>
+        <v>20.75634393496172</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8939173392263068</v>
+        <v>0.8253666543600131</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.1746575342465753</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2706018313462896</v>
+        <v>0.3541081231909546</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9437129629262965</v>
+        <v>0.8734493546321874</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>411</v>
+        <v>831</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1902</v>
+        <v>31</v>
       </c>
       <c r="B46" t="n">
-        <v>1932</v>
+        <v>63</v>
       </c>
       <c r="C46" t="n">
-        <v>2004</v>
+        <v>153</v>
       </c>
       <c r="D46" t="n">
-        <v>6.196893737619871</v>
+        <v>2.480679828704559</v>
       </c>
       <c r="E46" t="n">
-        <v>5.789267562484302</v>
+        <v>1.959789140525414</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.4076261751355693</v>
+        <v>-0.5208906881791445</v>
       </c>
       <c r="G46" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H46" t="n">
-        <v>37.19866446294191</v>
+        <v>70.85827015681522</v>
       </c>
       <c r="I46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J46" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="K46" t="n">
-        <v>412.9715249835722</v>
+        <v>182.2950395806092</v>
       </c>
       <c r="L46" t="n">
-        <v>31.39971548139214</v>
+        <v>10.05140152634178</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.9205628850384626</v>
+        <v>0.8808477273311262</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R46" t="n">
-        <v>0.279194464614343</v>
+        <v>0.2916625305491694</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9838178914273719</v>
+        <v>0.8469055868593826</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>412</v>
+        <v>832</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1609</v>
+        <v>197</v>
       </c>
       <c r="B47" t="n">
-        <v>1638</v>
+        <v>243</v>
       </c>
       <c r="C47" t="n">
-        <v>1679</v>
+        <v>449</v>
       </c>
       <c r="D47" t="n">
-        <v>2.099469873232577</v>
+        <v>4.556396751374919</v>
       </c>
       <c r="E47" t="n">
-        <v>1.633610001965513</v>
+        <v>4.035506063195775</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.4658598712670638</v>
+        <v>-0.5208906881791445</v>
       </c>
       <c r="G47" t="n">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="H47" t="n">
-        <v>31.46293982954785</v>
+        <v>125.113888242693</v>
       </c>
       <c r="I47" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J47" t="n">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="K47" t="n">
-        <v>90.17824923646397</v>
+        <v>606.3456896549703</v>
       </c>
       <c r="L47" t="n">
-        <v>6.147247530881297</v>
+        <v>18.4619444764482</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.8048819556106959</v>
+        <v>0.9297780669031162</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="R47" t="n">
-        <v>0.6674438968971175</v>
+        <v>0.2347614619200499</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9454269855044172</v>
+        <v>0.9672933433291607</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>413</v>
+        <v>833</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,85 +4513,3611 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>185</v>
+      </c>
+      <c r="B48" t="n">
+        <v>217</v>
+      </c>
+      <c r="C48" t="n">
+        <v>371</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.097143614461348</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.650488000780218</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.446655613681131</v>
+      </c>
+      <c r="G48" t="n">
+        <v>186</v>
+      </c>
+      <c r="H48" t="n">
+        <v>140.0669922224797</v>
+      </c>
+      <c r="I48" t="n">
+        <v>32</v>
+      </c>
+      <c r="J48" t="n">
+        <v>154</v>
+      </c>
+      <c r="K48" t="n">
+        <v>551.4197090064697</v>
+      </c>
+      <c r="L48" t="n">
+        <v>22.47150121756691</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8629348465817734</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2760716827583917</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.8262111834967145</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>834</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>751</v>
+      </c>
+      <c r="B49" t="n">
+        <v>778</v>
+      </c>
+      <c r="C49" t="n">
+        <v>861</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6938419251361155</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2471863114549845</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.446655613681131</v>
+      </c>
+      <c r="G49" t="n">
+        <v>110</v>
+      </c>
+      <c r="H49" t="n">
+        <v>24.27368587273997</v>
+      </c>
+      <c r="I49" t="n">
+        <v>27</v>
+      </c>
+      <c r="J49" t="n">
+        <v>83</v>
+      </c>
+      <c r="K49" t="n">
+        <v>47.09170581292777</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.0589033476042</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7776283729056723</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3253012048192771</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.2604322281694092</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.4654315165928965</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>835</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>389</v>
+      </c>
+      <c r="B50" t="n">
+        <v>446</v>
+      </c>
+      <c r="C50" t="n">
+        <v>544</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.605308925315597</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.188592618609449</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.416716306706149</v>
+      </c>
+      <c r="G50" t="n">
+        <v>155</v>
+      </c>
+      <c r="H50" t="n">
+        <v>104.1828632251691</v>
+      </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>98</v>
+      </c>
+      <c r="K50" t="n">
+        <v>382.4222302850904</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10.06319693523471</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.7413003749306514</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.5816326530612245</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.155835415853455</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.7068987030253635</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>836</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>45</v>
+      </c>
+      <c r="C51" t="n">
+        <v>202</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.639588869416021</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.037630262283501</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.6019586071325195</v>
+      </c>
+      <c r="G51" t="n">
+        <v>202</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14.6191904510936</v>
+      </c>
+      <c r="I51" t="n">
+        <v>45</v>
+      </c>
+      <c r="J51" t="n">
+        <v>157</v>
+      </c>
+      <c r="K51" t="n">
+        <v>318.6627681618579</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.914749531687722</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.6674545678608247</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.286624203821656</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.4718356959776751</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8666505099155573</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>837</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>773</v>
+      </c>
+      <c r="B52" t="n">
+        <v>806</v>
+      </c>
+      <c r="C52" t="n">
+        <v>915</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.455800740737573</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.853842133605053</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.6019586071325195</v>
+      </c>
+      <c r="G52" t="n">
+        <v>142</v>
+      </c>
+      <c r="H52" t="n">
+        <v>110.375488054639</v>
+      </c>
+      <c r="I52" t="n">
+        <v>33</v>
+      </c>
+      <c r="J52" t="n">
+        <v>109</v>
+      </c>
+      <c r="K52" t="n">
+        <v>374.004829598565</v>
+      </c>
+      <c r="L52" t="n">
+        <v>15.04868732666394</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8985007736616067</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3027522935779817</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2460483638848191</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.879756922900635</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>838</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.543104430616859</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9411458234843391</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.6019586071325195</v>
+      </c>
+      <c r="G53" t="n">
+        <v>76</v>
+      </c>
+      <c r="H53" t="n">
+        <v>23.69361615299272</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>48</v>
+      </c>
+      <c r="K53" t="n">
+        <v>93.11414589525818</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.211565202284829</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.5294604765850212</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.1643180586553032</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.3769200055331223</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>839</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.921213448657934</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.420247355645321</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5009660930126132</v>
+      </c>
+      <c r="G54" t="n">
+        <v>73</v>
+      </c>
+      <c r="H54" t="n">
+        <v>52.62749741090693</v>
+      </c>
+      <c r="I54" t="n">
+        <v>21</v>
+      </c>
+      <c r="J54" t="n">
+        <v>52</v>
+      </c>
+      <c r="K54" t="n">
+        <v>156.5656514746964</v>
+      </c>
+      <c r="L54" t="n">
+        <v>11.15474296391347</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8296335520398698</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.4038461538461539</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3455185309387313</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.7735383784883123</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>840</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37</v>
+      </c>
+      <c r="B55" t="n">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>153</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.816030769482381</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.341414160547146</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4746166089352356</v>
+      </c>
+      <c r="G55" t="n">
+        <v>116</v>
+      </c>
+      <c r="H55" t="n">
+        <v>53.35290295018964</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26</v>
+      </c>
+      <c r="J55" t="n">
+        <v>90</v>
+      </c>
+      <c r="K55" t="n">
+        <v>117.7441811932241</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.700801765024665</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.9435393747688918</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.229002095069613</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.879101116777576</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>841</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>196</v>
+      </c>
+      <c r="B56" t="n">
+        <v>250</v>
+      </c>
+      <c r="C56" t="n">
+        <v>430</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.544463567368093</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.069846958432858</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.4746166089352356</v>
+      </c>
+      <c r="G56" t="n">
+        <v>234</v>
+      </c>
+      <c r="H56" t="n">
+        <v>123.8097113382212</v>
+      </c>
+      <c r="I56" t="n">
+        <v>54</v>
+      </c>
+      <c r="J56" t="n">
+        <v>180</v>
+      </c>
+      <c r="K56" t="n">
+        <v>588.289036489978</v>
+      </c>
+      <c r="L56" t="n">
+        <v>16.76819027795985</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.9466350148177525</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2552384668073728</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9839161577672282</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>842</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.816188840536126</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.34157223160089</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.4746166089352356</v>
+      </c>
+      <c r="G57" t="n">
+        <v>154</v>
+      </c>
+      <c r="H57" t="n">
+        <v>48.67488151829525</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>130</v>
+      </c>
+      <c r="K57" t="n">
+        <v>112.9704417803639</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.701385016593818</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8159068171955509</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.4636096221540488</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.5294243089921916</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>843</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>415</v>
+      </c>
+      <c r="B58" t="n">
+        <v>444</v>
+      </c>
+      <c r="C58" t="n">
+        <v>670</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.382595085587181</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.892485194468695</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.4901098911184868</v>
+      </c>
+      <c r="G58" t="n">
+        <v>255</v>
+      </c>
+      <c r="H58" t="n">
+        <v>203.4372977554102</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29</v>
+      </c>
+      <c r="J58" t="n">
+        <v>226</v>
+      </c>
+      <c r="K58" t="n">
+        <v>678.5405450403629</v>
+      </c>
+      <c r="L58" t="n">
+        <v>20.74217944660241</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8126903085101456</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.1283185840707965</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2055319182578116</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.8309342128982202</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>844</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>670</v>
+      </c>
+      <c r="B59" t="n">
+        <v>697</v>
+      </c>
+      <c r="C59" t="n">
+        <v>800</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.071497518174005</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5813876270555177</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.4901098911184868</v>
+      </c>
+      <c r="G59" t="n">
+        <v>130</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19.55771692229541</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="n">
+        <v>103</v>
+      </c>
+      <c r="K59" t="n">
+        <v>92.19352762091208</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.071240524055075</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7860496423078204</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.2621359223300971</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2141255164401881</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.6092379251960439</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>845</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>718</v>
+      </c>
+      <c r="B60" t="n">
+        <v>743</v>
+      </c>
+      <c r="C60" t="n">
+        <v>789</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.814272395965784</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.229615101534111</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5846572944316734</v>
+      </c>
+      <c r="G60" t="n">
+        <v>71</v>
+      </c>
+      <c r="H60" t="n">
+        <v>19.34060108891458</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>46</v>
+      </c>
+      <c r="K60" t="n">
+        <v>144.9869642051925</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10.29526352339756</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8258283152000048</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5434782608695652</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3134941659032202</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.974631375188647</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>846</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>789</v>
+      </c>
+      <c r="B61" t="n">
+        <v>821</v>
+      </c>
+      <c r="C61" t="n">
+        <v>983</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.864400635473525</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.279743341041852</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5846572944316734</v>
+      </c>
+      <c r="G61" t="n">
+        <v>194</v>
+      </c>
+      <c r="H61" t="n">
+        <v>96.5880001915823</v>
+      </c>
+      <c r="I61" t="n">
+        <v>32</v>
+      </c>
+      <c r="J61" t="n">
+        <v>162</v>
+      </c>
+      <c r="K61" t="n">
+        <v>269.2342847777485</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6.820411514857205</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7499278685660009</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.08786309311463407</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.7541336011296307</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>847</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>605</v>
+      </c>
+      <c r="B62" t="n">
+        <v>675</v>
+      </c>
+      <c r="C62" t="n">
+        <v>886</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.776391043233246</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.297131394693454</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4792596485397912</v>
+      </c>
+      <c r="G62" t="n">
+        <v>281</v>
+      </c>
+      <c r="H62" t="n">
+        <v>96.97364417045162</v>
+      </c>
+      <c r="I62" t="n">
+        <v>70</v>
+      </c>
+      <c r="J62" t="n">
+        <v>211</v>
+      </c>
+      <c r="K62" t="n">
+        <v>528.4229943343526</v>
+      </c>
+      <c r="L62" t="n">
+        <v>52.84115709691292</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.9090959022110138</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3317535545023697</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.5549409825782995</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9702930060384054</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>848</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>886</v>
+      </c>
+      <c r="B63" t="n">
+        <v>932</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8129685152713798</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.3337088667315886</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4792596485397912</v>
+      </c>
+      <c r="G63" t="n">
+        <v>130</v>
+      </c>
+      <c r="H63" t="n">
+        <v>51.13833148817821</v>
+      </c>
+      <c r="I63" t="n">
+        <v>46</v>
+      </c>
+      <c r="J63" t="n">
+        <v>84</v>
+      </c>
+      <c r="K63" t="n">
+        <v>63.44631595051442</v>
+      </c>
+      <c r="L63" t="n">
+        <v>8.993860980280974</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7518679575274746</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4719492255108489</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9540385028892004</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>849</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.165987142222542</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.686727493682751</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4792596485397912</v>
+      </c>
+      <c r="G64" t="n">
+        <v>114</v>
+      </c>
+      <c r="H64" t="n">
+        <v>31.22772341954169</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>86</v>
+      </c>
+      <c r="K64" t="n">
+        <v>304.8753602911929</v>
+      </c>
+      <c r="L64" t="n">
+        <v>46.08826602624351</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.900731718162294</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.3255813953488372</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.3898974496773396</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9011333267845421</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>850</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>597</v>
+      </c>
+      <c r="B65" t="n">
+        <v>652</v>
+      </c>
+      <c r="C65" t="n">
+        <v>752</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.397514682881878</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9194059867800513</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.478108696101827</v>
+      </c>
+      <c r="G65" t="n">
+        <v>155</v>
+      </c>
+      <c r="H65" t="n">
+        <v>27.49612953442477</v>
+      </c>
+      <c r="I65" t="n">
+        <v>55</v>
+      </c>
+      <c r="J65" t="n">
+        <v>100</v>
+      </c>
+      <c r="K65" t="n">
+        <v>80.37590624972691</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6.373848803980675</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.5457849446973311</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.6754456769974125</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.7006474709236832</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>851</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>953</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.364551065438593</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.886442369336766</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.478108696101827</v>
+      </c>
+      <c r="G66" t="n">
+        <v>290</v>
+      </c>
+      <c r="H66" t="n">
+        <v>193.4273535760494</v>
+      </c>
+      <c r="I66" t="n">
+        <v>49</v>
+      </c>
+      <c r="J66" t="n">
+        <v>241</v>
+      </c>
+      <c r="K66" t="n">
+        <v>612.861732403858</v>
+      </c>
+      <c r="L66" t="n">
+        <v>19.90604387139</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.8151478928556969</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.2033195020746888</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.4739291134565307</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9693066483497345</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>852</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>771</v>
+      </c>
+      <c r="B67" t="n">
+        <v>824</v>
+      </c>
+      <c r="C67" t="n">
+        <v>922</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.616989841288746</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.01122370879135</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6057661324973967</v>
+      </c>
+      <c r="G67" t="n">
+        <v>151</v>
+      </c>
+      <c r="H67" t="n">
+        <v>85.42351125193522</v>
+      </c>
+      <c r="I67" t="n">
+        <v>53</v>
+      </c>
+      <c r="J67" t="n">
+        <v>98</v>
+      </c>
+      <c r="K67" t="n">
+        <v>266.6905390715549</v>
+      </c>
+      <c r="L67" t="n">
+        <v>7.700049116669549</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.7500532648116167</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.5408163265306123</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.2481823919630915</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.8739364446398501</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>853</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>922</v>
+      </c>
+      <c r="B68" t="n">
+        <v>949</v>
+      </c>
+      <c r="C68" t="n">
+        <v>999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.751705648952812</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.145939516455415</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.6057661324973967</v>
+      </c>
+      <c r="G68" t="n">
+        <v>77</v>
+      </c>
+      <c r="H68" t="n">
+        <v>20.57893201864033</v>
+      </c>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="n">
+        <v>50</v>
+      </c>
+      <c r="K68" t="n">
+        <v>81.40894886001595</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.154097017144642</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8173337502857311</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3848571157309372</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9427809765928165</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>854</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.422910982606464</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.817144850109067</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.6057661324973967</v>
+      </c>
+      <c r="G69" t="n">
+        <v>141</v>
+      </c>
+      <c r="H69" t="n">
+        <v>46.45928634981033</v>
+      </c>
+      <c r="I69" t="n">
+        <v>38</v>
+      </c>
+      <c r="J69" t="n">
+        <v>103</v>
+      </c>
+      <c r="K69" t="n">
+        <v>277.1007021906721</v>
+      </c>
+      <c r="L69" t="n">
+        <v>10.071335498604</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.9213768266593175</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3689320388349515</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2785216047226374</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9654912565944684</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>855</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.51141105700612</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.905644924508723</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.6057661324973967</v>
+      </c>
+      <c r="G70" t="n">
+        <v>101</v>
+      </c>
+      <c r="H70" t="n">
+        <v>81.84860147698942</v>
+      </c>
+      <c r="I70" t="n">
+        <v>35</v>
+      </c>
+      <c r="J70" t="n">
+        <v>66</v>
+      </c>
+      <c r="K70" t="n">
+        <v>244.3536511902467</v>
+      </c>
+      <c r="L70" t="n">
+        <v>10.33173196975372</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.6840826317585401</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.5303030303030303</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0890167271468168</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8989554155294959</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>856</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1635</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.768105108589211</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.285902057728677</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.4822030508605337</v>
+      </c>
+      <c r="G71" t="n">
+        <v>199</v>
+      </c>
+      <c r="H71" t="n">
+        <v>123.4509777300914</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>174</v>
+      </c>
+      <c r="K71" t="n">
+        <v>504.5331244718437</v>
+      </c>
+      <c r="L71" t="n">
+        <v>26.43224653202067</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.878469760679512</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.1436781609195402</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4057327728040822</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.9816603938116235</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>857</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1854</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1891</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9087553676112254</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.4265523167506918</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.4822030508605337</v>
+      </c>
+      <c r="G72" t="n">
+        <v>57</v>
+      </c>
+      <c r="H72" t="n">
+        <v>19.37253016529098</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20</v>
+      </c>
+      <c r="J72" t="n">
+        <v>37</v>
+      </c>
+      <c r="K72" t="n">
+        <v>35.40444835208314</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.037734145316306</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.8505783418162858</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.3110356386015753</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9306484616192054</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>858</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.154210615689551</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.69007312926369</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4641374864258609</v>
+      </c>
+      <c r="G73" t="n">
+        <v>38</v>
+      </c>
+      <c r="H73" t="n">
+        <v>12.4793457445719</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>25</v>
+      </c>
+      <c r="K73" t="n">
+        <v>104.6013610671762</v>
+      </c>
+      <c r="L73" t="n">
+        <v>10.41942606338991</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.7424355341055615</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.1001010097463076</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.9277725040686938</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>859</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.476176341680705</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.012038855254844</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4641374864258609</v>
+      </c>
+      <c r="G74" t="n">
+        <v>129</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15.98437042250907</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>111</v>
+      </c>
+      <c r="K74" t="n">
+        <v>119.6414540975278</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8.179649191376884</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.6691746225740632</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.6542802385659794</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.3160440834782179</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>860</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1481</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1508</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1542</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.672738987575579</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.191687369370673</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.481051618204906</v>
+      </c>
+      <c r="G75" t="n">
+        <v>61</v>
+      </c>
+      <c r="H75" t="n">
+        <v>23.68485091398566</v>
+      </c>
+      <c r="I75" t="n">
+        <v>27</v>
+      </c>
+      <c r="J75" t="n">
+        <v>34</v>
+      </c>
+      <c r="K75" t="n">
+        <v>67.85890613462348</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5.865748839143436</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7927806614959809</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.3330854583256826</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8828447417269847</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>861</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.638919690970869</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.098817311658217</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.5401023793126515</v>
+      </c>
+      <c r="G76" t="n">
+        <v>125</v>
+      </c>
+      <c r="H76" t="n">
+        <v>11.68516739394659</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>107</v>
+      </c>
+      <c r="K76" t="n">
+        <v>199.8514208402947</v>
+      </c>
+      <c r="L76" t="n">
+        <v>9.043326276174646</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7311320590913816</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.1682242990654206</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.3572060777258446</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.7851510613162991</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>862</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.627446653723774</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.192276561508093</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.4351700922156807</v>
+      </c>
+      <c r="G77" t="n">
+        <v>169</v>
+      </c>
+      <c r="H77" t="n">
+        <v>101.8966466154054</v>
+      </c>
+      <c r="I77" t="n">
+        <v>47</v>
+      </c>
+      <c r="J77" t="n">
+        <v>122</v>
+      </c>
+      <c r="K77" t="n">
+        <v>529.9376991679609</v>
+      </c>
+      <c r="L77" t="n">
+        <v>27.42126708995526</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8806285663001689</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.3852459016393442</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3049206371865352</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9208428812061815</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>863</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1953</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.000546765930994</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.565376673715314</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.4351700922156807</v>
+      </c>
+      <c r="G78" t="n">
+        <v>122</v>
+      </c>
+      <c r="H78" t="n">
+        <v>25.91542893246287</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+      <c r="J78" t="n">
+        <v>108</v>
+      </c>
+      <c r="K78" t="n">
+        <v>160.8530106198503</v>
+      </c>
+      <c r="L78" t="n">
+        <v>11.85481568985681</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.8307428845183927</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.3389884102476907</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.9461294155761328</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>864</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.992377610759508</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.550768992706418</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.4416086180530902</v>
+      </c>
+      <c r="G79" t="n">
+        <v>101</v>
+      </c>
+      <c r="H79" t="n">
+        <v>76.46218195711094</v>
+      </c>
+      <c r="I79" t="n">
+        <v>27</v>
+      </c>
+      <c r="J79" t="n">
+        <v>74</v>
+      </c>
+      <c r="K79" t="n">
+        <v>301.099852044359</v>
+      </c>
+      <c r="L79" t="n">
+        <v>11.94789654767029</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8877307945968472</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3648648648648649</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.2540837264860985</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9675519487194273</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>865</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1687</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.205455529838476</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.758431787505654</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.4470237423328216</v>
+      </c>
+      <c r="G80" t="n">
+        <v>82</v>
+      </c>
+      <c r="H80" t="n">
+        <v>60.3107757422049</v>
+      </c>
+      <c r="I80" t="n">
+        <v>30</v>
+      </c>
+      <c r="J80" t="n">
+        <v>52</v>
+      </c>
+      <c r="K80" t="n">
+        <v>206.0151774098771</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.080486014256667</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7238736627869722</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.1432352928341055</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.9051104471050549</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>866</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1739</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1795</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.865834226791547</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.418810484458725</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.4470237423328216</v>
+      </c>
+      <c r="G81" t="n">
+        <v>56</v>
+      </c>
+      <c r="H81" t="n">
+        <v>22.04606104628169</v>
+      </c>
+      <c r="I81" t="n">
+        <v>23</v>
+      </c>
+      <c r="J81" t="n">
+        <v>33</v>
+      </c>
+      <c r="K81" t="n">
+        <v>67.51008279008107</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4.028738737359276</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.7270652060074499</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.1185363624647146</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9160208557572694</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>867</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>245</v>
+      </c>
+      <c r="B82" t="n">
+        <v>315</v>
+      </c>
+      <c r="C82" t="n">
+        <v>447</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6672805939138218</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.2619759835606172</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.4053046103532045</v>
+      </c>
+      <c r="G82" t="n">
+        <v>202</v>
+      </c>
+      <c r="H82" t="n">
+        <v>150.7214077448063</v>
+      </c>
+      <c r="I82" t="n">
+        <v>70</v>
+      </c>
+      <c r="J82" t="n">
+        <v>132</v>
+      </c>
+      <c r="K82" t="n">
+        <v>79.18524522373032</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.384996994109148</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.665317360751736</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.5303030303030303</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.2858370394429001</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.6535257113396055</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>868</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.260053304277007</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.854748693923803</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.4053046103532045</v>
+      </c>
+      <c r="G83" t="n">
+        <v>101</v>
+      </c>
+      <c r="H83" t="n">
+        <v>35.79804595644691</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27</v>
+      </c>
+      <c r="J83" t="n">
+        <v>74</v>
+      </c>
+      <c r="K83" t="n">
+        <v>413.1475416941569</v>
+      </c>
+      <c r="L83" t="n">
+        <v>31.75614847968649</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.9395598465904557</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.3648648648648649</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.2927440096140924</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.9858723307531481</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>869</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>920</v>
+      </c>
+      <c r="B84" t="n">
+        <v>952</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.58175514374267</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.103573867090389</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.4781812766522817</v>
+      </c>
+      <c r="G84" t="n">
+        <v>141</v>
+      </c>
+      <c r="H84" t="n">
+        <v>73.38694579585672</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32</v>
+      </c>
+      <c r="J84" t="n">
+        <v>109</v>
+      </c>
+      <c r="K84" t="n">
+        <v>165.065525327808</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4.430834200649246</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.7158081988280827</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.2935779816513762</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1465444019892345</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.7954364396507014</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>870</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1637</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1683</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.126300285793707</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.661210100041763</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4650901857519441</v>
+      </c>
+      <c r="G85" t="n">
+        <v>70</v>
+      </c>
+      <c r="H85" t="n">
+        <v>35.05373388474527</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>46</v>
+      </c>
+      <c r="K85" t="n">
+        <v>94.25956037078541</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5.968055577337263</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8489678020105199</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.4595167505386411</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.9552326952723031</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>871</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>550</v>
+      </c>
+      <c r="B86" t="n">
+        <v>568</v>
+      </c>
+      <c r="C86" t="n">
+        <v>592</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4706572619832454</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.04001820998037611</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.4306390520028693</v>
+      </c>
+      <c r="G86" t="n">
+        <v>42</v>
+      </c>
+      <c r="H86" t="n">
+        <v>22.59039666739545</v>
+      </c>
+      <c r="I86" t="n">
+        <v>18</v>
+      </c>
+      <c r="J86" t="n">
+        <v>24</v>
+      </c>
+      <c r="K86" t="n">
+        <v>11.0899331475685</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.262773127662258</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.6463832954471986</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.1413607227667932</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.6760833258728725</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>872</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>744</v>
+      </c>
+      <c r="B87" t="n">
+        <v>790</v>
+      </c>
+      <c r="C87" t="n">
+        <v>876</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7838669617038254</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.353227909700956</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.4306390520028693</v>
+      </c>
+      <c r="G87" t="n">
+        <v>132</v>
+      </c>
+      <c r="H87" t="n">
+        <v>63.86947832452358</v>
+      </c>
+      <c r="I87" t="n">
+        <v>46</v>
+      </c>
+      <c r="J87" t="n">
+        <v>86</v>
+      </c>
+      <c r="K87" t="n">
+        <v>38.89882092419916</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5.434060546590582</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.6130055797299585</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.3123282695524244</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.4250704421318034</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>873</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
         <v>1822</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B88" t="n">
         <v>1838</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C88" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.161608319348423</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.730969267345554</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.4306390520028693</v>
+      </c>
+      <c r="G88" t="n">
+        <v>115</v>
+      </c>
+      <c r="H88" t="n">
+        <v>15.08592003250783</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>99</v>
+      </c>
+      <c r="K88" t="n">
+        <v>236.3432311608659</v>
+      </c>
+      <c r="L88" t="n">
+        <v>21.91745777191617</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.7927682210830412</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.1616161616161616</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.3578964662842508</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.8693195707518099</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>874</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C89" t="n">
         <v>2004</v>
       </c>
-      <c r="D48" t="n">
-        <v>3.117173532327382</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.692296920527724</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.4248766117996589</v>
-      </c>
-      <c r="G48" t="n">
-        <v>182</v>
-      </c>
-      <c r="H48" t="n">
-        <v>14.33689257140713</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16</v>
-      </c>
-      <c r="J48" t="n">
-        <v>166</v>
-      </c>
-      <c r="K48" t="n">
-        <v>291.3435357211894</v>
-      </c>
-      <c r="L48" t="n">
-        <v>21.96976837256854</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>0.7279770824401277</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.0963855421686747</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.4938889581606521</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.7418149306613148</v>
-      </c>
-      <c r="T48" t="inlineStr">
+      <c r="D89" t="n">
+        <v>0.9476690106089395</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.5170299586060702</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.4306390520028693</v>
+      </c>
+      <c r="G89" t="n">
+        <v>67</v>
+      </c>
+      <c r="H89" t="n">
+        <v>12.31757929978767</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>47</v>
+      </c>
+      <c r="K89" t="n">
+        <v>56.17712006141612</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6.569597946293236</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.6515805149859809</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.1917572568995505</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.3024188537104541</v>
+      </c>
+      <c r="T89" t="inlineStr">
         <is>
           <t>n44</t>
         </is>
       </c>
-      <c r="U48" t="n">
-        <v>414</v>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
+      <c r="U89" t="n">
+        <v>875</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X89"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1074</v>
+        <v>1868</v>
       </c>
       <c r="B2" t="n">
-        <v>1108</v>
+        <v>1900</v>
       </c>
       <c r="C2" t="n">
-        <v>1370</v>
+        <v>2004</v>
       </c>
       <c r="D2" t="n">
-        <v>4.421031640666531</v>
+        <v>2.275184975277994</v>
       </c>
       <c r="E2" t="n">
-        <v>3.783412510695665</v>
+        <v>1.63849261273178</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.637619129970866</v>
+        <v>-0.6366923625462135</v>
       </c>
       <c r="G2" t="n">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="H2" t="n">
-        <v>67.53906471656819</v>
+        <v>29.11514913558085</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="K2" t="n">
-        <v>460.5079202501053</v>
+        <v>151.3026887471104</v>
       </c>
       <c r="L2" t="n">
-        <v>26.41827113493176</v>
+        <v>13.64337185657742</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8442574539558183</v>
+        <v>0.8085695817380547</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1297709923664122</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4415732619304954</v>
+        <v>0.4509021097291683</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9709488386531595</v>
+        <v>0.5795535994818388</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>788</v>
+        <v>611</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1869</v>
+        <v>1813</v>
       </c>
       <c r="B3" t="n">
-        <v>1899</v>
+        <v>1837</v>
       </c>
       <c r="C3" t="n">
         <v>2004</v>
       </c>
       <c r="D3" t="n">
-        <v>2.298830649178385</v>
+        <v>2.458925936174151</v>
       </c>
       <c r="E3" t="n">
-        <v>1.661211519207519</v>
+        <v>1.820254188414945</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.637619129970866</v>
+        <v>-0.6386717477592068</v>
       </c>
       <c r="G3" t="n">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="H3" t="n">
-        <v>28.78880389868232</v>
+        <v>72.73258222538561</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="K3" t="n">
-        <v>151.2640001532319</v>
+        <v>177.9543976735539</v>
       </c>
       <c r="L3" t="n">
-        <v>13.73686874906186</v>
+        <v>8.35854532903423</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8225084920260086</v>
+        <v>0.903621070031037</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4369679438607458</v>
+        <v>0.406613432223831</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5907039101161211</v>
+        <v>0.873214864312984</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>789</v>
+        <v>612</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1814</v>
+        <v>1132</v>
       </c>
       <c r="B4" t="n">
-        <v>1837</v>
+        <v>1157</v>
       </c>
       <c r="C4" t="n">
-        <v>2004</v>
+        <v>1356</v>
       </c>
       <c r="D4" t="n">
-        <v>2.464635034795251</v>
+        <v>0.9740500357811493</v>
       </c>
       <c r="E4" t="n">
-        <v>1.823451710442503</v>
+        <v>0.3556417589836851</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6411833243527486</v>
+        <v>-0.6184082767974642</v>
       </c>
       <c r="G4" t="n">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="H4" t="n">
-        <v>72.893379075545</v>
+        <v>68.04917658652857</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="K4" t="n">
-        <v>178.6578482301607</v>
+        <v>88.66049749129269</v>
       </c>
       <c r="L4" t="n">
-        <v>8.387626500095894</v>
+        <v>4.253659771221406</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.9019488841395512</v>
+        <v>0.827198774186701</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1377245508982036</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4252379416989657</v>
+        <v>0.3805046930600314</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8714324989608059</v>
+        <v>0.7253943363641024</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>790</v>
+        <v>613</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>554</v>
+        <v>1635</v>
       </c>
       <c r="B5" t="n">
-        <v>583</v>
+        <v>1669</v>
       </c>
       <c r="C5" t="n">
-        <v>656</v>
+        <v>1755</v>
       </c>
       <c r="D5" t="n">
-        <v>2.383392121801647</v>
+        <v>3.738825511061837</v>
       </c>
       <c r="E5" t="n">
-        <v>1.764711200599959</v>
+        <v>3.120417234264373</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.618680921201688</v>
+        <v>-0.6184082767974642</v>
       </c>
       <c r="G5" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H5" t="n">
-        <v>79.33079134219008</v>
+        <v>79.33356209349085</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K5" t="n">
-        <v>168.0979866197457</v>
+        <v>292.7524954358653</v>
       </c>
       <c r="L5" t="n">
-        <v>10.40918980988666</v>
+        <v>16.32738677050191</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8009503900596888</v>
+        <v>0.7931570777628628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3972602739726027</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="R5" t="n">
-        <v>0.19758368471221</v>
+        <v>0.1180067551685404</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7385388834032653</v>
+        <v>0.9913020150714689</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>791</v>
+        <v>614</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1132</v>
+        <v>1755</v>
       </c>
       <c r="B6" t="n">
-        <v>1157</v>
+        <v>1790</v>
       </c>
       <c r="C6" t="n">
-        <v>1357</v>
+        <v>2004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9814232361484022</v>
+        <v>2.983082928310677</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3627423149467142</v>
+        <v>2.364674651513213</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.618680921201688</v>
+        <v>-0.6184082767974642</v>
       </c>
       <c r="G6" t="n">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="H6" t="n">
-        <v>68.2457302430189</v>
+        <v>56.19182032261619</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="K6" t="n">
-        <v>88.85829415302931</v>
+        <v>381.5389373924572</v>
       </c>
       <c r="L6" t="n">
-        <v>4.286252629374148</v>
+        <v>13.02707189594874</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.825016620871372</v>
+        <v>0.8510903147251292</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.125</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3910927456705982</v>
+        <v>0.391193555474701</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7177288862251521</v>
+        <v>0.9419539974719534</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>792</v>
+        <v>615</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1357</v>
+        <v>1077</v>
       </c>
       <c r="B7" t="n">
-        <v>1420</v>
+        <v>1109</v>
       </c>
       <c r="C7" t="n">
-        <v>1499</v>
+        <v>1244</v>
       </c>
       <c r="D7" t="n">
-        <v>2.129593056541591</v>
+        <v>4.399406255688234</v>
       </c>
       <c r="E7" t="n">
-        <v>1.510912135339903</v>
+        <v>3.675383592740764</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.618680921201688</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G7" t="n">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="H7" t="n">
-        <v>75.28376668815577</v>
+        <v>134.5015511613439</v>
       </c>
       <c r="I7" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="K7" t="n">
-        <v>161.2160444774767</v>
+        <v>387.0907532050538</v>
       </c>
       <c r="L7" t="n">
-        <v>9.300751706186492</v>
+        <v>20.56220889421956</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.6602145811278806</v>
+        <v>0.9017553237961516</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7974683544303798</v>
+        <v>0.237037037037037</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8804252117730114</v>
+        <v>0.3526738543472408</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7478519415251308</v>
+        <v>0.9495285649116946</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>793</v>
+        <v>616</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1636</v>
+        <v>1244</v>
       </c>
       <c r="B8" t="n">
-        <v>1668</v>
+        <v>1293</v>
       </c>
       <c r="C8" t="n">
-        <v>1756</v>
+        <v>1434</v>
       </c>
       <c r="D8" t="n">
-        <v>3.746229564803023</v>
+        <v>2.527432017873521</v>
       </c>
       <c r="E8" t="n">
-        <v>3.127548643601335</v>
+        <v>1.803409354926052</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.618680921201688</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G8" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="H8" t="n">
-        <v>79.52751024189729</v>
+        <v>77.15451441099253</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J8" t="n">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="K8" t="n">
-        <v>293.0632603583977</v>
+        <v>279.7435508644357</v>
       </c>
       <c r="L8" t="n">
-        <v>16.36122493430356</v>
+        <v>11.81286339497742</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8023465739058362</v>
+        <v>0.8255824611642315</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3475177304964539</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1121750724158008</v>
+        <v>0.2209328665821141</v>
       </c>
       <c r="S8" t="n">
-        <v>0.991634202497451</v>
+        <v>0.7225914483938709</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>794</v>
+        <v>617</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1756</v>
+        <v>1434</v>
       </c>
       <c r="B9" t="n">
-        <v>1789</v>
+        <v>1469</v>
       </c>
       <c r="C9" t="n">
-        <v>2004</v>
+        <v>1613</v>
       </c>
       <c r="D9" t="n">
-        <v>2.979282182748281</v>
+        <v>1.704908343464999</v>
       </c>
       <c r="E9" t="n">
-        <v>2.360601261546593</v>
+        <v>0.9808856805175296</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.618680921201688</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G9" t="n">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="H9" t="n">
-        <v>55.28391944169221</v>
+        <v>52.10824108266047</v>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9424825051826</v>
+        <v>163.766089788962</v>
       </c>
       <c r="L9" t="n">
-        <v>13.01167082569605</v>
+        <v>7.968502899339755</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8450194503830778</v>
+        <v>0.8931365062188628</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1534883720930233</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="R9" t="n">
-        <v>0.389047312747446</v>
+        <v>0.2711235576062592</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9408287286283783</v>
+        <v>0.8066198864422596</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>795</v>
+        <v>618</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1077</v>
+        <v>1613</v>
       </c>
       <c r="B10" t="n">
-        <v>1109</v>
+        <v>1646</v>
       </c>
       <c r="C10" t="n">
-        <v>1244</v>
+        <v>1784</v>
       </c>
       <c r="D10" t="n">
-        <v>4.413085249585473</v>
+        <v>2.471470320386824</v>
       </c>
       <c r="E10" t="n">
-        <v>3.690552555460583</v>
+        <v>1.747447657439355</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7225326941248903</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G10" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H10" t="n">
-        <v>133.9925404624499</v>
+        <v>116.7000432754469</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K10" t="n">
-        <v>386.6959040547164</v>
+        <v>284.0455695820237</v>
       </c>
       <c r="L10" t="n">
-        <v>20.62399453500165</v>
+        <v>11.55130625591831</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9015124873783233</v>
+        <v>0.876592807079992</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.237037037037037</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3532821041586891</v>
+        <v>0.2488434566302616</v>
       </c>
       <c r="S10" t="n">
-        <v>0.947717354668424</v>
+        <v>0.7948006779168988</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>796</v>
+        <v>619</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1244</v>
+        <v>681</v>
       </c>
       <c r="B11" t="n">
-        <v>1293</v>
+        <v>719</v>
       </c>
       <c r="C11" t="n">
-        <v>1435</v>
+        <v>871</v>
       </c>
       <c r="D11" t="n">
-        <v>2.531030835623491</v>
+        <v>3.423352352916209</v>
       </c>
       <c r="E11" t="n">
-        <v>1.808498141498601</v>
+        <v>2.557471824280273</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7225326941248903</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G11" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H11" t="n">
-        <v>77.03123263307907</v>
+        <v>158.0517991510003</v>
       </c>
       <c r="I11" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K11" t="n">
-        <v>279.7706620857207</v>
+        <v>453.6545491476854</v>
       </c>
       <c r="L11" t="n">
-        <v>11.82845179043907</v>
+        <v>12.26702108802475</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8151544709059367</v>
+        <v>0.9110465959597112</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3450704225352113</v>
+        <v>0.25</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2255498762649031</v>
+        <v>0.2594056715352289</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7281275277305241</v>
+        <v>0.9669427489884228</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>797</v>
+        <v>620</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1435</v>
+        <v>871</v>
       </c>
       <c r="B12" t="n">
-        <v>1469</v>
+        <v>901</v>
       </c>
       <c r="C12" t="n">
-        <v>1614</v>
+        <v>1081</v>
       </c>
       <c r="D12" t="n">
-        <v>1.708305065215741</v>
+        <v>2.237580186007775</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9857723710908506</v>
+        <v>1.37169965737184</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7225326941248903</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G12" t="n">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="H12" t="n">
-        <v>44.81181888589958</v>
+        <v>53.97983064593291</v>
       </c>
       <c r="I12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="K12" t="n">
-        <v>163.9051729168803</v>
+        <v>259.4401870066679</v>
       </c>
       <c r="L12" t="n">
-        <v>7.983547186729394</v>
+        <v>8.018001215832067</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8665314231190927</v>
+        <v>0.8748905654436586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2344827586206897</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2815264042608903</v>
+        <v>0.3928092164496131</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8007310488604079</v>
+        <v>0.9703812956665011</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>798</v>
+        <v>621</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1662</v>
+        <v>1081</v>
       </c>
       <c r="B13" t="n">
-        <v>1681</v>
+        <v>1207</v>
       </c>
       <c r="C13" t="n">
-        <v>1784</v>
+        <v>1376</v>
       </c>
       <c r="D13" t="n">
-        <v>2.407012340482779</v>
+        <v>2.062661192575219</v>
       </c>
       <c r="E13" t="n">
-        <v>1.684479646357889</v>
+        <v>1.196780663939284</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7225326941248903</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G13" t="n">
-        <v>122</v>
+        <v>295</v>
       </c>
       <c r="H13" t="n">
-        <v>17.89066370448018</v>
+        <v>132.8591155263773</v>
       </c>
       <c r="I13" t="n">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="J13" t="n">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="K13" t="n">
-        <v>200.3910024266494</v>
+        <v>401.7370876384157</v>
       </c>
       <c r="L13" t="n">
-        <v>11.24886707331596</v>
+        <v>7.391207722224736</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8075934653454448</v>
+        <v>0.6194759918484534</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1844660194174757</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="R13" t="n">
-        <v>0.323386838647609</v>
+        <v>0.2142122728882514</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8660218786302921</v>
+        <v>0.9402755421737701</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>799</v>
+        <v>622</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>681</v>
+        <v>1516</v>
       </c>
       <c r="B14" t="n">
-        <v>719</v>
+        <v>1551</v>
       </c>
       <c r="C14" t="n">
-        <v>872</v>
+        <v>1916</v>
       </c>
       <c r="D14" t="n">
-        <v>3.418042726597813</v>
+        <v>2.944076286108308</v>
       </c>
       <c r="E14" t="n">
-        <v>2.553353921592568</v>
+        <v>2.078195757472372</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8646888050052441</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G14" t="n">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="H14" t="n">
-        <v>158.8424631583825</v>
+        <v>141.9329607261307</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J14" t="n">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="K14" t="n">
-        <v>454.9734285969625</v>
+        <v>498.5975742159947</v>
       </c>
       <c r="L14" t="n">
-        <v>12.25243675684138</v>
+        <v>10.5496139933359</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.9102054217936384</v>
+        <v>0.8826517361150935</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2483660130718954</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2573343519959951</v>
+        <v>0.4024873939427381</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9669840744843456</v>
+        <v>0.9197270842079585</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>800</v>
+        <v>623</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>872</v>
+        <v>1101</v>
       </c>
       <c r="B15" t="n">
-        <v>900</v>
+        <v>1157</v>
       </c>
       <c r="C15" t="n">
-        <v>1082</v>
+        <v>1310</v>
       </c>
       <c r="D15" t="n">
-        <v>2.246655586374992</v>
+        <v>4.39637185504963</v>
       </c>
       <c r="E15" t="n">
-        <v>1.381966781369748</v>
+        <v>3.907298680324034</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8646888050052441</v>
+        <v>-0.4890731747255965</v>
       </c>
       <c r="G15" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H15" t="n">
-        <v>53.27070018124948</v>
+        <v>161.4595692846931</v>
       </c>
       <c r="I15" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J15" t="n">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="K15" t="n">
-        <v>258.1101389147622</v>
+        <v>582.5502055161577</v>
       </c>
       <c r="L15" t="n">
-        <v>8.053441015309742</v>
+        <v>27.61389985317856</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8675372189964354</v>
+        <v>0.8051447224463592</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3660130718954248</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3921192771336984</v>
+        <v>0.2736437075152003</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9705651004756983</v>
+        <v>0.9850868821969979</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>801</v>
+        <v>624</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1082</v>
+        <v>1213</v>
       </c>
       <c r="B16" t="n">
-        <v>1206</v>
+        <v>1248</v>
       </c>
       <c r="C16" t="n">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="D16" t="n">
-        <v>2.072486464293744</v>
+        <v>3.043514027953424</v>
       </c>
       <c r="E16" t="n">
-        <v>1.2077976592885</v>
+        <v>2.258924604258194</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8646888050052441</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G16" t="n">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="H16" t="n">
-        <v>133.4745547671052</v>
+        <v>83.41101604828805</v>
       </c>
       <c r="I16" t="n">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="K16" t="n">
-        <v>400.9763806435325</v>
+        <v>367.0262072503596</v>
       </c>
       <c r="L16" t="n">
-        <v>7.429108224882875</v>
+        <v>21.72796901231914</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.6205068304011899</v>
+        <v>0.7792994362029558</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7294117647058823</v>
+        <v>0.3125</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2138219511379762</v>
+        <v>0.06671309566220909</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9344213695288734</v>
+        <v>0.9125248307005746</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>802</v>
+        <v>625</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="B17" t="n">
-        <v>1404</v>
+        <v>1424</v>
       </c>
       <c r="C17" t="n">
-        <v>1468</v>
+        <v>1669</v>
       </c>
       <c r="D17" t="n">
-        <v>2.107395681706304</v>
+        <v>3.15387616579282</v>
       </c>
       <c r="E17" t="n">
-        <v>1.24270687670106</v>
+        <v>2.36928674209759</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8646888050052441</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G17" t="n">
-        <v>92</v>
+        <v>309</v>
       </c>
       <c r="H17" t="n">
-        <v>24.77181971371988</v>
+        <v>182.816659559016</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J17" t="n">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="K17" t="n">
-        <v>132.0207732748615</v>
+        <v>606.8167567719595</v>
       </c>
       <c r="L17" t="n">
-        <v>7.554245039367331</v>
+        <v>22.51585600383078</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7629781100979398</v>
+        <v>0.7459617678133704</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4375</v>
+        <v>0.2612244897959184</v>
       </c>
       <c r="R17" t="n">
-        <v>0.175135945718373</v>
+        <v>0.1454799381145934</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7042664940916371</v>
+        <v>0.9473380760655824</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>803</v>
+        <v>626</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1468</v>
+        <v>1669</v>
       </c>
       <c r="B18" t="n">
-        <v>1551</v>
+        <v>1699</v>
       </c>
       <c r="C18" t="n">
-        <v>1916</v>
+        <v>1755</v>
       </c>
       <c r="D18" t="n">
-        <v>2.951529274092491</v>
+        <v>1.327654063761706</v>
       </c>
       <c r="E18" t="n">
-        <v>2.086840469087246</v>
+        <v>0.5430646400664763</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8646888050052441</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G18" t="n">
-        <v>448</v>
+        <v>86</v>
       </c>
       <c r="H18" t="n">
-        <v>141.5817869432228</v>
+        <v>55.28684987611268</v>
       </c>
       <c r="I18" t="n">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>365</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
-        <v>561.9350798784885</v>
+        <v>98.33543729134189</v>
       </c>
       <c r="L18" t="n">
-        <v>10.58015614766169</v>
+        <v>9.478262985333412</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7519613367383564</v>
+        <v>0.6491274797867992</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2273972602739726</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R18" t="n">
-        <v>0.36076115279632</v>
+        <v>0.05303746412367299</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9176312870307599</v>
+        <v>0.8449908563614108</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>804</v>
+        <v>627</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1102</v>
+        <v>1755</v>
       </c>
       <c r="B19" t="n">
-        <v>1156</v>
+        <v>1789</v>
       </c>
       <c r="C19" t="n">
-        <v>1309</v>
+        <v>1842</v>
       </c>
       <c r="D19" t="n">
-        <v>4.411438149511309</v>
+        <v>2.236639361949099</v>
       </c>
       <c r="E19" t="n">
-        <v>3.923007868776817</v>
+        <v>1.452049938253869</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4884302807344912</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G19" t="n">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="H19" t="n">
-        <v>160.7126027720933</v>
+        <v>115.9883731371906</v>
       </c>
       <c r="I19" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="K19" t="n">
-        <v>580.9010976606351</v>
+        <v>153.0642133633184</v>
       </c>
       <c r="L19" t="n">
-        <v>27.59473706258362</v>
+        <v>15.96760530814514</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8079492105423027</v>
+        <v>0.7768546309385732</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2671236276488769</v>
+        <v>0.2274554870292336</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9847468381525062</v>
+        <v>0.9973809090287205</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>805</v>
+        <v>628</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1309</v>
+        <v>1842</v>
       </c>
       <c r="B20" t="n">
-        <v>1330</v>
+        <v>1870</v>
       </c>
       <c r="C20" t="n">
-        <v>1359</v>
+        <v>2004</v>
       </c>
       <c r="D20" t="n">
-        <v>1.600609419325813</v>
+        <v>1.802106691558533</v>
       </c>
       <c r="E20" t="n">
-        <v>1.112179138591322</v>
+        <v>1.017517267863303</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4884302807344912</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="H20" t="n">
-        <v>21.48211815415652</v>
+        <v>22.64007439426905</v>
       </c>
       <c r="I20" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="K20" t="n">
-        <v>70.3162025192687</v>
+        <v>164.9630560578505</v>
       </c>
       <c r="L20" t="n">
-        <v>10.01224420908709</v>
+        <v>12.86543054884714</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.687864027110653</v>
+        <v>0.7958101476635435</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08451678309780905</v>
+        <v>0.474403193073806</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9654836510997513</v>
+        <v>0.7707760988188312</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>806</v>
+        <v>629</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1248</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
-        <v>1360</v>
+        <v>181</v>
       </c>
       <c r="D21" t="n">
-        <v>3.040513269961787</v>
+        <v>2.760789570489479</v>
       </c>
       <c r="E21" t="n">
-        <v>2.254313124304919</v>
+        <v>2.194538913146322</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7862001456568675</v>
+        <v>-0.5662506573431567</v>
       </c>
       <c r="G21" t="n">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="H21" t="n">
-        <v>84.04560818587515</v>
+        <v>69.06003989984296</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J21" t="n">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="K21" t="n">
-        <v>367.2028847888381</v>
+        <v>253.9983119211734</v>
       </c>
       <c r="L21" t="n">
-        <v>21.70480496997876</v>
+        <v>5.379204137976466</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7795958920775571</v>
+        <v>0.8147886794296633</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3125</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0693854814434816</v>
+        <v>0.1590017044071946</v>
       </c>
       <c r="S21" t="n">
-        <v>0.905407117738196</v>
+        <v>0.9130643619816364</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>807</v>
+        <v>630</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1424</v>
+        <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>1669</v>
+        <v>180</v>
       </c>
       <c r="D22" t="n">
-        <v>3.153831226143074</v>
+        <v>2.298847961269556</v>
       </c>
       <c r="E22" t="n">
-        <v>2.367631080486207</v>
+        <v>1.614204859947049</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7862001456568675</v>
+        <v>-0.6846431013225069</v>
       </c>
       <c r="G22" t="n">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="H22" t="n">
-        <v>182.7378714979138</v>
+        <v>77.14613696915063</v>
       </c>
       <c r="I22" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J22" t="n">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="K22" t="n">
-        <v>607.3596144499327</v>
+        <v>209.0101730808656</v>
       </c>
       <c r="L22" t="n">
-        <v>22.51372896409847</v>
+        <v>5.642135534529539</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7357442116573034</v>
+        <v>0.815347121689163</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2612244897959184</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="R22" t="n">
-        <v>0.146039641015379</v>
+        <v>0.2279248253455719</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9467406285358043</v>
+        <v>0.9504737602601938</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>808</v>
+        <v>631</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1669</v>
+        <v>1591</v>
       </c>
       <c r="B23" t="n">
-        <v>1699</v>
+        <v>1625</v>
       </c>
       <c r="C23" t="n">
-        <v>1755</v>
+        <v>1668</v>
       </c>
       <c r="D23" t="n">
-        <v>1.338261094921365</v>
+        <v>3.114265496946961</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5520609492644973</v>
+        <v>2.429622395624453</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.7862001456568675</v>
+        <v>-0.6846431013225069</v>
       </c>
       <c r="G23" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H23" t="n">
-        <v>54.83664688064391</v>
+        <v>237.404704631693</v>
       </c>
       <c r="I23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K23" t="n">
-        <v>98.50552680837491</v>
+        <v>187.588658527975</v>
       </c>
       <c r="L23" t="n">
-        <v>9.553221277190321</v>
+        <v>7.643440679991715</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.6531430957574187</v>
+        <v>0.6905030933240612</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05822474313137462</v>
+        <v>0.1775304046171119</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8395632542558252</v>
+        <v>0.9846327858797386</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>809</v>
+        <v>632</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>1668</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1698</v>
+      </c>
+      <c r="C24" t="n">
         <v>1755</v>
       </c>
-      <c r="B24" t="n">
-        <v>1788</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1843</v>
-      </c>
       <c r="D24" t="n">
-        <v>2.237709420544967</v>
+        <v>2.897428872312324</v>
       </c>
       <c r="E24" t="n">
-        <v>1.451509274888099</v>
+        <v>2.212785770989818</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7862001456568675</v>
+        <v>-0.6846431013225069</v>
       </c>
       <c r="G24" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" t="n">
-        <v>115.921236004986</v>
+        <v>35.2609907212202</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24" t="n">
-        <v>154.7338720559251</v>
+        <v>205.0720441383154</v>
       </c>
       <c r="L24" t="n">
-        <v>15.97396302533589</v>
+        <v>7.11125166808208</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7886215621957421</v>
+        <v>0.7655423309610635</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2408124073089281</v>
+        <v>0.09508265557428126</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9963390018827368</v>
+        <v>0.983470866078311</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>810</v>
+        <v>633</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1843</v>
+        <v>375</v>
       </c>
       <c r="B25" t="n">
-        <v>1869</v>
+        <v>444</v>
       </c>
       <c r="C25" t="n">
-        <v>2004</v>
+        <v>619</v>
       </c>
       <c r="D25" t="n">
-        <v>1.809606940674664</v>
+        <v>3.31746661837012</v>
       </c>
       <c r="E25" t="n">
-        <v>1.023406795017797</v>
+        <v>2.808682221619613</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.7862001456568675</v>
+        <v>-0.5087843967505074</v>
       </c>
       <c r="G25" t="n">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="H25" t="n">
-        <v>22.11982445554668</v>
+        <v>88.14774502037676</v>
       </c>
       <c r="I25" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J25" t="n">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="K25" t="n">
-        <v>163.6289837555884</v>
+        <v>323.3775108574598</v>
       </c>
       <c r="L25" t="n">
-        <v>12.91793925311734</v>
+        <v>11.43046104578021</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7881814961144618</v>
+        <v>0.754941599876207</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1925925925925926</v>
+        <v>0.3942857142857143</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4695391551055407</v>
+        <v>0.3863587801835593</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7752647881483017</v>
+        <v>0.8657224928345054</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>811</v>
+        <v>634</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>645</v>
       </c>
       <c r="C26" t="n">
-        <v>182</v>
+        <v>796</v>
       </c>
       <c r="D26" t="n">
-        <v>2.767958899931201</v>
+        <v>1.546951697917653</v>
       </c>
       <c r="E26" t="n">
-        <v>2.20264943753237</v>
+        <v>1.038167301167145</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5653094623988311</v>
+        <v>-0.5087843967505074</v>
       </c>
       <c r="G26" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H26" t="n">
-        <v>68.65331793959062</v>
+        <v>26.30683310870904</v>
       </c>
       <c r="I26" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K26" t="n">
-        <v>254.285071326006</v>
+        <v>97.29375526295696</v>
       </c>
       <c r="L26" t="n">
-        <v>5.394534893324129</v>
+        <v>5.33008260726333</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.816348596796967</v>
+        <v>0.7096981437275323</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3</v>
+        <v>0.1721854304635762</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1611468953997637</v>
+        <v>0.5978909592402115</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9147562456630132</v>
+        <v>0.4432186134278896</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>812</v>
+        <v>635</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1873</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>1896</v>
       </c>
       <c r="C27" t="n">
-        <v>181</v>
+        <v>2004</v>
       </c>
       <c r="D27" t="n">
-        <v>2.309875838802735</v>
+        <v>3.541261360041537</v>
       </c>
       <c r="E27" t="n">
-        <v>1.624296695354407</v>
+        <v>3.03247696329103</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6855791434483279</v>
+        <v>-0.5087843967505074</v>
       </c>
       <c r="G27" t="n">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="H27" t="n">
-        <v>76.80704254522293</v>
+        <v>20.27143001186482</v>
       </c>
       <c r="I27" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J27" t="n">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="K27" t="n">
-        <v>209.7492096945031</v>
+        <v>398.259662566398</v>
       </c>
       <c r="L27" t="n">
-        <v>5.669830280411473</v>
+        <v>12.20155458527823</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8191129069913488</v>
+        <v>0.7180654774802228</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2836879432624114</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2338816194144096</v>
+        <v>0.9858434164442961</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9503152201026513</v>
+        <v>0.3834126856632329</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>813</v>
+        <v>636</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1592</v>
+        <v>1873</v>
       </c>
       <c r="B28" t="n">
-        <v>1624</v>
+        <v>1927</v>
       </c>
       <c r="C28" t="n">
-        <v>1669</v>
+        <v>2004</v>
       </c>
       <c r="D28" t="n">
-        <v>3.13027143788766</v>
+        <v>2.985300409537721</v>
       </c>
       <c r="E28" t="n">
-        <v>2.444692294439332</v>
+        <v>2.405849813263977</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6855791434483279</v>
+        <v>-0.5794505962737432</v>
       </c>
       <c r="G28" t="n">
+        <v>131</v>
+      </c>
+      <c r="H28" t="n">
+        <v>32.03158366906928</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
         <v>77</v>
       </c>
-      <c r="H28" t="n">
-        <v>235.6552141597099</v>
-      </c>
-      <c r="I28" t="n">
-        <v>32</v>
-      </c>
-      <c r="J28" t="n">
-        <v>45</v>
-      </c>
       <c r="K28" t="n">
-        <v>188.4179677759853</v>
+        <v>240.1127774462321</v>
       </c>
       <c r="L28" t="n">
-        <v>7.683576530954102</v>
+        <v>10.99543213048141</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7049084897997152</v>
+        <v>0.7658078452431333</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1745825495569343</v>
+        <v>0.3635103198122602</v>
       </c>
       <c r="S28" t="n">
-        <v>0.982989574033204</v>
+        <v>0.9705371002440533</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>814</v>
+        <v>637</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1669</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1698</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>1755</v>
+        <v>112</v>
       </c>
       <c r="D29" t="n">
-        <v>2.908722953128156</v>
+        <v>2.692952656022869</v>
       </c>
       <c r="E29" t="n">
-        <v>2.223143809679828</v>
+        <v>2.096113453076467</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6855791434483279</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G29" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H29" t="n">
-        <v>35.2074802652221</v>
+        <v>43.67972564548982</v>
       </c>
       <c r="I29" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J29" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K29" t="n">
-        <v>202.9653771116825</v>
+        <v>202.8921172485668</v>
       </c>
       <c r="L29" t="n">
-        <v>7.139762752582445</v>
+        <v>5.37778599795856</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7740955361173752</v>
+        <v>0.661087726631203</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09965556262024174</v>
+        <v>0.2061167942642285</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9824566705387622</v>
+        <v>0.9741346369806713</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>815</v>
+        <v>638</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>375</v>
+        <v>112</v>
       </c>
       <c r="B30" t="n">
-        <v>443</v>
+        <v>140</v>
       </c>
       <c r="C30" t="n">
-        <v>620</v>
+        <v>344</v>
       </c>
       <c r="D30" t="n">
-        <v>3.329167172233269</v>
+        <v>3.21063025717086</v>
       </c>
       <c r="E30" t="n">
-        <v>2.820256988357237</v>
+        <v>2.613791054224458</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5089101838760314</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G30" t="n">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H30" t="n">
-        <v>87.86730100967401</v>
+        <v>76.05361787776552</v>
       </c>
       <c r="I30" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="J30" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="K30" t="n">
-        <v>324.1865734095107</v>
+        <v>357.6394250450858</v>
       </c>
       <c r="L30" t="n">
-        <v>11.45558861728334</v>
+        <v>6.41158039040138</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7360185300714126</v>
+        <v>0.884820664305445</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.384180790960452</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4081744829363386</v>
+        <v>0.3409171308997693</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8652886319343753</v>
+        <v>0.9117165465933594</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>816</v>
+        <v>639</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>620</v>
+        <v>344</v>
       </c>
       <c r="B31" t="n">
-        <v>645</v>
+        <v>375</v>
       </c>
       <c r="C31" t="n">
-        <v>797</v>
+        <v>506</v>
       </c>
       <c r="D31" t="n">
-        <v>1.556464181744678</v>
+        <v>2.504052653551213</v>
       </c>
       <c r="E31" t="n">
-        <v>1.047553997868647</v>
+        <v>1.907213450604811</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5089101838760314</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G31" t="n">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="H31" t="n">
-        <v>25.86752689792922</v>
+        <v>55.55271739175743</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K31" t="n">
-        <v>96.6488157050851</v>
+        <v>210.7031951550128</v>
       </c>
       <c r="L31" t="n">
-        <v>5.355757894141048</v>
+        <v>5.000555530859779</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7019349938466162</v>
+        <v>0.9384773749935098</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6069352463925556</v>
+        <v>0.2160796979052974</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4277975338953007</v>
+        <v>0.9286681400567245</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>817</v>
+        <v>640</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>542</v>
       </c>
       <c r="C32" t="n">
-        <v>55</v>
+        <v>621</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7575732150401828</v>
+        <v>2.67607661596277</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1788554264791872</v>
+        <v>2.079237413016368</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5787177885609956</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G32" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H32" t="n">
-        <v>25.99018146640716</v>
+        <v>65.32020595035294</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J32" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="K32" t="n">
-        <v>31.15569040735258</v>
+        <v>186.9846181597455</v>
       </c>
       <c r="L32" t="n">
-        <v>2.789899618387498</v>
+        <v>5.344084799486611</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.76244461282785</v>
+        <v>0.808715530744695</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1318395179522983</v>
+        <v>0.1558013757272599</v>
       </c>
       <c r="S32" t="n">
-        <v>0.973634371457192</v>
+        <v>0.9754540254376868</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>818</v>
+        <v>641</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>622</v>
+        <v>112</v>
       </c>
       <c r="D33" t="n">
-        <v>4.629073961472662</v>
+        <v>2.878625011281881</v>
       </c>
       <c r="E33" t="n">
-        <v>4.050356172911667</v>
+        <v>2.251026329371547</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5787177885609956</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G33" t="n">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="H33" t="n">
-        <v>91.02756699487981</v>
+        <v>43.02192541732223</v>
       </c>
       <c r="I33" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J33" t="n">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="K33" t="n">
-        <v>627.1628946176385</v>
+        <v>200.6421410166673</v>
       </c>
       <c r="L33" t="n">
-        <v>17.04739742932314</v>
+        <v>6.443060240674265</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.9016875372839659</v>
+        <v>0.6405164608035891</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2940859804475546</v>
+        <v>0.1547059161036433</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9709711634815591</v>
+        <v>0.9876320464899817</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>819</v>
+        <v>642</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1874</v>
+        <v>112</v>
       </c>
       <c r="B34" t="n">
-        <v>1926</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n">
-        <v>2004</v>
+        <v>343</v>
       </c>
       <c r="D34" t="n">
-        <v>3.00259920028114</v>
+        <v>2.91298323404332</v>
       </c>
       <c r="E34" t="n">
-        <v>2.423881411720144</v>
+        <v>2.285384552132986</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5787177885609956</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G34" t="n">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="H34" t="n">
-        <v>31.67716332357691</v>
+        <v>68.68191737109885</v>
       </c>
       <c r="I34" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J34" t="n">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>239.9955162783967</v>
+        <v>313.6094126992961</v>
       </c>
       <c r="L34" t="n">
-        <v>11.05761159017565</v>
+        <v>6.519962267908398</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7740779276034913</v>
+        <v>0.8712638636056869</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.155</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3570647616026016</v>
+        <v>0.3850201611434092</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9708079885113943</v>
+        <v>0.8838435911823196</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>820</v>
+        <v>643</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="B35" t="n">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="C35" t="n">
-        <v>113</v>
+        <v>506</v>
       </c>
       <c r="D35" t="n">
-        <v>2.700980587998361</v>
+        <v>2.678858252591248</v>
       </c>
       <c r="E35" t="n">
-        <v>2.105935398018919</v>
+        <v>2.051259570680914</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5950451899794422</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G35" t="n">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H35" t="n">
-        <v>43.60440757722714</v>
+        <v>50.06899102841885</v>
       </c>
       <c r="I35" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="K35" t="n">
-        <v>204.2016142047746</v>
+        <v>222.7463471859397</v>
       </c>
       <c r="L35" t="n">
-        <v>5.395994370013576</v>
+        <v>5.995933833002699</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6796244181238051</v>
+        <v>0.9261588550100549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6376811594202898</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2206986073797568</v>
+        <v>0.2786958456849812</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9693308822677063</v>
+        <v>0.8706460052479255</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>821</v>
+        <v>644</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>113</v>
+        <v>506</v>
       </c>
       <c r="B36" t="n">
-        <v>140</v>
+        <v>541</v>
       </c>
       <c r="C36" t="n">
-        <v>345</v>
+        <v>621</v>
       </c>
       <c r="D36" t="n">
-        <v>3.251022601538988</v>
+        <v>2.827449439752566</v>
       </c>
       <c r="E36" t="n">
-        <v>2.655977411559546</v>
+        <v>2.199850757842231</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5950451899794422</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G36" t="n">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="H36" t="n">
-        <v>75.24185381878601</v>
+        <v>79.6967104742572</v>
       </c>
       <c r="I36" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J36" t="n">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>356.3010932801453</v>
+        <v>211.1122245462066</v>
       </c>
       <c r="L36" t="n">
-        <v>6.494863285075159</v>
+        <v>6.328516912202494</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8796891472618876</v>
+        <v>0.8028849929987129</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1317073170731707</v>
+        <v>0.4375</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3518189198357215</v>
+        <v>0.1564375680646885</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9066459946254151</v>
+        <v>0.9701507439621394</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>822</v>
+        <v>645</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>345</v>
+        <v>1719</v>
       </c>
       <c r="B37" t="n">
-        <v>375</v>
+        <v>1750</v>
       </c>
       <c r="C37" t="n">
-        <v>509</v>
+        <v>1919</v>
       </c>
       <c r="D37" t="n">
-        <v>2.514400305682147</v>
+        <v>3.758663645152816</v>
       </c>
       <c r="E37" t="n">
-        <v>1.919355115702705</v>
+        <v>3.240133026758956</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5950451899794422</v>
+        <v>-0.5185306183938607</v>
       </c>
       <c r="G37" t="n">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="H37" t="n">
-        <v>55.45958830381466</v>
+        <v>79.84621846631489</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J37" t="n">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="K37" t="n">
-        <v>212.0788560673407</v>
+        <v>366.754064775015</v>
       </c>
       <c r="L37" t="n">
-        <v>5.023245984702172</v>
+        <v>14.78343222817248</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.9322490563839061</v>
+        <v>0.8989651933536101</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2238805970149254</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2377008996494627</v>
+        <v>0.2890429887340603</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9237917748198176</v>
+        <v>0.7917443915697457</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>823</v>
+        <v>646</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>509</v>
+        <v>1919</v>
       </c>
       <c r="B38" t="n">
-        <v>542</v>
+        <v>1954</v>
       </c>
       <c r="C38" t="n">
-        <v>621</v>
+        <v>2004</v>
       </c>
       <c r="D38" t="n">
-        <v>2.674708585882557</v>
+        <v>3.262146727314529</v>
       </c>
       <c r="E38" t="n">
-        <v>2.079663395903115</v>
+        <v>2.743616108920668</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5950451899794422</v>
+        <v>-0.5185306183938607</v>
       </c>
       <c r="G38" t="n">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H38" t="n">
-        <v>66.28303084279185</v>
+        <v>29.54968869031063</v>
       </c>
       <c r="I38" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J38" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>184.6919778183406</v>
+        <v>202.7780944783238</v>
       </c>
       <c r="L38" t="n">
-        <v>5.343508403940446</v>
+        <v>12.83055085916002</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8136785794314577</v>
+        <v>0.8017754618480415</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4177215189873418</v>
+        <v>0.7</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1477145707719851</v>
+        <v>0.69859771764348</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9742717219702927</v>
+        <v>0.8985573021114487</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>824</v>
+        <v>647</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="B39" t="n">
-        <v>42</v>
+        <v>1930</v>
       </c>
       <c r="C39" t="n">
-        <v>112</v>
+        <v>2004</v>
       </c>
       <c r="D39" t="n">
-        <v>2.901173170261825</v>
+        <v>5.003799440701242</v>
       </c>
       <c r="E39" t="n">
-        <v>2.274927362692966</v>
+        <v>4.496296172878124</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6262458075688593</v>
+        <v>-0.5075032678231184</v>
       </c>
       <c r="G39" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H39" t="n">
-        <v>42.53720382860868</v>
+        <v>29.17074077659186</v>
       </c>
       <c r="I39" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J39" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K39" t="n">
-        <v>200.8135025786411</v>
+        <v>404.0592078362348</v>
       </c>
       <c r="L39" t="n">
-        <v>6.493511924495564</v>
+        <v>20.82665690487962</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6417244358120137</v>
+        <v>0.8141336190556977</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1548458730284251</v>
+        <v>0.3556483211587025</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9879320738934231</v>
+        <v>0.875647966239723</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>825</v>
+        <v>648</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="C40" t="n">
-        <v>344</v>
+        <v>153</v>
       </c>
       <c r="D40" t="n">
-        <v>2.933285152880582</v>
+        <v>2.472654668661758</v>
       </c>
       <c r="E40" t="n">
-        <v>2.307039345311722</v>
+        <v>1.956001106067804</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6262458075688593</v>
+        <v>-0.5166535625939539</v>
       </c>
       <c r="G40" t="n">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="H40" t="n">
-        <v>67.55716516489214</v>
+        <v>70.70601700555568</v>
       </c>
       <c r="I40" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J40" t="n">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="K40" t="n">
-        <v>313.5276092397208</v>
+        <v>192.4780214025189</v>
       </c>
       <c r="L40" t="n">
-        <v>6.56538613875878</v>
+        <v>10.05381624822352</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8640522016593055</v>
+        <v>0.6084180651893641</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1485148514851485</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3751486117121691</v>
+        <v>0.8251533438002639</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8778675919408412</v>
+        <v>0.8524515742680268</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>826</v>
+        <v>649</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>344</v>
+        <v>196</v>
       </c>
       <c r="B41" t="n">
-        <v>377</v>
+        <v>244</v>
       </c>
       <c r="C41" t="n">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="D41" t="n">
-        <v>2.682176975313839</v>
+        <v>4.541547278942087</v>
       </c>
       <c r="E41" t="n">
-        <v>2.05593116774498</v>
+        <v>4.024893716348133</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6262458075688593</v>
+        <v>-0.5166535625939539</v>
       </c>
       <c r="G41" t="n">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="H41" t="n">
-        <v>50.07866281081596</v>
+        <v>124.9087338242184</v>
       </c>
       <c r="I41" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J41" t="n">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="K41" t="n">
-        <v>223.0526232788913</v>
+        <v>606.3077820042093</v>
       </c>
       <c r="L41" t="n">
-        <v>6.003346629334791</v>
+        <v>18.46593558081248</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.920228316427075</v>
+        <v>0.9358487697453226</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2538461538461538</v>
+        <v>0.2341463414634146</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2915680084615069</v>
+        <v>0.2362107421358847</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8672651101252026</v>
+        <v>0.9674702889558215</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>827</v>
+        <v>650</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>507</v>
+        <v>185</v>
       </c>
       <c r="B42" t="n">
-        <v>540</v>
+        <v>217</v>
       </c>
       <c r="C42" t="n">
-        <v>621</v>
+        <v>371</v>
       </c>
       <c r="D42" t="n">
-        <v>2.830479945440215</v>
+        <v>5.091708255917479</v>
       </c>
       <c r="E42" t="n">
-        <v>2.204234137871356</v>
+        <v>4.640043735227733</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6262458075688593</v>
+        <v>-0.4516645206897454</v>
       </c>
       <c r="G42" t="n">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="H42" t="n">
-        <v>79.67259236479993</v>
+        <v>139.4849536175672</v>
       </c>
       <c r="I42" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J42" t="n">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="K42" t="n">
-        <v>210.1387795639602</v>
+        <v>552.5284497097634</v>
       </c>
       <c r="L42" t="n">
-        <v>6.335283762500415</v>
+        <v>22.56070782331456</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8101532888411598</v>
+        <v>0.8645073848397937</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1511355235002039</v>
+        <v>0.2656525161151339</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9694808701931203</v>
+        <v>0.8324911864051716</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>828</v>
+        <v>651</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1719</v>
+        <v>371</v>
       </c>
       <c r="B43" t="n">
-        <v>1750</v>
+        <v>419</v>
       </c>
       <c r="C43" t="n">
-        <v>1920</v>
+        <v>578</v>
       </c>
       <c r="D43" t="n">
-        <v>3.739060446842359</v>
+        <v>1.247616333283599</v>
       </c>
       <c r="E43" t="n">
-        <v>3.222131601096331</v>
+        <v>0.7959518125938532</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5169288457460279</v>
+        <v>-0.4516645206897454</v>
       </c>
       <c r="G43" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H43" t="n">
-        <v>80.90643064766437</v>
+        <v>38.70116721430702</v>
       </c>
       <c r="I43" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J43" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K43" t="n">
-        <v>366.6670250414406</v>
+        <v>143.4201464136172</v>
       </c>
       <c r="L43" t="n">
-        <v>14.67840152961777</v>
+        <v>5.528028346497331</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8961579214424479</v>
+        <v>0.6975427550212985</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3008961482782332</v>
+        <v>0.4277088106035989</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7869814742247091</v>
+        <v>0.6362608649239797</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>829</v>
+        <v>652</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1920</v>
+        <v>773</v>
       </c>
       <c r="B44" t="n">
-        <v>1954</v>
+        <v>806</v>
       </c>
       <c r="C44" t="n">
-        <v>2004</v>
+        <v>915</v>
       </c>
       <c r="D44" t="n">
-        <v>3.263401622706542</v>
+        <v>4.477229301222915</v>
       </c>
       <c r="E44" t="n">
-        <v>2.746472776960514</v>
+        <v>3.873914141254486</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5169288457460279</v>
+        <v>-0.603315159968428</v>
       </c>
       <c r="G44" t="n">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="H44" t="n">
-        <v>30.1141074353543</v>
+        <v>109.2526474448301</v>
       </c>
       <c r="I44" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="K44" t="n">
-        <v>202.3489018829021</v>
+        <v>374.4079454036334</v>
       </c>
       <c r="L44" t="n">
-        <v>12.81111125415094</v>
+        <v>15.18886204313864</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8105332773788124</v>
+        <v>0.899973251687017</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.68</v>
+        <v>0.3027522935779817</v>
       </c>
       <c r="R44" t="n">
-        <v>0.6590275352848689</v>
+        <v>0.2425127615871322</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8930301962289083</v>
+        <v>0.8844176019769031</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>830</v>
+        <v>653</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1894</v>
+        <v>1030</v>
       </c>
       <c r="B45" t="n">
-        <v>1929</v>
+        <v>1058</v>
       </c>
       <c r="C45" t="n">
-        <v>2004</v>
+        <v>1106</v>
       </c>
       <c r="D45" t="n">
-        <v>4.994898844671757</v>
+        <v>1.522169527095681</v>
       </c>
       <c r="E45" t="n">
-        <v>4.481428667336165</v>
+        <v>0.9188543671272531</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.513470177335592</v>
+        <v>-0.603315159968428</v>
       </c>
       <c r="G45" t="n">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H45" t="n">
-        <v>28.75529982527769</v>
+        <v>24.01246205553775</v>
       </c>
       <c r="I45" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="K45" t="n">
-        <v>403.3979143696286</v>
+        <v>93.23558903471029</v>
       </c>
       <c r="L45" t="n">
-        <v>20.75634393496172</v>
+        <v>5.163913080576611</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8253666543600131</v>
+        <v>0.5791245894294825</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3541081231909546</v>
+        <v>0.1561945166421687</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8734493546321874</v>
+        <v>0.4060685210543276</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>831</v>
+        <v>654</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>31</v>
+        <v>1931</v>
       </c>
       <c r="B46" t="n">
-        <v>63</v>
+        <v>1953</v>
       </c>
       <c r="C46" t="n">
-        <v>153</v>
+        <v>2004</v>
       </c>
       <c r="D46" t="n">
-        <v>2.480679828704559</v>
+        <v>2.889611007343383</v>
       </c>
       <c r="E46" t="n">
-        <v>1.959789140525414</v>
+        <v>2.391007032006666</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5208906881791445</v>
+        <v>-0.4986039753367162</v>
       </c>
       <c r="G46" t="n">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="H46" t="n">
-        <v>70.85827015681522</v>
+        <v>52.81065935206334</v>
       </c>
       <c r="I46" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J46" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="K46" t="n">
-        <v>182.2950395806092</v>
+        <v>156.2268891568433</v>
       </c>
       <c r="L46" t="n">
-        <v>10.05140152634178</v>
+        <v>11.11338103693129</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8808477273311262</v>
+        <v>0.8170424799428941</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2916625305491694</v>
+        <v>0.3305373209421826</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8469055868593826</v>
+        <v>0.7702965302759285</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>832</v>
+        <v>655</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="B47" t="n">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="C47" t="n">
-        <v>449</v>
+        <v>152</v>
       </c>
       <c r="D47" t="n">
-        <v>4.556396751374919</v>
+        <v>1.802000465531419</v>
       </c>
       <c r="E47" t="n">
-        <v>4.035506063195775</v>
+        <v>1.329414799711904</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5208906881791445</v>
+        <v>-0.4725856658195143</v>
       </c>
       <c r="G47" t="n">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="H47" t="n">
-        <v>125.113888242693</v>
+        <v>53.45972126921392</v>
       </c>
       <c r="I47" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J47" t="n">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="K47" t="n">
-        <v>606.3456896549703</v>
+        <v>117.2031381667733</v>
       </c>
       <c r="L47" t="n">
-        <v>18.4619444764482</v>
+        <v>6.66071847271104</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.9297780669031162</v>
+        <v>0.9274957726646927</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2233009708737864</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2347614619200499</v>
+        <v>0.24215802882815</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9672933433291607</v>
+        <v>0.8783574777377241</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>833</v>
+        <v>656</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B48" t="n">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="C48" t="n">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="D48" t="n">
-        <v>5.097143614461348</v>
+        <v>4.534816851429951</v>
       </c>
       <c r="E48" t="n">
-        <v>4.650488000780218</v>
+        <v>4.062231185610436</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.446655613681131</v>
+        <v>-0.4725856658195143</v>
       </c>
       <c r="G48" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="H48" t="n">
-        <v>140.0669922224797</v>
+        <v>124.6786201519257</v>
       </c>
       <c r="I48" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="J48" t="n">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="K48" t="n">
-        <v>551.4197090064697</v>
+        <v>587.90127881596</v>
       </c>
       <c r="L48" t="n">
-        <v>22.47150121756691</v>
+        <v>16.76200364563898</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8629348465817734</v>
+        <v>0.9461589817488709</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.3</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2760716827583917</v>
+        <v>0.251648587830515</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8262111834967145</v>
+        <v>0.9844721246602143</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>834</v>
+        <v>657</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>751</v>
+        <v>1849</v>
       </c>
       <c r="B49" t="n">
-        <v>778</v>
+        <v>1875</v>
       </c>
       <c r="C49" t="n">
-        <v>861</v>
+        <v>2004</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6938419251361155</v>
+        <v>1.818479945336677</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2471863114549845</v>
+        <v>1.345894279517163</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.446655613681131</v>
+        <v>-0.4725856658195143</v>
       </c>
       <c r="G49" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="H49" t="n">
-        <v>24.27368587273997</v>
+        <v>48.31993121053279</v>
       </c>
       <c r="I49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="K49" t="n">
-        <v>47.09170581292777</v>
+        <v>112.4227186878277</v>
       </c>
       <c r="L49" t="n">
-        <v>3.0589033476042</v>
+        <v>6.721631428983326</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.7776283729056723</v>
+        <v>0.8199332978686892</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3253012048192771</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2604322281694092</v>
+        <v>0.4799842430104975</v>
       </c>
       <c r="S49" t="n">
-        <v>0.4654315165928965</v>
+        <v>0.521181214794793</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>835</v>
+        <v>658</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B50" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C50" t="n">
-        <v>544</v>
+        <v>669</v>
       </c>
       <c r="D50" t="n">
-        <v>4.605308925315597</v>
+        <v>4.374863142727157</v>
       </c>
       <c r="E50" t="n">
-        <v>4.188592618609449</v>
+        <v>3.885386275428173</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.416716306706149</v>
+        <v>-0.4894768672989838</v>
       </c>
       <c r="G50" t="n">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="H50" t="n">
-        <v>104.1828632251691</v>
+        <v>203.2882931788763</v>
       </c>
       <c r="I50" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J50" t="n">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="K50" t="n">
-        <v>382.4222302850904</v>
+        <v>677.7097675910154</v>
       </c>
       <c r="L50" t="n">
-        <v>10.06319693523471</v>
+        <v>20.67588537827696</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.7413003749306514</v>
+        <v>0.8000747884967236</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.5816326530612245</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="R50" t="n">
-        <v>1.155835415853455</v>
+        <v>0.189191415929751</v>
       </c>
       <c r="S50" t="n">
-        <v>0.7068987030253635</v>
+        <v>0.8311131872101765</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>836</v>
+        <v>659</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>697</v>
       </c>
       <c r="C51" t="n">
-        <v>202</v>
+        <v>800</v>
       </c>
       <c r="D51" t="n">
-        <v>2.639588869416021</v>
+        <v>1.058224023737115</v>
       </c>
       <c r="E51" t="n">
-        <v>2.037630262283501</v>
+        <v>0.5687471564381311</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.6019586071325195</v>
+        <v>-0.4894768672989838</v>
       </c>
       <c r="G51" t="n">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="H51" t="n">
-        <v>14.6191904510936</v>
+        <v>21.23135230069681</v>
       </c>
       <c r="I51" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J51" t="n">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="K51" t="n">
-        <v>318.6627681618579</v>
+        <v>92.8984517104377</v>
       </c>
       <c r="L51" t="n">
-        <v>8.914749531687722</v>
+        <v>5.001234988504915</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.6674545678608247</v>
+        <v>0.7966316637865257</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.286624203821656</v>
+        <v>0.2718446601941747</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4718356959776751</v>
+        <v>0.2105223433602831</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8666505099155573</v>
+        <v>0.6271152596481475</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>837</v>
+        <v>660</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="B52" t="n">
-        <v>806</v>
+        <v>743</v>
       </c>
       <c r="C52" t="n">
-        <v>915</v>
+        <v>788</v>
       </c>
       <c r="D52" t="n">
-        <v>4.455800740737573</v>
+        <v>2.798659419808225</v>
       </c>
       <c r="E52" t="n">
-        <v>3.853842133605053</v>
+        <v>2.212420533800553</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.6019586071325195</v>
+        <v>-0.5862388860076716</v>
       </c>
       <c r="G52" t="n">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="H52" t="n">
-        <v>110.375488054639</v>
+        <v>19.98321968690391</v>
       </c>
       <c r="I52" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J52" t="n">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="K52" t="n">
-        <v>374.004829598565</v>
+        <v>144.0481243541809</v>
       </c>
       <c r="L52" t="n">
-        <v>15.04868732666394</v>
+        <v>10.28144816787799</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.8985007736616067</v>
+        <v>0.8299342010858213</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3027522935779817</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2460483638848191</v>
+        <v>0.3070074812047121</v>
       </c>
       <c r="S52" t="n">
-        <v>0.879756922900635</v>
+        <v>0.9808986862558754</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>838</v>
+        <v>661</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1030</v>
+        <v>788</v>
       </c>
       <c r="B53" t="n">
-        <v>1058</v>
+        <v>822</v>
       </c>
       <c r="C53" t="n">
-        <v>1106</v>
+        <v>1029</v>
       </c>
       <c r="D53" t="n">
-        <v>1.543104430616859</v>
+        <v>1.843670393183632</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9411458234843391</v>
+        <v>1.25743150717596</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6019586071325195</v>
+        <v>-0.5862388860076716</v>
       </c>
       <c r="G53" t="n">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="H53" t="n">
-        <v>23.69361615299272</v>
+        <v>100.8529753852183</v>
       </c>
       <c r="I53" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J53" t="n">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="K53" t="n">
-        <v>93.11414589525818</v>
+        <v>298.4981051226471</v>
       </c>
       <c r="L53" t="n">
-        <v>5.211565202284829</v>
+        <v>6.773100525203476</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.5294604765850212</v>
+        <v>0.8316882459383566</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1642512077294686</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1643180586553032</v>
+        <v>0.15551529450938</v>
       </c>
       <c r="S53" t="n">
-        <v>0.3769200055331223</v>
+        <v>0.823429221213636</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>839</v>
+        <v>662</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1931</v>
+        <v>605</v>
       </c>
       <c r="B54" t="n">
-        <v>1952</v>
+        <v>675</v>
       </c>
       <c r="C54" t="n">
-        <v>2004</v>
+        <v>886</v>
       </c>
       <c r="D54" t="n">
-        <v>2.921213448657934</v>
+        <v>4.770312090474881</v>
       </c>
       <c r="E54" t="n">
-        <v>2.420247355645321</v>
+        <v>4.290929952653066</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5009660930126132</v>
+        <v>-0.4793821378218157</v>
       </c>
       <c r="G54" t="n">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="H54" t="n">
-        <v>52.62749741090693</v>
+        <v>96.78718652152395</v>
       </c>
       <c r="I54" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J54" t="n">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="K54" t="n">
-        <v>156.5656514746964</v>
+        <v>528.4936514001325</v>
       </c>
       <c r="L54" t="n">
-        <v>11.15474296391347</v>
+        <v>53.17747422713983</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.8296335520398698</v>
+        <v>0.9091893802065748</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3317535545023697</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3455185309387313</v>
+        <v>0.5487232762367388</v>
       </c>
       <c r="S54" t="n">
-        <v>0.7735383784883123</v>
+        <v>0.972137146910528</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>840</v>
+        <v>663</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>37</v>
+        <v>886</v>
       </c>
       <c r="B55" t="n">
-        <v>63</v>
+        <v>932</v>
       </c>
       <c r="C55" t="n">
-        <v>153</v>
+        <v>1016</v>
       </c>
       <c r="D55" t="n">
-        <v>1.816030769482381</v>
+        <v>0.805876212456331</v>
       </c>
       <c r="E55" t="n">
-        <v>1.341414160547146</v>
+        <v>0.3264940746345154</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.4746166089352356</v>
+        <v>-0.4793821378218157</v>
       </c>
       <c r="G55" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H55" t="n">
-        <v>53.35290295018964</v>
+        <v>51.52726992069881</v>
       </c>
       <c r="I55" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J55" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K55" t="n">
-        <v>117.7441811932241</v>
+        <v>63.45065875647578</v>
       </c>
       <c r="L55" t="n">
-        <v>6.700801765024665</v>
+        <v>8.983576064914333</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.9435393747688918</v>
+        <v>0.738257242164659</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="R55" t="n">
-        <v>0.229002095069613</v>
+        <v>0.4724324199747622</v>
       </c>
       <c r="S55" t="n">
-        <v>0.879101116777576</v>
+        <v>0.9648465706207623</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>841</v>
+        <v>664</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>196</v>
+        <v>1889</v>
       </c>
       <c r="B56" t="n">
-        <v>250</v>
+        <v>1919</v>
       </c>
       <c r="C56" t="n">
-        <v>430</v>
+        <v>2004</v>
       </c>
       <c r="D56" t="n">
-        <v>4.544463567368093</v>
+        <v>4.160817174752556</v>
       </c>
       <c r="E56" t="n">
-        <v>4.069846958432858</v>
+        <v>3.681435036930741</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.4746166089352356</v>
+        <v>-0.4793821378218157</v>
       </c>
       <c r="G56" t="n">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="H56" t="n">
-        <v>123.8097113382212</v>
+        <v>31.17157259706869</v>
       </c>
       <c r="I56" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J56" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K56" t="n">
-        <v>588.289036489978</v>
+        <v>304.9120252351275</v>
       </c>
       <c r="L56" t="n">
-        <v>16.76819027795985</v>
+        <v>46.38307596604614</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.9466350148177525</v>
+        <v>0.8857859407172791</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.3</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2552384668073728</v>
+        <v>0.4092569064061239</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9839161577672282</v>
+        <v>0.9017542952218449</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>842</v>
+        <v>665</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1850</v>
+        <v>598</v>
       </c>
       <c r="B57" t="n">
-        <v>1874</v>
+        <v>653</v>
       </c>
       <c r="C57" t="n">
-        <v>2004</v>
+        <v>753</v>
       </c>
       <c r="D57" t="n">
-        <v>1.816188840536126</v>
+        <v>1.370508664132581</v>
       </c>
       <c r="E57" t="n">
-        <v>1.34157223160089</v>
+        <v>0.889388424288917</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.4746166089352356</v>
+        <v>-0.4811202398436636</v>
       </c>
       <c r="G57" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H57" t="n">
-        <v>48.67488151829525</v>
+        <v>28.49279996617986</v>
       </c>
       <c r="I57" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J57" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>112.9704417803639</v>
+        <v>81.12466438690859</v>
       </c>
       <c r="L57" t="n">
-        <v>6.701385016593818</v>
+        <v>6.268294003533907</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.8159068171955509</v>
+        <v>0.55846154996138</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.55</v>
       </c>
       <c r="R57" t="n">
-        <v>0.4636096221540488</v>
+        <v>0.6077313261402685</v>
       </c>
       <c r="S57" t="n">
-        <v>0.5294243089921916</v>
+        <v>0.7027092324844209</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>843</v>
+        <v>666</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>415</v>
+        <v>952</v>
       </c>
       <c r="B58" t="n">
-        <v>444</v>
+        <v>1003</v>
       </c>
       <c r="C58" t="n">
-        <v>670</v>
+        <v>1244</v>
       </c>
       <c r="D58" t="n">
-        <v>4.382595085587181</v>
+        <v>4.34983697376098</v>
       </c>
       <c r="E58" t="n">
-        <v>3.892485194468695</v>
+        <v>3.868716733917316</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4901098911184868</v>
+        <v>-0.4811202398436636</v>
       </c>
       <c r="G58" t="n">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="H58" t="n">
-        <v>203.4372977554102</v>
+        <v>193.7604056434936</v>
       </c>
       <c r="I58" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J58" t="n">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="K58" t="n">
-        <v>678.5405450403629</v>
+        <v>616.3241296122367</v>
       </c>
       <c r="L58" t="n">
-        <v>20.74217944660241</v>
+        <v>19.89484468982413</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8126903085101456</v>
+        <v>0.8228496790611152</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.1283185840707965</v>
+        <v>0.2116182572614108</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2055319182578116</v>
+        <v>0.4772132935312856</v>
       </c>
       <c r="S58" t="n">
-        <v>0.8309342128982202</v>
+        <v>0.9698782728786387</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>844</v>
+        <v>667</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>670</v>
+        <v>771</v>
       </c>
       <c r="B59" t="n">
-        <v>697</v>
+        <v>824</v>
       </c>
       <c r="C59" t="n">
-        <v>800</v>
+        <v>922</v>
       </c>
       <c r="D59" t="n">
-        <v>1.071497518174005</v>
+        <v>2.624965112045953</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5813876270555177</v>
+        <v>2.02236067935626</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.4901098911184868</v>
+        <v>-0.6026044326896935</v>
       </c>
       <c r="G59" t="n">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H59" t="n">
-        <v>19.55771692229541</v>
+        <v>85.1836043182584</v>
       </c>
       <c r="I59" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J59" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K59" t="n">
-        <v>92.19352762091208</v>
+        <v>266.2603936158045</v>
       </c>
       <c r="L59" t="n">
-        <v>5.071240524055075</v>
+        <v>7.722999593409648</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.7860496423078204</v>
+        <v>0.7518085217465669</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.2621359223300971</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2141255164401881</v>
+        <v>0.2444511577131335</v>
       </c>
       <c r="S59" t="n">
-        <v>0.6092379251960439</v>
+        <v>0.8809435302305022</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>845</v>
+        <v>668</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>718</v>
+        <v>922</v>
       </c>
       <c r="B60" t="n">
-        <v>743</v>
+        <v>949</v>
       </c>
       <c r="C60" t="n">
-        <v>789</v>
+        <v>1000</v>
       </c>
       <c r="D60" t="n">
-        <v>2.814272395965784</v>
+        <v>1.722733490553021</v>
       </c>
       <c r="E60" t="n">
-        <v>2.229615101534111</v>
+        <v>1.120129057863328</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5846572944316734</v>
+        <v>-0.6026044326896935</v>
       </c>
       <c r="G60" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H60" t="n">
-        <v>19.34060108891458</v>
+        <v>21.3008973700862</v>
       </c>
       <c r="I60" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J60" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K60" t="n">
-        <v>144.9869642051925</v>
+        <v>81.52404357330342</v>
       </c>
       <c r="L60" t="n">
-        <v>10.29526352339756</v>
+        <v>5.068513096055676</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8258283152000048</v>
+        <v>0.8250134170050646</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.5434782608695652</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3134941659032202</v>
+        <v>0.3927823656077445</v>
       </c>
       <c r="S60" t="n">
-        <v>0.974631375188647</v>
+        <v>0.9478898967488075</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>846</v>
+        <v>669</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>789</v>
+        <v>1000</v>
       </c>
       <c r="B61" t="n">
-        <v>821</v>
+        <v>1037</v>
       </c>
       <c r="C61" t="n">
-        <v>983</v>
+        <v>1140</v>
       </c>
       <c r="D61" t="n">
-        <v>1.864400635473525</v>
+        <v>3.422339315449213</v>
       </c>
       <c r="E61" t="n">
-        <v>1.279743341041852</v>
+        <v>2.81973488275952</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5846572944316734</v>
+        <v>-0.6026044326896935</v>
       </c>
       <c r="G61" t="n">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="H61" t="n">
-        <v>96.5880001915823</v>
+        <v>46.10103741364571</v>
       </c>
       <c r="I61" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J61" t="n">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="K61" t="n">
-        <v>269.2342847777485</v>
+        <v>276.1853442732676</v>
       </c>
       <c r="L61" t="n">
-        <v>6.820411514857205</v>
+        <v>10.06898149633824</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7499278685660009</v>
+        <v>0.9267729940682494</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.3592233009708738</v>
       </c>
       <c r="R61" t="n">
-        <v>0.08786309311463407</v>
+        <v>0.2535690334163371</v>
       </c>
       <c r="S61" t="n">
-        <v>0.7541336011296307</v>
+        <v>0.9695805524943647</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>847</v>
+        <v>670</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>605</v>
+        <v>1140</v>
       </c>
       <c r="B62" t="n">
-        <v>675</v>
+        <v>1175</v>
       </c>
       <c r="C62" t="n">
-        <v>886</v>
+        <v>1242</v>
       </c>
       <c r="D62" t="n">
-        <v>4.776391043233246</v>
+        <v>3.516809349009114</v>
       </c>
       <c r="E62" t="n">
-        <v>4.297131394693454</v>
+        <v>2.914204916319421</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4792596485397912</v>
+        <v>-0.6026044326896935</v>
       </c>
       <c r="G62" t="n">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="H62" t="n">
-        <v>96.97364417045162</v>
+        <v>82.36447404485057</v>
       </c>
       <c r="I62" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J62" t="n">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="K62" t="n">
-        <v>528.4229943343526</v>
+        <v>245.2907211375688</v>
       </c>
       <c r="L62" t="n">
-        <v>52.84115709691292</v>
+        <v>10.34692501163465</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.9090959022110138</v>
+        <v>0.6753415486509122</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3317535545023697</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="R62" t="n">
-        <v>0.5549409825782995</v>
+        <v>0.0741232279602153</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9702930060384054</v>
+        <v>0.9077977475919131</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>848</v>
+        <v>671</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>886</v>
+        <v>1634</v>
       </c>
       <c r="B63" t="n">
-        <v>932</v>
+        <v>1660</v>
       </c>
       <c r="C63" t="n">
-        <v>1016</v>
+        <v>1833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8129685152713798</v>
+        <v>4.737401711924798</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3337088667315886</v>
+        <v>4.256868119558325</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4792596485397912</v>
+        <v>-0.4805335923664726</v>
       </c>
       <c r="G63" t="n">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="H63" t="n">
-        <v>51.13833148817821</v>
+        <v>124.3098177217762</v>
       </c>
       <c r="I63" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J63" t="n">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="K63" t="n">
-        <v>63.44631595051442</v>
+        <v>506.7460471413731</v>
       </c>
       <c r="L63" t="n">
-        <v>8.993860980280974</v>
+        <v>26.40379887734943</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7518679575274746</v>
+        <v>0.8812600291550837</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.1502890173410405</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4719492255108489</v>
+        <v>0.3985318562343611</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9540385028892004</v>
+        <v>0.9834485731350801</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>849</v>
+        <v>672</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1890</v>
+        <v>1833</v>
       </c>
       <c r="B64" t="n">
-        <v>1918</v>
+        <v>1853</v>
       </c>
       <c r="C64" t="n">
-        <v>2004</v>
+        <v>1891</v>
       </c>
       <c r="D64" t="n">
-        <v>4.165987142222542</v>
+        <v>0.8866637872189213</v>
       </c>
       <c r="E64" t="n">
-        <v>3.686727493682751</v>
+        <v>0.4061301948524487</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4792596485397912</v>
+        <v>-0.4805335923664726</v>
       </c>
       <c r="G64" t="n">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H64" t="n">
-        <v>31.22772341954169</v>
+        <v>19.67061668971269</v>
       </c>
       <c r="I64" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J64" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K64" t="n">
-        <v>304.8753602911929</v>
+        <v>35.76618284201711</v>
       </c>
       <c r="L64" t="n">
-        <v>46.08826602624351</v>
+        <v>4.941800111784353</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.900731718162294</v>
+        <v>0.8575635311399024</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3898974496773396</v>
+        <v>0.292490881985806</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9011333267845421</v>
+        <v>0.9421407272529017</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>850</v>
+        <v>673</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>597</v>
+        <v>1833</v>
       </c>
       <c r="B65" t="n">
-        <v>652</v>
+        <v>1850</v>
       </c>
       <c r="C65" t="n">
-        <v>752</v>
+        <v>1875</v>
       </c>
       <c r="D65" t="n">
-        <v>1.397514682881878</v>
+        <v>3.146865506762348</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9194059867800513</v>
+        <v>2.678677464657472</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.478108696101827</v>
+        <v>-0.4681880421048759</v>
       </c>
       <c r="G65" t="n">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="H65" t="n">
-        <v>27.49612953442477</v>
+        <v>12.67158866424325</v>
       </c>
       <c r="I65" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K65" t="n">
-        <v>80.37590624972691</v>
+        <v>116.0189940750798</v>
       </c>
       <c r="L65" t="n">
-        <v>6.373848803980675</v>
+        <v>10.53453520898486</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.5457849446973311</v>
+        <v>0.670853329967568</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="R65" t="n">
-        <v>0.6754456769974125</v>
+        <v>0.09152031489893603</v>
       </c>
       <c r="S65" t="n">
-        <v>0.7006474709236832</v>
+        <v>0.9131514469163859</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>851</v>
+        <v>674</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>953</v>
+        <v>1875</v>
       </c>
       <c r="B66" t="n">
-        <v>1002</v>
+        <v>1893</v>
       </c>
       <c r="C66" t="n">
-        <v>1243</v>
+        <v>2004</v>
       </c>
       <c r="D66" t="n">
-        <v>4.364551065438593</v>
+        <v>2.490973878328835</v>
       </c>
       <c r="E66" t="n">
-        <v>3.886442369336766</v>
+        <v>2.022785836223959</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.478108696101827</v>
+        <v>-0.4681880421048759</v>
       </c>
       <c r="G66" t="n">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="H66" t="n">
-        <v>193.4273535760494</v>
+        <v>13.66308895926477</v>
       </c>
       <c r="I66" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J66" t="n">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="K66" t="n">
-        <v>612.861732403858</v>
+        <v>119.9813341600905</v>
       </c>
       <c r="L66" t="n">
-        <v>19.90604387139</v>
+        <v>8.338854002348192</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.8151478928556969</v>
+        <v>0.6638945554632352</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.2033195020746888</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4739291134565307</v>
+        <v>0.6528955795617876</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9693066483497345</v>
+        <v>0.3110672625938089</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>852</v>
+        <v>675</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>771</v>
+        <v>1481</v>
       </c>
       <c r="B67" t="n">
-        <v>824</v>
+        <v>1508</v>
       </c>
       <c r="C67" t="n">
-        <v>922</v>
+        <v>1542</v>
       </c>
       <c r="D67" t="n">
-        <v>2.616989841288746</v>
+        <v>1.669272803249168</v>
       </c>
       <c r="E67" t="n">
-        <v>2.01122370879135</v>
+        <v>1.187537230933062</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6057661324973967</v>
+        <v>-0.4817355723161056</v>
       </c>
       <c r="G67" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="H67" t="n">
-        <v>85.42351125193522</v>
+        <v>22.99371029242479</v>
       </c>
       <c r="I67" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J67" t="n">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="K67" t="n">
-        <v>266.6905390715549</v>
+        <v>67.85367316452545</v>
       </c>
       <c r="L67" t="n">
-        <v>7.700049116669549</v>
+        <v>5.916512621442715</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.7500532648116167</v>
+        <v>0.795418025043203</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.5408163265306123</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2481823919630915</v>
+        <v>0.3284035787341945</v>
       </c>
       <c r="S67" t="n">
-        <v>0.8739364446398501</v>
+        <v>0.9030586472497032</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>853</v>
+        <v>676</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>922</v>
+        <v>1662</v>
       </c>
       <c r="B68" t="n">
-        <v>949</v>
+        <v>1710</v>
       </c>
       <c r="C68" t="n">
-        <v>999</v>
+        <v>2004</v>
       </c>
       <c r="D68" t="n">
-        <v>1.751705648952812</v>
+        <v>4.617600622696094</v>
       </c>
       <c r="E68" t="n">
-        <v>1.145939516455415</v>
+        <v>4.185474188926719</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6057661324973967</v>
+        <v>-0.432126433769375</v>
       </c>
       <c r="G68" t="n">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="H68" t="n">
-        <v>20.57893201864033</v>
+        <v>102.1032252085256</v>
       </c>
       <c r="I68" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J68" t="n">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="K68" t="n">
-        <v>81.40894886001595</v>
+        <v>718.460687893682</v>
       </c>
       <c r="L68" t="n">
-        <v>5.154097017144642</v>
+        <v>27.49589294306918</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8173337502857311</v>
+        <v>0.8883097506649832</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.54</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3848571157309372</v>
+        <v>0.2580481090654053</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9427809765928165</v>
+        <v>0.9420144894972304</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>854</v>
+        <v>677</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>999</v>
+        <v>1684</v>
       </c>
       <c r="B69" t="n">
-        <v>1037</v>
+        <v>1712</v>
       </c>
       <c r="C69" t="n">
-        <v>1140</v>
+        <v>1786</v>
       </c>
       <c r="D69" t="n">
-        <v>3.422910982606464</v>
+        <v>4.977902741916038</v>
       </c>
       <c r="E69" t="n">
-        <v>2.817144850109067</v>
+        <v>4.538028944410119</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6057661324973967</v>
+        <v>-0.4398737975059193</v>
       </c>
       <c r="G69" t="n">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="H69" t="n">
-        <v>46.45928634981033</v>
+        <v>76.20002961968521</v>
       </c>
       <c r="I69" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J69" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="K69" t="n">
-        <v>277.1007021906721</v>
+        <v>302.4319397360921</v>
       </c>
       <c r="L69" t="n">
-        <v>10.071335498604</v>
+        <v>11.92359955902345</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.9213768266593175</v>
+        <v>0.8830180548267943</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3689320388349515</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2785216047226374</v>
+        <v>0.2397969970468787</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9654912565944684</v>
+        <v>0.9720039681253257</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>855</v>
+        <v>678</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1140</v>
+        <v>1656</v>
       </c>
       <c r="B70" t="n">
-        <v>1175</v>
+        <v>1686</v>
       </c>
       <c r="C70" t="n">
-        <v>1241</v>
+        <v>1739</v>
       </c>
       <c r="D70" t="n">
-        <v>3.51141105700612</v>
+        <v>4.228217650992578</v>
       </c>
       <c r="E70" t="n">
-        <v>2.905644924508723</v>
+        <v>3.792486454332831</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6057661324973967</v>
+        <v>-0.4357311966597471</v>
       </c>
       <c r="G70" t="n">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="H70" t="n">
-        <v>81.84860147698942</v>
+        <v>59.04282424669555</v>
       </c>
       <c r="I70" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J70" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K70" t="n">
-        <v>244.3536511902467</v>
+        <v>205.1012037418574</v>
       </c>
       <c r="L70" t="n">
-        <v>10.33173196975372</v>
+        <v>9.170971996897668</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.6840826317585401</v>
+        <v>0.761944644384739</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="R70" t="n">
-        <v>0.0890167271468168</v>
+        <v>0.176445343994994</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8989554155294959</v>
+        <v>0.9180441282003069</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>856</v>
+        <v>679</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1635</v>
+        <v>889</v>
       </c>
       <c r="B71" t="n">
-        <v>1660</v>
+        <v>924</v>
       </c>
       <c r="C71" t="n">
-        <v>1834</v>
+        <v>976</v>
       </c>
       <c r="D71" t="n">
-        <v>4.768105108589211</v>
+        <v>0.9879991924648512</v>
       </c>
       <c r="E71" t="n">
-        <v>4.285902057728677</v>
+        <v>0.5796843374773888</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4822030508605337</v>
+        <v>-0.4083148549874624</v>
       </c>
       <c r="G71" t="n">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="H71" t="n">
-        <v>123.4509777300914</v>
+        <v>132.8066216038336</v>
       </c>
       <c r="I71" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J71" t="n">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="K71" t="n">
-        <v>504.5331244718437</v>
+        <v>56.40202432101303</v>
       </c>
       <c r="L71" t="n">
-        <v>26.43224653202067</v>
+        <v>5.008518044533201</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.878469760679512</v>
+        <v>0.7049907825731909</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.1436781609195402</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="R71" t="n">
-        <v>0.4057327728040822</v>
+        <v>0.1736134126965458</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9816603938116235</v>
+        <v>0.9110648286295311</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>857</v>
+        <v>680</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1834</v>
+        <v>1903</v>
       </c>
       <c r="B72" t="n">
-        <v>1854</v>
+        <v>1931</v>
       </c>
       <c r="C72" t="n">
-        <v>1891</v>
+        <v>2004</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9087553676112254</v>
+        <v>6.236641121794552</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4265523167506918</v>
+        <v>5.82832626680709</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4822030508605337</v>
+        <v>-0.4083148549874624</v>
       </c>
       <c r="G72" t="n">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="H72" t="n">
-        <v>19.37253016529098</v>
+        <v>35.96837086073833</v>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J72" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K72" t="n">
-        <v>35.40444835208314</v>
+        <v>413.281626475327</v>
       </c>
       <c r="L72" t="n">
-        <v>5.037734145316306</v>
+        <v>31.61574405527366</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.8505783418162858</v>
+        <v>0.9313254972378844</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="R72" t="n">
-        <v>0.3110356386015753</v>
+        <v>0.2747603577296966</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9306484616192054</v>
+        <v>0.9843186247873199</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>858</v>
+        <v>681</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1837</v>
+        <v>920</v>
       </c>
       <c r="B73" t="n">
-        <v>1850</v>
+        <v>953</v>
       </c>
       <c r="C73" t="n">
-        <v>1875</v>
+        <v>1061</v>
       </c>
       <c r="D73" t="n">
-        <v>3.154210615689551</v>
+        <v>1.555472548314446</v>
       </c>
       <c r="E73" t="n">
-        <v>2.69007312926369</v>
+        <v>1.084134017912135</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4641374864258609</v>
+        <v>-0.4713385304023113</v>
       </c>
       <c r="G73" t="n">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="H73" t="n">
-        <v>12.4793457445719</v>
+        <v>72.43087764157178</v>
       </c>
       <c r="I73" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J73" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="K73" t="n">
-        <v>104.6013610671762</v>
+        <v>164.1790638164538</v>
       </c>
       <c r="L73" t="n">
-        <v>10.41942606338991</v>
+        <v>4.378310639633217</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.7424355341055615</v>
+        <v>0.6838501074115291</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.52</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1001010097463076</v>
+        <v>0.1339931383668297</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9277725040686938</v>
+        <v>0.8020872312440399</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>859</v>
+        <v>682</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,73 +6749,73 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1875</v>
+        <v>437</v>
       </c>
       <c r="B74" t="n">
-        <v>1893</v>
+        <v>454</v>
       </c>
       <c r="C74" t="n">
-        <v>2004</v>
+        <v>540</v>
       </c>
       <c r="D74" t="n">
-        <v>2.476176341680705</v>
+        <v>1.378602166574148</v>
       </c>
       <c r="E74" t="n">
-        <v>2.012038855254844</v>
+        <v>0.9109559381236892</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4641374864258609</v>
+        <v>-0.4676462284504583</v>
       </c>
       <c r="G74" t="n">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H74" t="n">
-        <v>15.98437042250907</v>
+        <v>34.0280364012425</v>
       </c>
       <c r="I74" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J74" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K74" t="n">
-        <v>119.6414540975278</v>
+        <v>93.98320576968361</v>
       </c>
       <c r="L74" t="n">
-        <v>8.179649191376884</v>
+        <v>3.935393714832605</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(499), 'value': np.float64(0.7384822050865809), 'amplitude': np.float64(1.2061284335370392), 'start_idx': np.int64(481), 'end_idx': np.int64(505), 'duration': np.float64(24.0), 'fwhm': np.float64(32.338147962137725), 'rise_time': np.float64(18.0), 'decay_time': np.float64(6.0), 'auc': np.float64(25.69251775806716)}]</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.6691746225740632</v>
+        <v>0.8049108119377869</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="R74" t="n">
-        <v>0.6542802385659794</v>
+        <v>0.1968489351504733</v>
       </c>
       <c r="S74" t="n">
-        <v>0.3160440834782179</v>
+        <v>0.5156907367694483</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>860</v>
+        <v>683</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1481</v>
+        <v>1613</v>
       </c>
       <c r="B75" t="n">
-        <v>1508</v>
+        <v>1637</v>
       </c>
       <c r="C75" t="n">
-        <v>1542</v>
+        <v>1683</v>
       </c>
       <c r="D75" t="n">
-        <v>1.672738987575579</v>
+        <v>2.134592172433088</v>
       </c>
       <c r="E75" t="n">
-        <v>1.191687369370673</v>
+        <v>1.666945943982629</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.481051618204906</v>
+        <v>-0.4676462284504583</v>
       </c>
       <c r="G75" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H75" t="n">
-        <v>23.68485091398566</v>
+        <v>32.38021150128839</v>
       </c>
       <c r="I75" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J75" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K75" t="n">
-        <v>67.85890613462348</v>
+        <v>94.3127542309788</v>
       </c>
       <c r="L75" t="n">
-        <v>5.865748839143436</v>
+        <v>6.093462510652622</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.7927806614959809</v>
+        <v>0.8592072861639843</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R75" t="n">
-        <v>0.3330854583256826</v>
+        <v>0.4608166632952855</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8828447417269847</v>
+        <v>0.9642155016888104</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>861</v>
+        <v>684</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1613</v>
+        <v>744</v>
       </c>
       <c r="B76" t="n">
-        <v>1631</v>
+        <v>790</v>
       </c>
       <c r="C76" t="n">
-        <v>1738</v>
+        <v>876</v>
       </c>
       <c r="D76" t="n">
-        <v>2.638919690970869</v>
+        <v>0.7788405715273909</v>
       </c>
       <c r="E76" t="n">
-        <v>2.098817311658217</v>
+        <v>0.3495862122902221</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5401023793126515</v>
+        <v>-0.4292543592371689</v>
       </c>
       <c r="G76" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H76" t="n">
-        <v>11.68516739394659</v>
+        <v>65.87785402151712</v>
       </c>
       <c r="I76" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J76" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K76" t="n">
-        <v>199.8514208402947</v>
+        <v>38.53663936995466</v>
       </c>
       <c r="L76" t="n">
-        <v>9.043326276174646</v>
+        <v>5.434644461477384</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.7311320590913816</v>
+        <v>0.6292148771206447</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.1682242990654206</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="R76" t="n">
-        <v>0.3572060777258446</v>
+        <v>0.3091590694983581</v>
       </c>
       <c r="S76" t="n">
-        <v>0.7851510613162991</v>
+        <v>0.4455916848395364</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>862</v>
+        <v>685</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1662</v>
+        <v>1822</v>
       </c>
       <c r="B77" t="n">
-        <v>1709</v>
+        <v>1839</v>
       </c>
       <c r="C77" t="n">
-        <v>1831</v>
+        <v>2004</v>
       </c>
       <c r="D77" t="n">
-        <v>4.627446653723774</v>
+        <v>3.152990487137137</v>
       </c>
       <c r="E77" t="n">
-        <v>4.192276561508093</v>
+        <v>2.723736127899969</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4351700922156807</v>
+        <v>-0.4292543592371689</v>
       </c>
       <c r="G77" t="n">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H77" t="n">
-        <v>101.8966466154054</v>
+        <v>14.69970474483307</v>
       </c>
       <c r="I77" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J77" t="n">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="K77" t="n">
-        <v>529.9376991679609</v>
+        <v>292.2695761853521</v>
       </c>
       <c r="L77" t="n">
-        <v>27.42126708995526</v>
+        <v>22.00114235755127</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.8806285663001689</v>
+        <v>0.7288105438204839</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.3852459016393442</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3049206371865352</v>
+        <v>0.4981944939522727</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9208428812061815</v>
+        <v>0.7331656549397042</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>863</v>
+        <v>686</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7086,1038 +7086,6 @@
         </is>
       </c>
       <c r="X77" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1831</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1845</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1953</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2.000546765930994</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.565376673715314</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.4351700922156807</v>
-      </c>
-      <c r="G78" t="n">
-        <v>122</v>
-      </c>
-      <c r="H78" t="n">
-        <v>25.91542893246287</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>108</v>
-      </c>
-      <c r="K78" t="n">
-        <v>160.8530106198503</v>
-      </c>
-      <c r="L78" t="n">
-        <v>11.85481568985681</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>0.8307428845183927</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.1296296296296296</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.3389884102476907</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.9461294155761328</v>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>n38</t>
-        </is>
-      </c>
-      <c r="U78" t="n">
-        <v>864</v>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1684</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1711</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1785</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.992377610759508</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.550768992706418</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-0.4416086180530902</v>
-      </c>
-      <c r="G79" t="n">
-        <v>101</v>
-      </c>
-      <c r="H79" t="n">
-        <v>76.46218195711094</v>
-      </c>
-      <c r="I79" t="n">
-        <v>27</v>
-      </c>
-      <c r="J79" t="n">
-        <v>74</v>
-      </c>
-      <c r="K79" t="n">
-        <v>301.099852044359</v>
-      </c>
-      <c r="L79" t="n">
-        <v>11.94789654767029</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>0.8877307945968472</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.3648648648648649</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.2540837264860985</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.9675519487194273</v>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U79" t="n">
-        <v>865</v>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1687</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1739</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.205455529838476</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.758431787505654</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-0.4470237423328216</v>
-      </c>
-      <c r="G80" t="n">
-        <v>82</v>
-      </c>
-      <c r="H80" t="n">
-        <v>60.3107757422049</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>52</v>
-      </c>
-      <c r="K80" t="n">
-        <v>206.0151774098771</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9.080486014256667</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>0.7238736627869722</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.1432352928341055</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.9051104471050549</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
-        <v>866</v>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1739</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1762</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1795</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.865834226791547</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.418810484458725</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-0.4470237423328216</v>
-      </c>
-      <c r="G81" t="n">
-        <v>56</v>
-      </c>
-      <c r="H81" t="n">
-        <v>22.04606104628169</v>
-      </c>
-      <c r="I81" t="n">
-        <v>23</v>
-      </c>
-      <c r="J81" t="n">
-        <v>33</v>
-      </c>
-      <c r="K81" t="n">
-        <v>67.51008279008107</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.028738737359276</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>0.7270652060074499</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.1185363624647146</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.9160208557572694</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
-        <v>867</v>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>245</v>
-      </c>
-      <c r="B82" t="n">
-        <v>315</v>
-      </c>
-      <c r="C82" t="n">
-        <v>447</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.6672805939138218</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.2619759835606172</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-0.4053046103532045</v>
-      </c>
-      <c r="G82" t="n">
-        <v>202</v>
-      </c>
-      <c r="H82" t="n">
-        <v>150.7214077448063</v>
-      </c>
-      <c r="I82" t="n">
-        <v>70</v>
-      </c>
-      <c r="J82" t="n">
-        <v>132</v>
-      </c>
-      <c r="K82" t="n">
-        <v>79.18524522373032</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.384996994109148</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>0.665317360751736</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.5303030303030303</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.2858370394429001</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.6535257113396055</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>n41</t>
-        </is>
-      </c>
-      <c r="U82" t="n">
-        <v>868</v>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1930</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.260053304277007</v>
-      </c>
-      <c r="E83" t="n">
-        <v>5.854748693923803</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.4053046103532045</v>
-      </c>
-      <c r="G83" t="n">
-        <v>101</v>
-      </c>
-      <c r="H83" t="n">
-        <v>35.79804595644691</v>
-      </c>
-      <c r="I83" t="n">
-        <v>27</v>
-      </c>
-      <c r="J83" t="n">
-        <v>74</v>
-      </c>
-      <c r="K83" t="n">
-        <v>413.1475416941569</v>
-      </c>
-      <c r="L83" t="n">
-        <v>31.75614847968649</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>0.9395598465904557</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.3648648648648649</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.2927440096140924</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.9858723307531481</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>n41</t>
-        </is>
-      </c>
-      <c r="U83" t="n">
-        <v>869</v>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>920</v>
-      </c>
-      <c r="B84" t="n">
-        <v>952</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1061</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.58175514374267</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.103573867090389</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.4781812766522817</v>
-      </c>
-      <c r="G84" t="n">
-        <v>141</v>
-      </c>
-      <c r="H84" t="n">
-        <v>73.38694579585672</v>
-      </c>
-      <c r="I84" t="n">
-        <v>32</v>
-      </c>
-      <c r="J84" t="n">
-        <v>109</v>
-      </c>
-      <c r="K84" t="n">
-        <v>165.065525327808</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.430834200649246</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>0.7158081988280827</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.2935779816513762</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.1465444019892345</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.7954364396507014</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>n42</t>
-        </is>
-      </c>
-      <c r="U84" t="n">
-        <v>870</v>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1613</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1637</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1683</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2.126300285793707</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.661210100041763</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-0.4650901857519441</v>
-      </c>
-      <c r="G85" t="n">
-        <v>70</v>
-      </c>
-      <c r="H85" t="n">
-        <v>35.05373388474527</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>46</v>
-      </c>
-      <c r="K85" t="n">
-        <v>94.25956037078541</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.968055577337263</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>0.8489678020105199</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.4595167505386411</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.9552326952723031</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>n43</t>
-        </is>
-      </c>
-      <c r="U85" t="n">
-        <v>871</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>550</v>
-      </c>
-      <c r="B86" t="n">
-        <v>568</v>
-      </c>
-      <c r="C86" t="n">
-        <v>592</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.4706572619832454</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.04001820998037611</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-0.4306390520028693</v>
-      </c>
-      <c r="G86" t="n">
-        <v>42</v>
-      </c>
-      <c r="H86" t="n">
-        <v>22.59039666739545</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>24</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.0899331475685</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.262773127662258</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>0.6463832954471986</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.1413607227667932</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.6760833258728725</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
-        <v>872</v>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>744</v>
-      </c>
-      <c r="B87" t="n">
-        <v>790</v>
-      </c>
-      <c r="C87" t="n">
-        <v>876</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.7838669617038254</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.353227909700956</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.4306390520028693</v>
-      </c>
-      <c r="G87" t="n">
-        <v>132</v>
-      </c>
-      <c r="H87" t="n">
-        <v>63.86947832452358</v>
-      </c>
-      <c r="I87" t="n">
-        <v>46</v>
-      </c>
-      <c r="J87" t="n">
-        <v>86</v>
-      </c>
-      <c r="K87" t="n">
-        <v>38.89882092419916</v>
-      </c>
-      <c r="L87" t="n">
-        <v>5.434060546590582</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>0.6130055797299585</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.5348837209302325</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.3123282695524244</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.4250704421318034</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
-        <v>873</v>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1822</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1838</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3.161608319348423</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.730969267345554</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.4306390520028693</v>
-      </c>
-      <c r="G88" t="n">
-        <v>115</v>
-      </c>
-      <c r="H88" t="n">
-        <v>15.08592003250783</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>99</v>
-      </c>
-      <c r="K88" t="n">
-        <v>236.3432311608659</v>
-      </c>
-      <c r="L88" t="n">
-        <v>21.91745777191617</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>0.7927682210830412</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.1616161616161616</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.3578964662842508</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.8693195707518099</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
-        <v>874</v>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1937</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1957</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.9476690106089395</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.5170299586060702</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.4306390520028693</v>
-      </c>
-      <c r="G89" t="n">
-        <v>67</v>
-      </c>
-      <c r="H89" t="n">
-        <v>12.31757929978767</v>
-      </c>
-      <c r="I89" t="n">
-        <v>20</v>
-      </c>
-      <c r="J89" t="n">
-        <v>47</v>
-      </c>
-      <c r="K89" t="n">
-        <v>56.17712006141612</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6.569597946293236</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>0.6515805149859809</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.425531914893617</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.1917572568995505</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.3024188537104541</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
-        <v>875</v>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="B2" t="n">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="C2" t="n">
         <v>2004</v>
       </c>
       <c r="D2" t="n">
-        <v>2.071153796862349</v>
+        <v>2.275184975277994</v>
       </c>
       <c r="E2" t="n">
-        <v>1.423805479501906</v>
+        <v>1.63849261273178</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6473483173604427</v>
+        <v>-0.6366923625462135</v>
       </c>
       <c r="G2" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H2" t="n">
-        <v>33.70808650414597</v>
+        <v>29.11514913558085</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K2" t="n">
-        <v>154.3119707329924</v>
+        <v>151.3026887471104</v>
       </c>
       <c r="L2" t="n">
-        <v>12.85256996352368</v>
+        <v>13.64337185657742</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7731845669836974</v>
+        <v>0.8085695817380547</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3960396039603961</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4136103605220969</v>
+        <v>0.4509021097291683</v>
       </c>
       <c r="S2" t="n">
-        <v>0.555750176574241</v>
+        <v>0.5795535994818388</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>328</v>
+        <v>611</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="B3" t="n">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="C3" t="n">
         <v>2004</v>
       </c>
       <c r="D3" t="n">
-        <v>2.414100520850689</v>
+        <v>2.458925936174151</v>
       </c>
       <c r="E3" t="n">
-        <v>1.782484515403229</v>
+        <v>1.820254188414945</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6316160054474594</v>
+        <v>-0.6386717477592068</v>
       </c>
       <c r="G3" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H3" t="n">
-        <v>71.52128668314162</v>
+        <v>72.73258222538561</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K3" t="n">
-        <v>175.0119525385483</v>
+        <v>177.9543976735539</v>
       </c>
       <c r="L3" t="n">
-        <v>8.104118588883129</v>
+        <v>8.35854532903423</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.9242316473129031</v>
+        <v>0.903621070031037</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1987577639751553</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4433676932705102</v>
+        <v>0.406613432223831</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8748667056815356</v>
+        <v>0.873214864312984</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>329</v>
+        <v>612</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1630</v>
+        <v>1132</v>
       </c>
       <c r="B4" t="n">
-        <v>1672</v>
+        <v>1157</v>
       </c>
       <c r="C4" t="n">
-        <v>1750</v>
+        <v>1356</v>
       </c>
       <c r="D4" t="n">
-        <v>3.590249709468139</v>
+        <v>0.9740500357811493</v>
       </c>
       <c r="E4" t="n">
-        <v>2.972730491026281</v>
+        <v>0.3556417589836851</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6175192184418584</v>
+        <v>-0.6184082767974642</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="H4" t="n">
-        <v>84.72515363401089</v>
+        <v>68.04917658652857</v>
       </c>
       <c r="I4" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="K4" t="n">
-        <v>291.8661207390268</v>
+        <v>88.66049749129269</v>
       </c>
       <c r="L4" t="n">
-        <v>15.75598421041119</v>
+        <v>4.253659771221406</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7105727848787216</v>
+        <v>0.827198774186701</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09179833440695166</v>
+        <v>0.3805046930600314</v>
       </c>
       <c r="S4" t="n">
-        <v>0.991863892375904</v>
+        <v>0.7253943363641024</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>330</v>
+        <v>613</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1750</v>
+        <v>1635</v>
       </c>
       <c r="B5" t="n">
-        <v>1793</v>
+        <v>1669</v>
       </c>
       <c r="C5" t="n">
-        <v>2004</v>
+        <v>1755</v>
       </c>
       <c r="D5" t="n">
-        <v>2.971759216184331</v>
+        <v>3.738825511061837</v>
       </c>
       <c r="E5" t="n">
-        <v>2.354239997742473</v>
+        <v>3.120417234264373</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6175192184418584</v>
+        <v>-0.6184082767974642</v>
       </c>
       <c r="G5" t="n">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="H5" t="n">
-        <v>61.42320634633597</v>
+        <v>79.33356209349085</v>
       </c>
       <c r="I5" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="K5" t="n">
-        <v>389.6156887270577</v>
+        <v>292.7524954358653</v>
       </c>
       <c r="L5" t="n">
-        <v>13.04170881592541</v>
+        <v>16.32738677050191</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8791264785734164</v>
+        <v>0.7931570777628628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2037914691943128</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3872082375215287</v>
+        <v>0.1180067551685404</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9471594138289419</v>
+        <v>0.9913020150714689</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>331</v>
+        <v>614</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1072</v>
+        <v>1755</v>
       </c>
       <c r="B6" t="n">
-        <v>1115</v>
+        <v>1790</v>
       </c>
       <c r="C6" t="n">
-        <v>1251</v>
+        <v>2004</v>
       </c>
       <c r="D6" t="n">
-        <v>4.360188184975948</v>
+        <v>2.983082928310677</v>
       </c>
       <c r="E6" t="n">
-        <v>3.626537605390865</v>
+        <v>2.364674651513213</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.733650579585083</v>
+        <v>-0.6184082767974642</v>
       </c>
       <c r="G6" t="n">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="H6" t="n">
-        <v>138.3239631150988</v>
+        <v>56.19182032261619</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="K6" t="n">
-        <v>405.3622986315812</v>
+        <v>381.5389373924572</v>
       </c>
       <c r="L6" t="n">
-        <v>20.6680583625548</v>
+        <v>13.02707189594874</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9091936623038783</v>
+        <v>0.8510903147251292</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3161764705882353</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4064382983698636</v>
+        <v>0.391193555474701</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9594188411897382</v>
+        <v>0.9419539974719534</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>332</v>
+        <v>615</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1251</v>
+        <v>1077</v>
       </c>
       <c r="B7" t="n">
-        <v>1300</v>
+        <v>1109</v>
       </c>
       <c r="C7" t="n">
-        <v>1429</v>
+        <v>1244</v>
       </c>
       <c r="D7" t="n">
-        <v>2.472098255328253</v>
+        <v>4.399406255688234</v>
       </c>
       <c r="E7" t="n">
-        <v>1.73844767574317</v>
+        <v>3.675383592740764</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.733650579585083</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G7" t="n">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H7" t="n">
-        <v>86.24039362678604</v>
+        <v>134.5015511613439</v>
       </c>
       <c r="I7" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K7" t="n">
-        <v>275.3797773773344</v>
+        <v>387.0907532050538</v>
       </c>
       <c r="L7" t="n">
-        <v>11.71818023707068</v>
+        <v>20.56220889421956</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.774379705654985</v>
+        <v>0.9017553237961516</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3798449612403101</v>
+        <v>0.237037037037037</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1301312260243992</v>
+        <v>0.3526738543472408</v>
       </c>
       <c r="S7" t="n">
-        <v>0.715113515807946</v>
+        <v>0.9495285649116946</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>333</v>
+        <v>616</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1429</v>
+        <v>1244</v>
       </c>
       <c r="B8" t="n">
-        <v>1472</v>
+        <v>1293</v>
       </c>
       <c r="C8" t="n">
-        <v>1608</v>
+        <v>1434</v>
       </c>
       <c r="D8" t="n">
-        <v>1.643972617833326</v>
+        <v>2.527432017873521</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9103220382482431</v>
+        <v>1.803409354926052</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.733650579585083</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G8" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H8" t="n">
-        <v>50.28428702414317</v>
+        <v>77.15451441099253</v>
       </c>
       <c r="I8" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J8" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K8" t="n">
-        <v>162.9609310606314</v>
+        <v>279.7435508644357</v>
       </c>
       <c r="L8" t="n">
-        <v>7.792719160356289</v>
+        <v>11.81286339497742</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8980573685862711</v>
+        <v>0.8255824611642315</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3161764705882353</v>
+        <v>0.3475177304964539</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2471217909750219</v>
+        <v>0.2209328665821141</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8506780476530382</v>
+        <v>0.7225914483938709</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>334</v>
+        <v>617</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>679</v>
+        <v>1434</v>
       </c>
       <c r="B9" t="n">
-        <v>723</v>
+        <v>1469</v>
       </c>
       <c r="C9" t="n">
-        <v>866</v>
+        <v>1613</v>
       </c>
       <c r="D9" t="n">
-        <v>3.379080764078136</v>
+        <v>1.704908343464999</v>
       </c>
       <c r="E9" t="n">
-        <v>2.510284326800449</v>
+        <v>0.9808856805175296</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8687964372776864</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G9" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H9" t="n">
-        <v>155.995373582201</v>
+        <v>52.10824108266047</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" t="n">
-        <v>446.0145079735688</v>
+        <v>163.766089788962</v>
       </c>
       <c r="L9" t="n">
-        <v>12.00753572270637</v>
+        <v>7.968502899339755</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9128720032441834</v>
+        <v>0.8931365062188628</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2725979181574574</v>
+        <v>0.2711235576062592</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9701918361621413</v>
+        <v>0.8066198864422596</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>335</v>
+        <v>618</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>866</v>
+        <v>1613</v>
       </c>
       <c r="B10" t="n">
-        <v>907</v>
+        <v>1646</v>
       </c>
       <c r="C10" t="n">
-        <v>1073</v>
+        <v>1784</v>
       </c>
       <c r="D10" t="n">
-        <v>2.204940981073154</v>
+        <v>2.471470320386824</v>
       </c>
       <c r="E10" t="n">
-        <v>1.336144543795467</v>
+        <v>1.747447657439355</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8687964372776864</v>
+        <v>-0.7240226629474696</v>
       </c>
       <c r="G10" t="n">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="H10" t="n">
-        <v>53.02541228779057</v>
+        <v>116.7000432754469</v>
       </c>
       <c r="I10" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="K10" t="n">
-        <v>264.175991844703</v>
+        <v>284.0455695820237</v>
       </c>
       <c r="L10" t="n">
-        <v>7.835239653976767</v>
+        <v>11.55130625591831</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9136714902995918</v>
+        <v>0.876592807079992</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2469879518072289</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3981562050213019</v>
+        <v>0.2488434566302616</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9719256822300177</v>
+        <v>0.7948006779168988</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>336</v>
+        <v>619</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1371</v>
+        <v>681</v>
       </c>
       <c r="B11" t="n">
-        <v>1407</v>
+        <v>719</v>
       </c>
       <c r="C11" t="n">
-        <v>1515</v>
+        <v>871</v>
       </c>
       <c r="D11" t="n">
-        <v>1.929558316910752</v>
+        <v>3.423352352916209</v>
       </c>
       <c r="E11" t="n">
-        <v>1.060761879633065</v>
+        <v>2.557471824280273</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8687964372776864</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G11" t="n">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="H11" t="n">
-        <v>29.82256960179529</v>
+        <v>158.0517991510003</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="K11" t="n">
-        <v>199.9079167871408</v>
+        <v>453.6545491476854</v>
       </c>
       <c r="L11" t="n">
-        <v>6.856669620227898</v>
+        <v>12.26702108802475</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.6991183785062471</v>
+        <v>0.9110465959597112</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1873099812056149</v>
+        <v>0.2594056715352289</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2932080669562008</v>
+        <v>0.9669427489884228</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>337</v>
+        <v>620</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1515</v>
+        <v>871</v>
       </c>
       <c r="B12" t="n">
-        <v>1556</v>
+        <v>901</v>
       </c>
       <c r="C12" t="n">
-        <v>1913</v>
+        <v>1081</v>
       </c>
       <c r="D12" t="n">
-        <v>2.896247576584726</v>
+        <v>2.237580186007775</v>
       </c>
       <c r="E12" t="n">
-        <v>2.02745113930704</v>
+        <v>1.37169965737184</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8687964372776864</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G12" t="n">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="H12" t="n">
-        <v>144.3507507879133</v>
+        <v>53.97983064593291</v>
       </c>
       <c r="I12" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>357</v>
+        <v>180</v>
       </c>
       <c r="K12" t="n">
-        <v>501.1800343726214</v>
+        <v>259.4401870066679</v>
       </c>
       <c r="L12" t="n">
-        <v>10.29179195932314</v>
+        <v>8.018001215832067</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.896727591165995</v>
+        <v>0.8748905654436586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1148459383753501</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4321594138864475</v>
+        <v>0.3928092164496131</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9332549632157041</v>
+        <v>0.9703812956665011</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>338</v>
+        <v>621</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1209</v>
+        <v>1081</v>
       </c>
       <c r="B13" t="n">
-        <v>1253</v>
+        <v>1207</v>
       </c>
       <c r="C13" t="n">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D13" t="n">
-        <v>3.061934508766049</v>
+        <v>2.062661192575219</v>
       </c>
       <c r="E13" t="n">
-        <v>2.27146769745361</v>
+        <v>1.196780663939284</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7904668113124392</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G13" t="n">
+        <v>295</v>
+      </c>
+      <c r="H13" t="n">
+        <v>132.8591155263773</v>
+      </c>
+      <c r="I13" t="n">
+        <v>126</v>
+      </c>
+      <c r="J13" t="n">
         <v>169</v>
       </c>
-      <c r="H13" t="n">
-        <v>82.79625199864518</v>
-      </c>
-      <c r="I13" t="n">
-        <v>44</v>
-      </c>
-      <c r="J13" t="n">
-        <v>125</v>
-      </c>
       <c r="K13" t="n">
-        <v>408.6447070671113</v>
+        <v>401.7370876384157</v>
       </c>
       <c r="L13" t="n">
-        <v>21.76365425841407</v>
+        <v>7.391207722224736</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7522170286797318</v>
+        <v>0.6194759918484534</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.352</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03010426172545177</v>
+        <v>0.2142122728882514</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9731467985216961</v>
+        <v>0.9402755421737701</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>339</v>
+        <v>622</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1378</v>
+        <v>1516</v>
       </c>
       <c r="B14" t="n">
-        <v>1430</v>
+        <v>1551</v>
       </c>
       <c r="C14" t="n">
-        <v>1663</v>
+        <v>1916</v>
       </c>
       <c r="D14" t="n">
-        <v>3.161755764751425</v>
+        <v>2.944076286108308</v>
       </c>
       <c r="E14" t="n">
-        <v>2.371288953438985</v>
+        <v>2.078195757472372</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7904668113124392</v>
+        <v>-0.8658805286359352</v>
       </c>
       <c r="G14" t="n">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="H14" t="n">
-        <v>172.9124800520276</v>
+        <v>141.9329607261307</v>
       </c>
       <c r="I14" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J14" t="n">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="K14" t="n">
-        <v>569.6992393737198</v>
+        <v>498.5975742159947</v>
       </c>
       <c r="L14" t="n">
-        <v>22.47316496045121</v>
+        <v>10.5496139933359</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.9089616256114554</v>
+        <v>0.8826517361150935</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2231759656652361</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2255406861520406</v>
+        <v>0.4024873939427381</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9466718611118496</v>
+        <v>0.9197270842079585</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>340</v>
+        <v>623</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1750</v>
+        <v>1101</v>
       </c>
       <c r="B15" t="n">
-        <v>1795</v>
+        <v>1157</v>
       </c>
       <c r="C15" t="n">
-        <v>2004</v>
+        <v>1310</v>
       </c>
       <c r="D15" t="n">
-        <v>2.219660430710547</v>
+        <v>4.39637185504963</v>
       </c>
       <c r="E15" t="n">
-        <v>1.429193619398108</v>
+        <v>3.907298680324034</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7904668113124392</v>
+        <v>-0.4890731747255965</v>
       </c>
       <c r="G15" t="n">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="H15" t="n">
-        <v>116.5686824730105</v>
+        <v>161.4595692846931</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J15" t="n">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4332760388857</v>
+        <v>582.5502055161577</v>
       </c>
       <c r="L15" t="n">
-        <v>15.77692862037561</v>
+        <v>27.61389985317856</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.9131032709659835</v>
+        <v>0.8051447224463592</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.215311004784689</v>
+        <v>0.3660130718954248</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2214645881105819</v>
+        <v>0.2736437075152003</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8716441876259529</v>
+        <v>0.9850868821969979</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>341</v>
+        <v>624</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1870</v>
+        <v>1213</v>
       </c>
       <c r="B16" t="n">
-        <v>1897</v>
+        <v>1248</v>
       </c>
       <c r="C16" t="n">
-        <v>2004</v>
+        <v>1360</v>
       </c>
       <c r="D16" t="n">
-        <v>2.874520268349837</v>
+        <v>3.043514027953424</v>
       </c>
       <c r="E16" t="n">
-        <v>2.37542747654331</v>
+        <v>2.258924604258194</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.499092791806527</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G16" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H16" t="n">
-        <v>21.20612729216396</v>
+        <v>83.41101604828805</v>
       </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K16" t="n">
-        <v>396.0478318653305</v>
+        <v>367.0262072503596</v>
       </c>
       <c r="L16" t="n">
-        <v>10.03965015566463</v>
+        <v>21.72796901231914</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.777550750158214</v>
+        <v>0.7792994362029558</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2523364485981308</v>
+        <v>0.3125</v>
       </c>
       <c r="R16" t="n">
-        <v>1.049176897337541</v>
+        <v>0.06671309566220909</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5562422450219211</v>
+        <v>0.9125248307005746</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>342</v>
+        <v>625</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,73 +1847,73 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="B17" t="n">
-        <v>146</v>
+        <v>1424</v>
       </c>
       <c r="C17" t="n">
-        <v>339</v>
+        <v>1669</v>
       </c>
       <c r="D17" t="n">
-        <v>2.860356408494034</v>
+        <v>3.15387616579282</v>
       </c>
       <c r="E17" t="n">
-        <v>2.29196339212793</v>
+        <v>2.36928674209759</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5683930163661043</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G17" t="n">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H17" t="n">
-        <v>82.06653490634604</v>
+        <v>182.816659559016</v>
       </c>
       <c r="I17" t="n">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="J17" t="n">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="K17" t="n">
-        <v>546.5137297607276</v>
+        <v>606.8167567719595</v>
       </c>
       <c r="L17" t="n">
-        <v>5.709210867226522</v>
+        <v>22.51585600383078</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(50), 'value': np.float64(2.0515901007034474), 'amplitude': np.float64(2.619983117069552), 'start_idx': np.int64(11), 'end_idx': np.int64(105), 'duration': np.float64(94.0), 'fwhm': np.float64(43.490805709300176), 'rise_time': np.float64(39.0), 'decay_time': np.float64(55.0), 'auc': np.float64(176.49362336373588)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.5764255849085093</v>
+        <v>0.7459617678133704</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7564766839378239</v>
+        <v>0.2612244897959184</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3766117388944773</v>
+        <v>0.1454799381145934</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9454002629200047</v>
+        <v>0.9473380760655824</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>343</v>
+        <v>626</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>105</v>
+        <v>1669</v>
       </c>
       <c r="B18" t="n">
-        <v>147</v>
+        <v>1699</v>
       </c>
       <c r="C18" t="n">
-        <v>339</v>
+        <v>1755</v>
       </c>
       <c r="D18" t="n">
-        <v>2.730435406059347</v>
+        <v>1.327654063761706</v>
       </c>
       <c r="E18" t="n">
-        <v>2.134575376273284</v>
+        <v>0.5430646400664763</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.595860029786063</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G18" t="n">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="H18" t="n">
-        <v>68.3523061966257</v>
+        <v>55.28684987611268</v>
       </c>
       <c r="I18" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
-        <v>311.9629438571993</v>
+        <v>98.33543729134189</v>
       </c>
       <c r="L18" t="n">
-        <v>6.136711173091525</v>
+        <v>9.478262985333412</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.9065788076172691</v>
+        <v>0.6491274797867992</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.21875</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3706360960541267</v>
+        <v>0.05303746412367299</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9215221559889976</v>
+        <v>0.8449908563614108</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>344</v>
+        <v>627</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>339</v>
+        <v>1755</v>
       </c>
       <c r="B19" t="n">
-        <v>382</v>
+        <v>1789</v>
       </c>
       <c r="C19" t="n">
-        <v>500</v>
+        <v>1842</v>
       </c>
       <c r="D19" t="n">
-        <v>2.559430034712746</v>
+        <v>2.236639361949099</v>
       </c>
       <c r="E19" t="n">
-        <v>1.963570004926683</v>
+        <v>1.452049938253869</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.595860029786063</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G19" t="n">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="H19" t="n">
-        <v>52.02923035611525</v>
+        <v>115.9883731371906</v>
       </c>
       <c r="I19" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="K19" t="n">
-        <v>214.8433686787364</v>
+        <v>153.0642133633184</v>
       </c>
       <c r="L19" t="n">
-        <v>5.752372993666913</v>
+        <v>15.96760530814514</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9038852575898118</v>
+        <v>0.7768546309385732</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3644067796610169</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2409804022091483</v>
+        <v>0.2274554870292336</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8902337414883555</v>
+        <v>0.9973809090287205</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>345</v>
+        <v>628</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1715</v>
+        <v>1842</v>
       </c>
       <c r="B20" t="n">
-        <v>1753</v>
+        <v>1870</v>
       </c>
       <c r="C20" t="n">
-        <v>1915</v>
+        <v>2004</v>
       </c>
       <c r="D20" t="n">
-        <v>3.709083482531695</v>
+        <v>1.802106691558533</v>
       </c>
       <c r="E20" t="n">
-        <v>3.185571871415366</v>
+        <v>1.017517267863303</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5235116111163295</v>
+        <v>-0.7845894236952298</v>
       </c>
       <c r="G20" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="H20" t="n">
-        <v>76.32959869558181</v>
+        <v>22.64007439426905</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="K20" t="n">
-        <v>365.8716276148285</v>
+        <v>164.9630560578505</v>
       </c>
       <c r="L20" t="n">
-        <v>14.90671041194609</v>
+        <v>12.86543054884714</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.9334508934703396</v>
+        <v>0.7958101476635435</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2345679012345679</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2750471804975065</v>
+        <v>0.474403193073806</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8139936629407291</v>
+        <v>0.7707760988188312</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>346</v>
+        <v>629</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>42</v>
+      </c>
+      <c r="C21" t="n">
         <v>181</v>
       </c>
-      <c r="B21" t="n">
-        <v>221</v>
-      </c>
-      <c r="C21" t="n">
-        <v>380</v>
-      </c>
       <c r="D21" t="n">
-        <v>5.034895655106941</v>
+        <v>2.760789570489479</v>
       </c>
       <c r="E21" t="n">
-        <v>4.601464789845753</v>
+        <v>2.194538913146322</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4334308652611879</v>
+        <v>-0.5662506573431567</v>
       </c>
       <c r="G21" t="n">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H21" t="n">
-        <v>141.120245913971</v>
+        <v>69.06003989984296</v>
       </c>
       <c r="I21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J21" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K21" t="n">
-        <v>558.0012089091449</v>
+        <v>253.9983119211734</v>
       </c>
       <c r="L21" t="n">
-        <v>23.16150741403462</v>
+        <v>5.379204137976466</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8971064391010848</v>
+        <v>0.8147886794296633</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2515723270440252</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2342871920517896</v>
+        <v>0.1590017044071946</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8676068544699677</v>
+        <v>0.9130643619816364</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>347</v>
+        <v>630</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>801</v>
+        <v>180</v>
       </c>
       <c r="D22" t="n">
-        <v>4.343029632258974</v>
+        <v>2.298847961269556</v>
       </c>
       <c r="E22" t="n">
-        <v>3.940763324309209</v>
+        <v>1.614204859947049</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4022663079497646</v>
+        <v>-0.6846431013225069</v>
       </c>
       <c r="G22" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="H22" t="n">
-        <v>108.241970691318</v>
+        <v>77.14613696915063</v>
       </c>
       <c r="I22" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J22" t="n">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="K22" t="n">
-        <v>593.5620273065113</v>
+        <v>209.0101730808656</v>
       </c>
       <c r="L22" t="n">
-        <v>9.555308845842285</v>
+        <v>5.642135534529539</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8322850173711778</v>
+        <v>0.815347121689163</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1225071225071225</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="R22" t="n">
-        <v>0.371905958514048</v>
+        <v>0.2279248253455719</v>
       </c>
       <c r="S22" t="n">
-        <v>0.821151247251582</v>
+        <v>0.9504737602601938</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>348</v>
+        <v>631</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1928</v>
+        <v>1591</v>
       </c>
       <c r="B23" t="n">
-        <v>1959</v>
+        <v>1625</v>
       </c>
       <c r="C23" t="n">
-        <v>2004</v>
+        <v>1668</v>
       </c>
       <c r="D23" t="n">
-        <v>2.851646597476265</v>
+        <v>3.114265496946961</v>
       </c>
       <c r="E23" t="n">
-        <v>2.35882332136136</v>
+        <v>2.429622395624453</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4928232761149053</v>
+        <v>-0.6846431013225069</v>
       </c>
       <c r="G23" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="n">
-        <v>36.68730324965304</v>
+        <v>237.404704631693</v>
       </c>
       <c r="I23" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23" t="n">
-        <v>152.5367652674293</v>
+        <v>187.588658527975</v>
       </c>
       <c r="L23" t="n">
-        <v>11.62838200318551</v>
+        <v>7.643440679991715</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8093688543349484</v>
+        <v>0.6905030933240612</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3592976463612396</v>
+        <v>0.1775304046171119</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9816316969756504</v>
+        <v>0.9846327858797386</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>349</v>
+        <v>632</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>33</v>
+        <v>1668</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>1698</v>
       </c>
       <c r="C24" t="n">
-        <v>144</v>
+        <v>1755</v>
       </c>
       <c r="D24" t="n">
-        <v>1.716615483437878</v>
+        <v>2.897428872312324</v>
       </c>
       <c r="E24" t="n">
-        <v>1.261930327917641</v>
+        <v>2.212785770989818</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4546851555202376</v>
+        <v>-0.6846431013225069</v>
       </c>
       <c r="G24" t="n">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H24" t="n">
-        <v>53.30779338691345</v>
+        <v>35.2609907212202</v>
       </c>
       <c r="I24" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9148422169146</v>
+        <v>205.0720441383154</v>
       </c>
       <c r="L24" t="n">
-        <v>6.476862915813149</v>
+        <v>7.11125166808208</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8475522135036244</v>
+        <v>0.7655423309610635</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2165992521021111</v>
+        <v>0.09508265557428126</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9089282386148388</v>
+        <v>0.983470866078311</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>350</v>
+        <v>633</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1848</v>
+        <v>375</v>
       </c>
       <c r="B25" t="n">
-        <v>1879</v>
+        <v>444</v>
       </c>
       <c r="C25" t="n">
-        <v>2004</v>
+        <v>619</v>
       </c>
       <c r="D25" t="n">
-        <v>1.802167749417103</v>
+        <v>3.31746661837012</v>
       </c>
       <c r="E25" t="n">
-        <v>1.347482593896865</v>
+        <v>2.808682221619613</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4546851555202376</v>
+        <v>-0.5087843967505074</v>
       </c>
       <c r="G25" t="n">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="H25" t="n">
-        <v>46.75431177517044</v>
+        <v>88.14774502037676</v>
       </c>
       <c r="I25" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="J25" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="K25" t="n">
-        <v>108.136028569062</v>
+        <v>323.3775108574598</v>
       </c>
       <c r="L25" t="n">
-        <v>6.799655238398344</v>
+        <v>11.43046104578021</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8322697564513517</v>
+        <v>0.754941599876207</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.248</v>
+        <v>0.3942857142857143</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4804339758835656</v>
+        <v>0.3863587801835593</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4985440520052374</v>
+        <v>0.8657224928345054</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>351</v>
+        <v>634</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>660</v>
+        <v>619</v>
       </c>
       <c r="B26" t="n">
-        <v>696</v>
+        <v>645</v>
       </c>
       <c r="C26" t="n">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D26" t="n">
-        <v>3.051889702919867</v>
+        <v>1.546951697917653</v>
       </c>
       <c r="E26" t="n">
-        <v>2.467489500048536</v>
+        <v>1.038167301167145</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5844002028713315</v>
+        <v>-0.5087843967505074</v>
       </c>
       <c r="G26" t="n">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="H26" t="n">
-        <v>82.88961312309118</v>
+        <v>26.30683310870904</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="K26" t="n">
-        <v>287.2111506485314</v>
+        <v>97.29375526295696</v>
       </c>
       <c r="L26" t="n">
-        <v>11.59792870839001</v>
+        <v>5.33008260726333</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.7289000340331406</v>
+        <v>0.7096981437275323</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.1721854304635762</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08791767734615877</v>
+        <v>0.5978909592402115</v>
       </c>
       <c r="S26" t="n">
-        <v>0.7885493522194147</v>
+        <v>0.4432186134278896</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>352</v>
+        <v>635</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>790</v>
+        <v>1873</v>
       </c>
       <c r="B27" t="n">
-        <v>832</v>
+        <v>1896</v>
       </c>
       <c r="C27" t="n">
-        <v>1026</v>
+        <v>2004</v>
       </c>
       <c r="D27" t="n">
-        <v>1.903759269687217</v>
+        <v>3.541261360041537</v>
       </c>
       <c r="E27" t="n">
-        <v>1.319359066815885</v>
+        <v>3.03247696329103</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5844002028713315</v>
+        <v>-0.5087843967505074</v>
       </c>
       <c r="G27" t="n">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="H27" t="n">
-        <v>96.24937333505</v>
+        <v>20.27143001186482</v>
       </c>
       <c r="I27" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J27" t="n">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="K27" t="n">
-        <v>294.3703052629012</v>
+        <v>398.259662566398</v>
       </c>
       <c r="L27" t="n">
-        <v>7.23475172338124</v>
+        <v>12.20155458527823</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9264095306854944</v>
+        <v>0.7180654774802228</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2164948453608248</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2093712070748438</v>
+        <v>0.9858434164442961</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9033819799391403</v>
+        <v>0.3834126856632329</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>353</v>
+        <v>636</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>599</v>
+        <v>1873</v>
       </c>
       <c r="B28" t="n">
-        <v>677</v>
+        <v>1927</v>
       </c>
       <c r="C28" t="n">
-        <v>892</v>
+        <v>2004</v>
       </c>
       <c r="D28" t="n">
-        <v>4.653547138323847</v>
+        <v>2.985300409537721</v>
       </c>
       <c r="E28" t="n">
-        <v>4.171643065471283</v>
+        <v>2.405849813263977</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4819040728525643</v>
+        <v>-0.5794505962737432</v>
       </c>
       <c r="G28" t="n">
-        <v>293</v>
+        <v>131</v>
       </c>
       <c r="H28" t="n">
-        <v>100.3222071354816</v>
+        <v>32.03158366906928</v>
       </c>
       <c r="I28" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J28" t="n">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="K28" t="n">
-        <v>533.0192445347866</v>
+        <v>240.1127774462321</v>
       </c>
       <c r="L28" t="n">
-        <v>52.38947185937456</v>
+        <v>10.99543213048141</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8555908355529052</v>
+        <v>0.7658078452431333</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3627906976744186</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5351430924089354</v>
+        <v>0.3635103198122602</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9819731318427403</v>
+        <v>0.9705371002440533</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>354</v>
+        <v>637</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1885</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1923</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>2004</v>
+        <v>112</v>
       </c>
       <c r="D29" t="n">
-        <v>3.941048195306467</v>
+        <v>2.692952656022869</v>
       </c>
       <c r="E29" t="n">
-        <v>3.459144122453903</v>
+        <v>2.096113453076467</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4819040728525643</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G29" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H29" t="n">
-        <v>37.00741321423357</v>
+        <v>43.67972564548982</v>
       </c>
       <c r="I29" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K29" t="n">
-        <v>306.0276034139621</v>
+        <v>202.8921172485668</v>
       </c>
       <c r="L29" t="n">
-        <v>44.36818353554164</v>
+        <v>5.37778599795856</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.860591404941381</v>
+        <v>0.661087726631203</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4691358024691358</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3917252949826067</v>
+        <v>0.2061167942642285</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9237251269827369</v>
+        <v>0.9741346369806713</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>355</v>
+        <v>638</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>620</v>
+        <v>112</v>
       </c>
       <c r="B30" t="n">
-        <v>660</v>
+        <v>140</v>
       </c>
       <c r="C30" t="n">
-        <v>825</v>
+        <v>344</v>
       </c>
       <c r="D30" t="n">
-        <v>1.21360250577401</v>
+        <v>3.21063025717086</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7617442865955328</v>
+        <v>2.613791054224458</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4518582191784771</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G30" t="n">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="H30" t="n">
-        <v>36.55992749923382</v>
+        <v>76.05361787776552</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J30" t="n">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="K30" t="n">
-        <v>100.764216197138</v>
+        <v>357.6394250450858</v>
       </c>
       <c r="L30" t="n">
-        <v>5.653530837334775</v>
+        <v>6.41158039040138</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7771444351499267</v>
+        <v>0.884820664305445</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4919733566272639</v>
+        <v>0.3409171308997693</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5386972519453737</v>
+        <v>0.9117165465933594</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>356</v>
+        <v>639</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>993</v>
+        <v>344</v>
       </c>
       <c r="B31" t="n">
-        <v>1040</v>
+        <v>375</v>
       </c>
       <c r="C31" t="n">
-        <v>1133</v>
+        <v>506</v>
       </c>
       <c r="D31" t="n">
-        <v>3.16257920596371</v>
+        <v>2.504052653551213</v>
       </c>
       <c r="E31" t="n">
-        <v>2.58472976509564</v>
+        <v>1.907213450604811</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5778494408680694</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G31" t="n">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H31" t="n">
-        <v>52.99584534568896</v>
+        <v>55.55271739175743</v>
       </c>
       <c r="I31" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="K31" t="n">
-        <v>267.2917933856664</v>
+        <v>210.7031951550128</v>
       </c>
       <c r="L31" t="n">
-        <v>9.450299945448823</v>
+        <v>5.000555530859779</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8890645009388576</v>
+        <v>0.9384773749935098</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2798327575544371</v>
+        <v>0.2160796979052974</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9697565438358428</v>
+        <v>0.9286681400567245</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>357</v>
+        <v>640</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,73 +3137,73 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1196</v>
+        <v>506</v>
       </c>
       <c r="B32" t="n">
-        <v>1230</v>
+        <v>542</v>
       </c>
       <c r="C32" t="n">
-        <v>1359</v>
+        <v>621</v>
       </c>
       <c r="D32" t="n">
-        <v>2.734979862114164</v>
+        <v>2.67607661596277</v>
       </c>
       <c r="E32" t="n">
-        <v>2.45764815277668</v>
+        <v>2.079237413016368</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.277331709337484</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G32" t="n">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="H32" t="n">
-        <v>87.47571911518094</v>
+        <v>65.32020595035294</v>
       </c>
       <c r="I32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J32" t="n">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="K32" t="n">
-        <v>212.3941705082656</v>
+        <v>186.9846181597455</v>
       </c>
       <c r="L32" t="n">
-        <v>9.037582482504666</v>
+        <v>5.344084799486611</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1321), 'value': np.float64(1.3562892876521724), 'amplitude': np.float64(1.6336209969896565), 'start_idx': np.int64(1302), 'end_idx': np.int64(1339), 'duration': np.float64(37.0), 'fwhm': np.float64(19.696170406821693), 'rise_time': np.float64(19.0), 'decay_time': np.float64(18.0), 'auc': np.float64(43.173492365017474)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.8503257309754962</v>
+        <v>0.808715530744695</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2635658914728682</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3957691310635585</v>
+        <v>0.1558013757272599</v>
       </c>
       <c r="S32" t="n">
-        <v>0.542873385356974</v>
+        <v>0.9754540254376868</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>358</v>
+        <v>641</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>1668</v>
+        <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>1884</v>
+        <v>112</v>
       </c>
       <c r="D33" t="n">
-        <v>4.648666891854217</v>
+        <v>2.878625011281881</v>
       </c>
       <c r="E33" t="n">
-        <v>4.170005131550597</v>
+        <v>2.251026329371547</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.47866176030362</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G33" t="n">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="H33" t="n">
-        <v>126.2428768927489</v>
+        <v>43.02192541732223</v>
       </c>
       <c r="I33" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="J33" t="n">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="K33" t="n">
-        <v>649.7423815239018</v>
+        <v>200.6421410166673</v>
       </c>
       <c r="L33" t="n">
-        <v>26.56391605437462</v>
+        <v>6.443060240674265</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8882910561767214</v>
+        <v>0.6405164608035891</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.375</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3982836965407058</v>
+        <v>0.1547059161036433</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9720159658472795</v>
+        <v>0.9876320464899817</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>359</v>
+        <v>642</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1697</v>
+        <v>112</v>
       </c>
       <c r="B34" t="n">
-        <v>1795</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n">
-        <v>2004</v>
+        <v>343</v>
       </c>
       <c r="D34" t="n">
-        <v>3.490109322372116</v>
+        <v>2.91298323404332</v>
       </c>
       <c r="E34" t="n">
-        <v>3.001677791047392</v>
+        <v>2.285384552132986</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4884315313247245</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G34" t="n">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2097865974818</v>
+        <v>68.68191737109885</v>
       </c>
       <c r="I34" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="J34" t="n">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>542.3147437069911</v>
+        <v>313.6094126992961</v>
       </c>
       <c r="L34" t="n">
-        <v>13.13599030450597</v>
+        <v>6.519962267908398</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.748540696820938</v>
+        <v>0.8712638636056869</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4688995215311005</v>
+        <v>0.155</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3488023450321444</v>
+        <v>0.3850201611434092</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7455508835634908</v>
+        <v>0.8838435911823196</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>360</v>
+        <v>643</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,73 +3395,73 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1545</v>
+        <v>343</v>
       </c>
       <c r="B35" t="n">
-        <v>1584</v>
+        <v>377</v>
       </c>
       <c r="C35" t="n">
-        <v>1899</v>
+        <v>506</v>
       </c>
       <c r="D35" t="n">
-        <v>2.682455850363445</v>
+        <v>2.678858252591248</v>
       </c>
       <c r="E35" t="n">
-        <v>2.168480476931324</v>
+        <v>2.051259570680914</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5139753734321221</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G35" t="n">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6542737367943</v>
+        <v>50.06899102841885</v>
       </c>
       <c r="I35" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="K35" t="n">
-        <v>429.7242080980035</v>
+        <v>222.7463471859397</v>
       </c>
       <c r="L35" t="n">
-        <v>9.718466438599579</v>
+        <v>5.995933833002699</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1819), 'value': np.float64(0.7640791015172778), 'amplitude': np.float64(1.2780544749493998), 'start_idx': np.int64(1783), 'end_idx': np.int64(1857), 'duration': np.float64(74.0), 'fwhm': np.float64(39.10213435434548), 'rise_time': np.float64(36.0), 'decay_time': np.float64(38.0), 'auc': np.float64(53.40711271859345)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7881061372008192</v>
+        <v>0.9261588550100549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1238095238095238</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4477666221676991</v>
+        <v>0.2786958456849812</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6905965906471048</v>
+        <v>0.8706460052479255</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>361</v>
+        <v>644</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1657</v>
+        <v>506</v>
       </c>
       <c r="B36" t="n">
-        <v>1718</v>
+        <v>541</v>
       </c>
       <c r="C36" t="n">
-        <v>2004</v>
+        <v>621</v>
       </c>
       <c r="D36" t="n">
-        <v>4.630731890155793</v>
+        <v>2.827449439752566</v>
       </c>
       <c r="E36" t="n">
-        <v>4.199550184029829</v>
+        <v>2.199850757842231</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4311817061259633</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G36" t="n">
-        <v>347</v>
+        <v>115</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4650604949688</v>
+        <v>79.6967104742572</v>
       </c>
       <c r="I36" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J36" t="n">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>718.1194183215249</v>
+        <v>211.1122245462066</v>
       </c>
       <c r="L36" t="n">
-        <v>28.87950570211129</v>
+        <v>6.328516912202494</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.9146884100666184</v>
+        <v>0.8028849929987129</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.2132867132867133</v>
+        <v>0.4375</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3003348982425272</v>
+        <v>0.1564375680646885</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9436490455961077</v>
+        <v>0.9701507439621394</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>362</v>
+        <v>645</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1899</v>
+        <v>1719</v>
       </c>
       <c r="B37" t="n">
-        <v>1935</v>
+        <v>1750</v>
       </c>
       <c r="C37" t="n">
-        <v>2004</v>
+        <v>1919</v>
       </c>
       <c r="D37" t="n">
-        <v>5.986849506568746</v>
+        <v>3.758663645152816</v>
       </c>
       <c r="E37" t="n">
-        <v>5.571410564403185</v>
+        <v>3.240133026758956</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4154389421655616</v>
+        <v>-0.5185306183938607</v>
       </c>
       <c r="G37" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="H37" t="n">
-        <v>37.28304787867773</v>
+        <v>79.84621846631489</v>
       </c>
       <c r="I37" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J37" t="n">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="K37" t="n">
-        <v>413.3980750096042</v>
+        <v>366.754064775015</v>
       </c>
       <c r="L37" t="n">
-        <v>30.60408746653668</v>
+        <v>14.78343222817248</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8762544799745953</v>
+        <v>0.8989651933536101</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2785233888383246</v>
+        <v>0.2890429887340603</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9860102357948261</v>
+        <v>0.7917443915697457</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>363</v>
+        <v>646</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,85 +3653,3439 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1662</v>
+        <v>1919</v>
       </c>
       <c r="B38" t="n">
-        <v>1751</v>
+        <v>1954</v>
       </c>
       <c r="C38" t="n">
         <v>2004</v>
       </c>
       <c r="D38" t="n">
-        <v>5.20860734853514</v>
+        <v>3.262146727314529</v>
       </c>
       <c r="E38" t="n">
-        <v>4.784095493531126</v>
+        <v>2.743616108920668</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.424511855004014</v>
+        <v>-0.5185306183938607</v>
       </c>
       <c r="G38" t="n">
+        <v>85</v>
+      </c>
+      <c r="H38" t="n">
+        <v>29.54968869031063</v>
+      </c>
+      <c r="I38" t="n">
+        <v>35</v>
+      </c>
+      <c r="J38" t="n">
+        <v>50</v>
+      </c>
+      <c r="K38" t="n">
+        <v>202.7780944783238</v>
+      </c>
+      <c r="L38" t="n">
+        <v>12.83055085916002</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8017754618480415</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.69859771764348</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.8985573021114487</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>647</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.003799440701242</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.496296172878124</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.5075032678231184</v>
+      </c>
+      <c r="G39" t="n">
+        <v>111</v>
+      </c>
+      <c r="H39" t="n">
+        <v>29.17074077659186</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>74</v>
+      </c>
+      <c r="K39" t="n">
+        <v>404.0592078362348</v>
+      </c>
+      <c r="L39" t="n">
+        <v>20.82665690487962</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8141336190556977</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.3556483211587025</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.875647966239723</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>648</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>64</v>
+      </c>
+      <c r="C40" t="n">
+        <v>153</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.472654668661758</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.956001106067804</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5166535625939539</v>
+      </c>
+      <c r="G40" t="n">
+        <v>153</v>
+      </c>
+      <c r="H40" t="n">
+        <v>70.70601700555568</v>
+      </c>
+      <c r="I40" t="n">
+        <v>64</v>
+      </c>
+      <c r="J40" t="n">
+        <v>89</v>
+      </c>
+      <c r="K40" t="n">
+        <v>192.4780214025189</v>
+      </c>
+      <c r="L40" t="n">
+        <v>10.05381624822352</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.6084180651893641</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7191011235955056</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.8251533438002639</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.8524515742680268</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>649</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>196</v>
+      </c>
+      <c r="B41" t="n">
+        <v>244</v>
+      </c>
+      <c r="C41" t="n">
+        <v>449</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.541547278942087</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.024893716348133</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5166535625939539</v>
+      </c>
+      <c r="G41" t="n">
+        <v>253</v>
+      </c>
+      <c r="H41" t="n">
+        <v>124.9087338242184</v>
+      </c>
+      <c r="I41" t="n">
+        <v>48</v>
+      </c>
+      <c r="J41" t="n">
+        <v>205</v>
+      </c>
+      <c r="K41" t="n">
+        <v>606.3077820042093</v>
+      </c>
+      <c r="L41" t="n">
+        <v>18.46593558081248</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.9358487697453226</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2341463414634146</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2362107421358847</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9674702889558215</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>650</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>185</v>
+      </c>
+      <c r="B42" t="n">
+        <v>217</v>
+      </c>
+      <c r="C42" t="n">
+        <v>371</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5.091708255917479</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.640043735227733</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.4516645206897454</v>
+      </c>
+      <c r="G42" t="n">
+        <v>186</v>
+      </c>
+      <c r="H42" t="n">
+        <v>139.4849536175672</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>154</v>
+      </c>
+      <c r="K42" t="n">
+        <v>552.5284497097634</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22.56070782331456</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8645073848397937</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2656525161151339</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.8324911864051716</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>651</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>371</v>
+      </c>
+      <c r="B43" t="n">
+        <v>419</v>
+      </c>
+      <c r="C43" t="n">
+        <v>578</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.247616333283599</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7959518125938532</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.4516645206897454</v>
+      </c>
+      <c r="G43" t="n">
+        <v>207</v>
+      </c>
+      <c r="H43" t="n">
+        <v>38.70116721430702</v>
+      </c>
+      <c r="I43" t="n">
+        <v>48</v>
+      </c>
+      <c r="J43" t="n">
+        <v>159</v>
+      </c>
+      <c r="K43" t="n">
+        <v>143.4201464136172</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.528028346497331</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6975427550212985</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.4277088106035989</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6362608649239797</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>652</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>773</v>
+      </c>
+      <c r="B44" t="n">
+        <v>806</v>
+      </c>
+      <c r="C44" t="n">
+        <v>915</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.477229301222915</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.873914141254486</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.603315159968428</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>109.2526474448301</v>
+      </c>
+      <c r="I44" t="n">
+        <v>33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>109</v>
+      </c>
+      <c r="K44" t="n">
+        <v>374.4079454036334</v>
+      </c>
+      <c r="L44" t="n">
+        <v>15.18886204313864</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.899973251687017</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.3027522935779817</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2425127615871322</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8844176019769031</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>653</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.522169527095681</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9188543671272531</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.603315159968428</v>
+      </c>
+      <c r="G45" t="n">
+        <v>76</v>
+      </c>
+      <c r="H45" t="n">
+        <v>24.01246205553775</v>
+      </c>
+      <c r="I45" t="n">
+        <v>28</v>
+      </c>
+      <c r="J45" t="n">
+        <v>48</v>
+      </c>
+      <c r="K45" t="n">
+        <v>93.23558903471029</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5.163913080576611</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.5791245894294825</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1561945166421687</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.4060685210543276</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>654</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.889611007343383</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.391007032006666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.4986039753367162</v>
+      </c>
+      <c r="G46" t="n">
+        <v>73</v>
+      </c>
+      <c r="H46" t="n">
+        <v>52.81065935206334</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>51</v>
+      </c>
+      <c r="K46" t="n">
+        <v>156.2268891568433</v>
+      </c>
+      <c r="L46" t="n">
+        <v>11.11338103693129</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8170424799428941</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3305373209421826</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.7702965302759285</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>655</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>152</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.802000465531419</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.329414799711904</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.4725856658195143</v>
+      </c>
+      <c r="G47" t="n">
+        <v>116</v>
+      </c>
+      <c r="H47" t="n">
+        <v>53.45972126921392</v>
+      </c>
+      <c r="I47" t="n">
+        <v>28</v>
+      </c>
+      <c r="J47" t="n">
+        <v>88</v>
+      </c>
+      <c r="K47" t="n">
+        <v>117.2031381667733</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.66071847271104</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.9274957726646927</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.24215802882815</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8783574777377241</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>656</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>196</v>
+      </c>
+      <c r="B48" t="n">
+        <v>250</v>
+      </c>
+      <c r="C48" t="n">
+        <v>430</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.534816851429951</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.062231185610436</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.4725856658195143</v>
+      </c>
+      <c r="G48" t="n">
+        <v>234</v>
+      </c>
+      <c r="H48" t="n">
+        <v>124.6786201519257</v>
+      </c>
+      <c r="I48" t="n">
+        <v>54</v>
+      </c>
+      <c r="J48" t="n">
+        <v>180</v>
+      </c>
+      <c r="K48" t="n">
+        <v>587.90127881596</v>
+      </c>
+      <c r="L48" t="n">
+        <v>16.76200364563898</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.9461589817488709</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.251648587830515</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9844721246602143</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>657</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.818479945336677</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.345894279517163</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.4725856658195143</v>
+      </c>
+      <c r="G49" t="n">
+        <v>155</v>
+      </c>
+      <c r="H49" t="n">
+        <v>48.31993121053279</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26</v>
+      </c>
+      <c r="J49" t="n">
+        <v>129</v>
+      </c>
+      <c r="K49" t="n">
+        <v>112.4227186878277</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.721631428983326</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8199332978686892</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.2015503875968992</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4799842430104975</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.521181214794793</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>658</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>415</v>
+      </c>
+      <c r="B50" t="n">
+        <v>445</v>
+      </c>
+      <c r="C50" t="n">
+        <v>669</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.374863142727157</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.885386275428173</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.4894768672989838</v>
+      </c>
+      <c r="G50" t="n">
+        <v>254</v>
+      </c>
+      <c r="H50" t="n">
+        <v>203.2882931788763</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>224</v>
+      </c>
+      <c r="K50" t="n">
+        <v>677.7097675910154</v>
+      </c>
+      <c r="L50" t="n">
+        <v>20.67588537827696</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8000747884967236</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.1339285714285714</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.189191415929751</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8311131872101765</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>659</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>669</v>
+      </c>
+      <c r="B51" t="n">
+        <v>697</v>
+      </c>
+      <c r="C51" t="n">
+        <v>800</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.058224023737115</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5687471564381311</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.4894768672989838</v>
+      </c>
+      <c r="G51" t="n">
+        <v>131</v>
+      </c>
+      <c r="H51" t="n">
+        <v>21.23135230069681</v>
+      </c>
+      <c r="I51" t="n">
+        <v>28</v>
+      </c>
+      <c r="J51" t="n">
+        <v>103</v>
+      </c>
+      <c r="K51" t="n">
+        <v>92.8984517104377</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.001234988504915</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.7966316637865257</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2718446601941747</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2105223433602831</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.6271152596481475</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>660</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>718</v>
+      </c>
+      <c r="B52" t="n">
+        <v>743</v>
+      </c>
+      <c r="C52" t="n">
+        <v>788</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.798659419808225</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.212420533800553</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5862388860076716</v>
+      </c>
+      <c r="G52" t="n">
+        <v>70</v>
+      </c>
+      <c r="H52" t="n">
+        <v>19.98321968690391</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>45</v>
+      </c>
+      <c r="K52" t="n">
+        <v>144.0481243541809</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10.28144816787799</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8299342010858213</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3070074812047121</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9808986862558754</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>661</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>788</v>
+      </c>
+      <c r="B53" t="n">
+        <v>822</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.843670393183632</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.25743150717596</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5862388860076716</v>
+      </c>
+      <c r="G53" t="n">
+        <v>241</v>
+      </c>
+      <c r="H53" t="n">
+        <v>100.8529753852183</v>
+      </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>207</v>
+      </c>
+      <c r="K53" t="n">
+        <v>298.4981051226471</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.773100525203476</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8316882459383566</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.1642512077294686</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.15551529450938</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.823429221213636</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>662</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>605</v>
+      </c>
+      <c r="B54" t="n">
+        <v>675</v>
+      </c>
+      <c r="C54" t="n">
+        <v>886</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.770312090474881</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.290929952653066</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.4793821378218157</v>
+      </c>
+      <c r="G54" t="n">
+        <v>281</v>
+      </c>
+      <c r="H54" t="n">
+        <v>96.78718652152395</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70</v>
+      </c>
+      <c r="J54" t="n">
+        <v>211</v>
+      </c>
+      <c r="K54" t="n">
+        <v>528.4936514001325</v>
+      </c>
+      <c r="L54" t="n">
+        <v>53.17747422713983</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.9091893802065748</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3317535545023697</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.5487232762367388</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.972137146910528</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>663</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>886</v>
+      </c>
+      <c r="B55" t="n">
+        <v>932</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.805876212456331</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3264940746345154</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4793821378218157</v>
+      </c>
+      <c r="G55" t="n">
+        <v>130</v>
+      </c>
+      <c r="H55" t="n">
+        <v>51.52726992069881</v>
+      </c>
+      <c r="I55" t="n">
+        <v>46</v>
+      </c>
+      <c r="J55" t="n">
+        <v>84</v>
+      </c>
+      <c r="K55" t="n">
+        <v>63.45065875647578</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8.983576064914333</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.738257242164659</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.4724324199747622</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9648465706207623</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>664</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.160817174752556</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.681435036930741</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.4793821378218157</v>
+      </c>
+      <c r="G56" t="n">
+        <v>115</v>
+      </c>
+      <c r="H56" t="n">
+        <v>31.17157259706869</v>
+      </c>
+      <c r="I56" t="n">
+        <v>30</v>
+      </c>
+      <c r="J56" t="n">
+        <v>85</v>
+      </c>
+      <c r="K56" t="n">
+        <v>304.9120252351275</v>
+      </c>
+      <c r="L56" t="n">
+        <v>46.38307596604614</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8857859407172791</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.4092569064061239</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9017542952218449</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>665</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>598</v>
+      </c>
+      <c r="B57" t="n">
+        <v>653</v>
+      </c>
+      <c r="C57" t="n">
+        <v>753</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.370508664132581</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.889388424288917</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.4811202398436636</v>
+      </c>
+      <c r="G57" t="n">
+        <v>155</v>
+      </c>
+      <c r="H57" t="n">
+        <v>28.49279996617986</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>81.12466438690859</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.268294003533907</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.55846154996138</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.6077313261402685</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.7027092324844209</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>666</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>952</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.34983697376098</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.868716733917316</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.4811202398436636</v>
+      </c>
+      <c r="G58" t="n">
+        <v>292</v>
+      </c>
+      <c r="H58" t="n">
+        <v>193.7604056434936</v>
+      </c>
+      <c r="I58" t="n">
+        <v>51</v>
+      </c>
+      <c r="J58" t="n">
+        <v>241</v>
+      </c>
+      <c r="K58" t="n">
+        <v>616.3241296122367</v>
+      </c>
+      <c r="L58" t="n">
+        <v>19.89484468982413</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8228496790611152</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.2116182572614108</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.4772132935312856</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9698782728786387</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>667</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>771</v>
+      </c>
+      <c r="B59" t="n">
+        <v>824</v>
+      </c>
+      <c r="C59" t="n">
+        <v>922</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.624965112045953</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.02236067935626</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6026044326896935</v>
+      </c>
+      <c r="G59" t="n">
+        <v>151</v>
+      </c>
+      <c r="H59" t="n">
+        <v>85.1836043182584</v>
+      </c>
+      <c r="I59" t="n">
+        <v>53</v>
+      </c>
+      <c r="J59" t="n">
+        <v>98</v>
+      </c>
+      <c r="K59" t="n">
+        <v>266.2603936158045</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.722999593409648</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7518085217465669</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.5408163265306123</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2444511577131335</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.8809435302305022</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>668</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>922</v>
+      </c>
+      <c r="B60" t="n">
+        <v>949</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.722733490553021</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.120129057863328</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.6026044326896935</v>
+      </c>
+      <c r="G60" t="n">
+        <v>78</v>
+      </c>
+      <c r="H60" t="n">
+        <v>21.3008973700862</v>
+      </c>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="n">
+        <v>51</v>
+      </c>
+      <c r="K60" t="n">
+        <v>81.52404357330342</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5.068513096055676</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8250134170050646</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3927823656077445</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9478898967488075</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>669</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.422339315449213</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.81973488275952</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.6026044326896935</v>
+      </c>
+      <c r="G61" t="n">
+        <v>140</v>
+      </c>
+      <c r="H61" t="n">
+        <v>46.10103741364571</v>
+      </c>
+      <c r="I61" t="n">
+        <v>37</v>
+      </c>
+      <c r="J61" t="n">
+        <v>103</v>
+      </c>
+      <c r="K61" t="n">
+        <v>276.1853442732676</v>
+      </c>
+      <c r="L61" t="n">
+        <v>10.06898149633824</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.9267729940682494</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3592233009708738</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2535690334163371</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.9695805524943647</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>670</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.516809349009114</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.914204916319421</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.6026044326896935</v>
+      </c>
+      <c r="G62" t="n">
+        <v>102</v>
+      </c>
+      <c r="H62" t="n">
+        <v>82.36447404485057</v>
+      </c>
+      <c r="I62" t="n">
+        <v>35</v>
+      </c>
+      <c r="J62" t="n">
+        <v>67</v>
+      </c>
+      <c r="K62" t="n">
+        <v>245.2907211375688</v>
+      </c>
+      <c r="L62" t="n">
+        <v>10.34692501163465</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.6753415486509122</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.5223880597014925</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.0741232279602153</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9077977475919131</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>671</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.737401711924798</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.256868119558325</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4805335923664726</v>
+      </c>
+      <c r="G63" t="n">
+        <v>199</v>
+      </c>
+      <c r="H63" t="n">
+        <v>124.3098177217762</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>173</v>
+      </c>
+      <c r="K63" t="n">
+        <v>506.7460471413731</v>
+      </c>
+      <c r="L63" t="n">
+        <v>26.40379887734943</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8812600291550837</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.1502890173410405</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.3985318562343611</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9834485731350801</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>672</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1853</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1891</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8866637872189213</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4061301948524487</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4805335923664726</v>
+      </c>
+      <c r="G64" t="n">
+        <v>58</v>
+      </c>
+      <c r="H64" t="n">
+        <v>19.67061668971269</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>38</v>
+      </c>
+      <c r="K64" t="n">
+        <v>35.76618284201711</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4.941800111784353</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8575635311399024</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.292490881985806</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9421407272529017</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>673</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.146865506762348</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.678677464657472</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4681880421048759</v>
+      </c>
+      <c r="G65" t="n">
+        <v>42</v>
+      </c>
+      <c r="H65" t="n">
+        <v>12.67158866424325</v>
+      </c>
+      <c r="I65" t="n">
+        <v>17</v>
+      </c>
+      <c r="J65" t="n">
+        <v>25</v>
+      </c>
+      <c r="K65" t="n">
+        <v>116.0189940750798</v>
+      </c>
+      <c r="L65" t="n">
+        <v>10.53453520898486</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.670853329967568</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.09152031489893603</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.9131514469163859</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>674</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.490973878328835</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.022785836223959</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.4681880421048759</v>
+      </c>
+      <c r="G66" t="n">
+        <v>129</v>
+      </c>
+      <c r="H66" t="n">
+        <v>13.66308895926477</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>111</v>
+      </c>
+      <c r="K66" t="n">
+        <v>119.9813341600905</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.338854002348192</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.6638945554632352</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.6528955795617876</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.3110672625938089</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>675</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1481</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1508</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1542</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.669272803249168</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.187537230933062</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.4817355723161056</v>
+      </c>
+      <c r="G67" t="n">
+        <v>61</v>
+      </c>
+      <c r="H67" t="n">
+        <v>22.99371029242479</v>
+      </c>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>34</v>
+      </c>
+      <c r="K67" t="n">
+        <v>67.85367316452545</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.916512621442715</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.795418025043203</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.3284035787341945</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9030586472497032</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>676</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.617600622696094</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.185474188926719</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.432126433769375</v>
+      </c>
+      <c r="G68" t="n">
         <v>342</v>
       </c>
-      <c r="H38" t="n">
-        <v>85.46671722461133</v>
-      </c>
-      <c r="I38" t="n">
-        <v>89</v>
-      </c>
-      <c r="J38" t="n">
-        <v>253</v>
-      </c>
-      <c r="K38" t="n">
-        <v>705.4252724224953</v>
-      </c>
-      <c r="L38" t="n">
-        <v>39.03017551014402</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>0.7878063421734451</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.3517786561264822</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.4306769166162468</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.8854069729817106</v>
-      </c>
-      <c r="T38" t="inlineStr">
+      <c r="H68" t="n">
+        <v>102.1032252085256</v>
+      </c>
+      <c r="I68" t="n">
+        <v>48</v>
+      </c>
+      <c r="J68" t="n">
+        <v>294</v>
+      </c>
+      <c r="K68" t="n">
+        <v>718.460687893682</v>
+      </c>
+      <c r="L68" t="n">
+        <v>27.49589294306918</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8883097506649832</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2580481090654053</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9420144894972304</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>677</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1786</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.977902741916038</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.538028944410119</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.4398737975059193</v>
+      </c>
+      <c r="G69" t="n">
+        <v>102</v>
+      </c>
+      <c r="H69" t="n">
+        <v>76.20002961968521</v>
+      </c>
+      <c r="I69" t="n">
+        <v>28</v>
+      </c>
+      <c r="J69" t="n">
+        <v>74</v>
+      </c>
+      <c r="K69" t="n">
+        <v>302.4319397360921</v>
+      </c>
+      <c r="L69" t="n">
+        <v>11.92359955902345</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8830180548267943</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2397969970468787</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9720039681253257</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>678</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1656</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1686</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.228217650992578</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.792486454332831</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.4357311966597471</v>
+      </c>
+      <c r="G70" t="n">
+        <v>83</v>
+      </c>
+      <c r="H70" t="n">
+        <v>59.04282424669555</v>
+      </c>
+      <c r="I70" t="n">
+        <v>30</v>
+      </c>
+      <c r="J70" t="n">
+        <v>53</v>
+      </c>
+      <c r="K70" t="n">
+        <v>205.1012037418574</v>
+      </c>
+      <c r="L70" t="n">
+        <v>9.170971996897668</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.761944644384739</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.176445343994994</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9180441282003069</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>679</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>889</v>
+      </c>
+      <c r="B71" t="n">
+        <v>924</v>
+      </c>
+      <c r="C71" t="n">
+        <v>976</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9879991924648512</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5796843374773888</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.4083148549874624</v>
+      </c>
+      <c r="G71" t="n">
+        <v>87</v>
+      </c>
+      <c r="H71" t="n">
+        <v>132.8066216038336</v>
+      </c>
+      <c r="I71" t="n">
+        <v>35</v>
+      </c>
+      <c r="J71" t="n">
+        <v>52</v>
+      </c>
+      <c r="K71" t="n">
+        <v>56.40202432101303</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5.008518044533201</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.7049907825731909</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.6730769230769231</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1736134126965458</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.9110648286295311</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>680</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.236641121794552</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.82832626680709</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.4083148549874624</v>
+      </c>
+      <c r="G72" t="n">
+        <v>101</v>
+      </c>
+      <c r="H72" t="n">
+        <v>35.96837086073833</v>
+      </c>
+      <c r="I72" t="n">
+        <v>28</v>
+      </c>
+      <c r="J72" t="n">
+        <v>73</v>
+      </c>
+      <c r="K72" t="n">
+        <v>413.281626475327</v>
+      </c>
+      <c r="L72" t="n">
+        <v>31.61574405527366</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.9313254972378844</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2747603577296966</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9843186247873199</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>681</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>920</v>
+      </c>
+      <c r="B73" t="n">
+        <v>953</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.555472548314446</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.084134017912135</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4713385304023113</v>
+      </c>
+      <c r="G73" t="n">
+        <v>141</v>
+      </c>
+      <c r="H73" t="n">
+        <v>72.43087764157178</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>108</v>
+      </c>
+      <c r="K73" t="n">
+        <v>164.1790638164538</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.378310639633217</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.6838501074115291</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.1339931383668297</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.8020872312440399</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>682</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>437</v>
+      </c>
+      <c r="B74" t="n">
+        <v>454</v>
+      </c>
+      <c r="C74" t="n">
+        <v>540</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.378602166574148</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9109559381236892</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4676462284504583</v>
+      </c>
+      <c r="G74" t="n">
+        <v>103</v>
+      </c>
+      <c r="H74" t="n">
+        <v>34.0280364012425</v>
+      </c>
+      <c r="I74" t="n">
+        <v>17</v>
+      </c>
+      <c r="J74" t="n">
+        <v>86</v>
+      </c>
+      <c r="K74" t="n">
+        <v>93.98320576968361</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.935393714832605</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(499), 'value': np.float64(0.7384822050865809), 'amplitude': np.float64(1.2061284335370392), 'start_idx': np.int64(481), 'end_idx': np.int64(505), 'duration': np.float64(24.0), 'fwhm': np.float64(32.338147962137725), 'rise_time': np.float64(18.0), 'decay_time': np.float64(6.0), 'auc': np.float64(25.69251775806716)}]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8049108119377869</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1968489351504733</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.5156907367694483</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>683</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1637</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1683</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.134592172433088</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.666945943982629</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.4676462284504583</v>
+      </c>
+      <c r="G75" t="n">
+        <v>70</v>
+      </c>
+      <c r="H75" t="n">
+        <v>32.38021150128839</v>
+      </c>
+      <c r="I75" t="n">
+        <v>24</v>
+      </c>
+      <c r="J75" t="n">
+        <v>46</v>
+      </c>
+      <c r="K75" t="n">
+        <v>94.3127542309788</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.093462510652622</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8592072861639843</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.4608166632952855</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9642155016888104</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>684</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>744</v>
+      </c>
+      <c r="B76" t="n">
+        <v>790</v>
+      </c>
+      <c r="C76" t="n">
+        <v>876</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7788405715273909</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3495862122902221</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.4292543592371689</v>
+      </c>
+      <c r="G76" t="n">
+        <v>132</v>
+      </c>
+      <c r="H76" t="n">
+        <v>65.87785402151712</v>
+      </c>
+      <c r="I76" t="n">
+        <v>46</v>
+      </c>
+      <c r="J76" t="n">
+        <v>86</v>
+      </c>
+      <c r="K76" t="n">
+        <v>38.53663936995466</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.434644461477384</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.6292148771206447</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.3091590694983581</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.4455916848395364</v>
+      </c>
+      <c r="T76" t="inlineStr">
         <is>
           <t>n44</t>
         </is>
       </c>
-      <c r="U38" t="n">
-        <v>364</v>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
+      <c r="U76" t="n">
+        <v>685</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1839</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.152990487137137</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.723736127899969</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.4292543592371689</v>
+      </c>
+      <c r="G77" t="n">
+        <v>182</v>
+      </c>
+      <c r="H77" t="n">
+        <v>14.69970474483307</v>
+      </c>
+      <c r="I77" t="n">
+        <v>17</v>
+      </c>
+      <c r="J77" t="n">
+        <v>165</v>
+      </c>
+      <c r="K77" t="n">
+        <v>292.2695761853521</v>
+      </c>
+      <c r="L77" t="n">
+        <v>22.00114235755127</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.7288105438204839</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.103030303030303</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.4981944939522727</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.7331656549397042</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>686</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace/processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X77"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2710,37 +2710,37 @@
         <v>1873</v>
       </c>
       <c r="B27" t="n">
-        <v>1896</v>
+        <v>1927</v>
       </c>
       <c r="C27" t="n">
         <v>2004</v>
       </c>
       <c r="D27" t="n">
-        <v>3.541261360041537</v>
+        <v>2.985300409537721</v>
       </c>
       <c r="E27" t="n">
-        <v>3.03247696329103</v>
+        <v>2.405849813263977</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5087843967505074</v>
+        <v>-0.5794505962737432</v>
       </c>
       <c r="G27" t="n">
         <v>131</v>
       </c>
       <c r="H27" t="n">
-        <v>20.27143001186482</v>
+        <v>32.03158366906928</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J27" t="n">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K27" t="n">
-        <v>398.259662566398</v>
+        <v>240.1127774462321</v>
       </c>
       <c r="L27" t="n">
-        <v>12.20155458527823</v>
+        <v>10.99543213048141</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7180654774802228</v>
+        <v>0.7658078452431333</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.212962962962963</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9858434164442961</v>
+        <v>0.3635103198122602</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3834126856632329</v>
+        <v>0.9705371002440533</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1873</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1927</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>2004</v>
+        <v>112</v>
       </c>
       <c r="D28" t="n">
-        <v>2.985300409537721</v>
+        <v>2.692952656022869</v>
       </c>
       <c r="E28" t="n">
-        <v>2.405849813263977</v>
+        <v>2.096113453076467</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5794505962737432</v>
+        <v>-0.5968392029464021</v>
       </c>
       <c r="G28" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H28" t="n">
-        <v>32.03158366906928</v>
+        <v>43.67972564548982</v>
       </c>
       <c r="I28" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J28" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K28" t="n">
-        <v>240.1127774462321</v>
+        <v>202.8921172485668</v>
       </c>
       <c r="L28" t="n">
-        <v>10.99543213048141</v>
+        <v>5.37778599795856</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7658078452431333</v>
+        <v>0.661087726631203</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3635103198122602</v>
+        <v>0.2061167942642285</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9705371002440533</v>
+        <v>0.9741346369806713</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C29" t="n">
-        <v>112</v>
+        <v>344</v>
       </c>
       <c r="D29" t="n">
-        <v>2.692952656022869</v>
+        <v>3.21063025717086</v>
       </c>
       <c r="E29" t="n">
-        <v>2.096113453076467</v>
+        <v>2.613791054224458</v>
       </c>
       <c r="F29" t="n">
         <v>-0.5968392029464021</v>
       </c>
       <c r="G29" t="n">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="H29" t="n">
-        <v>43.67972564548982</v>
+        <v>76.05361787776552</v>
       </c>
       <c r="I29" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J29" t="n">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="K29" t="n">
-        <v>202.8921172485668</v>
+        <v>357.6394250450858</v>
       </c>
       <c r="L29" t="n">
-        <v>5.37778599795856</v>
+        <v>6.41158039040138</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.661087726631203</v>
+        <v>0.884820664305445</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6716417910447762</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2061167942642285</v>
+        <v>0.3409171308997693</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9741346369806713</v>
+        <v>0.9117165465933594</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112</v>
+        <v>344</v>
       </c>
       <c r="B30" t="n">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="C30" t="n">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="D30" t="n">
-        <v>3.21063025717086</v>
+        <v>2.504052653551213</v>
       </c>
       <c r="E30" t="n">
-        <v>2.613791054224458</v>
+        <v>1.907213450604811</v>
       </c>
       <c r="F30" t="n">
         <v>-0.5968392029464021</v>
       </c>
       <c r="G30" t="n">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="H30" t="n">
-        <v>76.05361787776552</v>
+        <v>55.55271739175743</v>
       </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J30" t="n">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="K30" t="n">
-        <v>357.6394250450858</v>
+        <v>210.7031951550128</v>
       </c>
       <c r="L30" t="n">
-        <v>6.41158039040138</v>
+        <v>5.000555530859779</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.884820664305445</v>
+        <v>0.9384773749935098</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1372549019607843</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3409171308997693</v>
+        <v>0.2160796979052974</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9117165465933594</v>
+        <v>0.9286681400567245</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="B31" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="C31" t="n">
-        <v>506</v>
+        <v>621</v>
       </c>
       <c r="D31" t="n">
-        <v>2.504052653551213</v>
+        <v>2.67607661596277</v>
       </c>
       <c r="E31" t="n">
-        <v>1.907213450604811</v>
+        <v>2.079237413016368</v>
       </c>
       <c r="F31" t="n">
         <v>-0.5968392029464021</v>
       </c>
       <c r="G31" t="n">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="H31" t="n">
-        <v>55.55271739175743</v>
+        <v>65.32020595035294</v>
       </c>
       <c r="I31" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J31" t="n">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="K31" t="n">
-        <v>210.7031951550128</v>
+        <v>186.9846181597455</v>
       </c>
       <c r="L31" t="n">
-        <v>5.000555530859779</v>
+        <v>5.344084799486611</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,16 +3100,16 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.9384773749935098</v>
+        <v>0.808715530744695</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2366412213740458</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2160796979052974</v>
+        <v>0.1558013757272599</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9286681400567245</v>
+        <v>0.9754540254376868</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>542</v>
+        <v>43</v>
       </c>
       <c r="C32" t="n">
-        <v>621</v>
+        <v>112</v>
       </c>
       <c r="D32" t="n">
-        <v>2.67607661596277</v>
+        <v>2.878625011281881</v>
       </c>
       <c r="E32" t="n">
-        <v>2.079237413016368</v>
+        <v>2.251026329371547</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5968392029464021</v>
+        <v>-0.6275986819103344</v>
       </c>
       <c r="G32" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H32" t="n">
-        <v>65.32020595035294</v>
+        <v>43.02192541732223</v>
       </c>
       <c r="I32" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J32" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K32" t="n">
-        <v>186.9846181597455</v>
+        <v>200.6421410166673</v>
       </c>
       <c r="L32" t="n">
-        <v>5.344084799486611</v>
+        <v>6.443060240674265</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.808715530744695</v>
+        <v>0.6405164608035891</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4556962025316456</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1558013757272599</v>
+        <v>0.1547059161036433</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9754540254376868</v>
+        <v>0.9876320464899817</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B33" t="n">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C33" t="n">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="D33" t="n">
-        <v>2.878625011281881</v>
+        <v>2.91298323404332</v>
       </c>
       <c r="E33" t="n">
-        <v>2.251026329371547</v>
+        <v>2.285384552132986</v>
       </c>
       <c r="F33" t="n">
         <v>-0.6275986819103344</v>
       </c>
       <c r="G33" t="n">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="H33" t="n">
-        <v>43.02192541732223</v>
+        <v>68.68191737109885</v>
       </c>
       <c r="I33" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J33" t="n">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>200.6421410166673</v>
+        <v>313.6094126992961</v>
       </c>
       <c r="L33" t="n">
-        <v>6.443060240674265</v>
+        <v>6.519962267908398</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.6405164608035891</v>
+        <v>0.8712638636056869</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.155</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1547059161036433</v>
+        <v>0.3850201611434092</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9876320464899817</v>
+        <v>0.8838435911823196</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="B34" t="n">
-        <v>143</v>
+        <v>377</v>
       </c>
       <c r="C34" t="n">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="D34" t="n">
-        <v>2.91298323404332</v>
+        <v>2.678858252591248</v>
       </c>
       <c r="E34" t="n">
-        <v>2.285384552132986</v>
+        <v>2.051259570680914</v>
       </c>
       <c r="F34" t="n">
         <v>-0.6275986819103344</v>
       </c>
       <c r="G34" t="n">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="H34" t="n">
-        <v>68.68191737109885</v>
+        <v>50.06899102841885</v>
       </c>
       <c r="I34" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="K34" t="n">
-        <v>313.6094126992961</v>
+        <v>222.7463471859397</v>
       </c>
       <c r="L34" t="n">
-        <v>6.519962267908398</v>
+        <v>5.995933833002699</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8712638636056869</v>
+        <v>0.9261588550100549</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.155</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3850201611434092</v>
+        <v>0.2786958456849812</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8838435911823196</v>
+        <v>0.8706460052479255</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="B35" t="n">
-        <v>377</v>
+        <v>541</v>
       </c>
       <c r="C35" t="n">
-        <v>506</v>
+        <v>621</v>
       </c>
       <c r="D35" t="n">
-        <v>2.678858252591248</v>
+        <v>2.827449439752566</v>
       </c>
       <c r="E35" t="n">
-        <v>2.051259570680914</v>
+        <v>2.199850757842231</v>
       </c>
       <c r="F35" t="n">
         <v>-0.6275986819103344</v>
       </c>
       <c r="G35" t="n">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="H35" t="n">
-        <v>50.06899102841885</v>
+        <v>79.6967104742572</v>
       </c>
       <c r="I35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J35" t="n">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>222.7463471859397</v>
+        <v>211.1122245462066</v>
       </c>
       <c r="L35" t="n">
-        <v>5.995933833002699</v>
+        <v>6.328516912202494</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.9261588550100549</v>
+        <v>0.8028849929987129</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.2635658914728682</v>
+        <v>0.4375</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2786958456849812</v>
+        <v>0.1564375680646885</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8706460052479255</v>
+        <v>0.9701507439621394</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>506</v>
+        <v>1719</v>
       </c>
       <c r="B36" t="n">
-        <v>541</v>
+        <v>1750</v>
       </c>
       <c r="C36" t="n">
-        <v>621</v>
+        <v>1919</v>
       </c>
       <c r="D36" t="n">
-        <v>2.827449439752566</v>
+        <v>3.758663645152816</v>
       </c>
       <c r="E36" t="n">
-        <v>2.199850757842231</v>
+        <v>3.240133026758956</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.6275986819103344</v>
+        <v>-0.5185306183938607</v>
       </c>
       <c r="G36" t="n">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="H36" t="n">
-        <v>79.6967104742572</v>
+        <v>79.84621846631489</v>
       </c>
       <c r="I36" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="K36" t="n">
-        <v>211.1122245462066</v>
+        <v>366.754064775015</v>
       </c>
       <c r="L36" t="n">
-        <v>6.328516912202494</v>
+        <v>14.78343222817248</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8028849929987129</v>
+        <v>0.8989651933536101</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4375</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1564375680646885</v>
+        <v>0.2890429887340603</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9701507439621394</v>
+        <v>0.7917443915697457</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1719</v>
+        <v>1919</v>
       </c>
       <c r="B37" t="n">
-        <v>1750</v>
+        <v>1954</v>
       </c>
       <c r="C37" t="n">
-        <v>1919</v>
+        <v>2004</v>
       </c>
       <c r="D37" t="n">
-        <v>3.758663645152816</v>
+        <v>3.262146727314529</v>
       </c>
       <c r="E37" t="n">
-        <v>3.240133026758956</v>
+        <v>2.743616108920668</v>
       </c>
       <c r="F37" t="n">
         <v>-0.5185306183938607</v>
       </c>
       <c r="G37" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="H37" t="n">
-        <v>79.84621846631489</v>
+        <v>29.54968869031063</v>
       </c>
       <c r="I37" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J37" t="n">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>366.754064775015</v>
+        <v>202.7780944783238</v>
       </c>
       <c r="L37" t="n">
-        <v>14.78343222817248</v>
+        <v>12.83055085916002</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8989651933536101</v>
+        <v>0.8017754618480415</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1834319526627219</v>
+        <v>0.7</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2890429887340603</v>
+        <v>0.69859771764348</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7917443915697457</v>
+        <v>0.8985573021114487</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1919</v>
+        <v>1893</v>
       </c>
       <c r="B38" t="n">
-        <v>1954</v>
+        <v>1930</v>
       </c>
       <c r="C38" t="n">
         <v>2004</v>
       </c>
       <c r="D38" t="n">
-        <v>3.262146727314529</v>
+        <v>5.003799440701242</v>
       </c>
       <c r="E38" t="n">
-        <v>2.743616108920668</v>
+        <v>4.496296172878124</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5185306183938607</v>
+        <v>-0.5075032678231184</v>
       </c>
       <c r="G38" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H38" t="n">
-        <v>29.54968869031063</v>
+        <v>29.17074077659186</v>
       </c>
       <c r="I38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="K38" t="n">
-        <v>202.7780944783238</v>
+        <v>404.0592078362348</v>
       </c>
       <c r="L38" t="n">
-        <v>12.83055085916002</v>
+        <v>20.82665690487962</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8017754618480415</v>
+        <v>0.8141336190556977</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R38" t="n">
-        <v>0.69859771764348</v>
+        <v>0.3556483211587025</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8985573021114487</v>
+        <v>0.875647966239723</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1893</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1930</v>
+        <v>64</v>
       </c>
       <c r="C39" t="n">
-        <v>2004</v>
+        <v>153</v>
       </c>
       <c r="D39" t="n">
-        <v>5.003799440701242</v>
+        <v>2.472654668661758</v>
       </c>
       <c r="E39" t="n">
-        <v>4.496296172878124</v>
+        <v>1.956001106067804</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5075032678231184</v>
+        <v>-0.5166535625939539</v>
       </c>
       <c r="G39" t="n">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="H39" t="n">
-        <v>29.17074077659186</v>
+        <v>70.70601700555568</v>
       </c>
       <c r="I39" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J39" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K39" t="n">
-        <v>404.0592078362348</v>
+        <v>192.4780214025189</v>
       </c>
       <c r="L39" t="n">
-        <v>20.82665690487962</v>
+        <v>10.05381624822352</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8141336190556977</v>
+        <v>0.6084180651893641</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3556483211587025</v>
+        <v>0.8251533438002639</v>
       </c>
       <c r="S39" t="n">
-        <v>0.875647966239723</v>
+        <v>0.8524515742680268</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B40" t="n">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="C40" t="n">
-        <v>153</v>
+        <v>449</v>
       </c>
       <c r="D40" t="n">
-        <v>2.472654668661758</v>
+        <v>4.541547278942087</v>
       </c>
       <c r="E40" t="n">
-        <v>1.956001106067804</v>
+        <v>4.024893716348133</v>
       </c>
       <c r="F40" t="n">
         <v>-0.5166535625939539</v>
       </c>
       <c r="G40" t="n">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="H40" t="n">
-        <v>70.70601700555568</v>
+        <v>124.9087338242184</v>
       </c>
       <c r="I40" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J40" t="n">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="K40" t="n">
-        <v>192.4780214025189</v>
+        <v>606.3077820042093</v>
       </c>
       <c r="L40" t="n">
-        <v>10.05381624822352</v>
+        <v>18.46593558081248</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.6084180651893641</v>
+        <v>0.9358487697453226</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7191011235955056</v>
+        <v>0.2341463414634146</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8251533438002639</v>
+        <v>0.2362107421358847</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8524515742680268</v>
+        <v>0.9674702889558215</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B41" t="n">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C41" t="n">
-        <v>449</v>
+        <v>371</v>
       </c>
       <c r="D41" t="n">
-        <v>4.541547278942087</v>
+        <v>5.091708255917479</v>
       </c>
       <c r="E41" t="n">
-        <v>4.024893716348133</v>
+        <v>4.640043735227733</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5166535625939539</v>
+        <v>-0.4516645206897454</v>
       </c>
       <c r="G41" t="n">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="H41" t="n">
-        <v>124.9087338242184</v>
+        <v>139.4849536175672</v>
       </c>
       <c r="I41" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J41" t="n">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="K41" t="n">
-        <v>606.3077820042093</v>
+        <v>552.5284497097634</v>
       </c>
       <c r="L41" t="n">
-        <v>18.46593558081248</v>
+        <v>22.56070782331456</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.9358487697453226</v>
+        <v>0.8645073848397937</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2341463414634146</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2362107421358847</v>
+        <v>0.2656525161151339</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9674702889558215</v>
+        <v>0.8324911864051716</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>185</v>
+        <v>773</v>
       </c>
       <c r="B42" t="n">
-        <v>217</v>
+        <v>806</v>
       </c>
       <c r="C42" t="n">
-        <v>371</v>
+        <v>915</v>
       </c>
       <c r="D42" t="n">
-        <v>5.091708255917479</v>
+        <v>4.477229301222915</v>
       </c>
       <c r="E42" t="n">
-        <v>4.640043735227733</v>
+        <v>3.873914141254486</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4516645206897454</v>
+        <v>-0.603315159968428</v>
       </c>
       <c r="G42" t="n">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="H42" t="n">
-        <v>139.4849536175672</v>
+        <v>109.2526474448301</v>
       </c>
       <c r="I42" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J42" t="n">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="K42" t="n">
-        <v>552.5284497097634</v>
+        <v>374.4079454036334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.56070782331456</v>
+        <v>15.18886204313864</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8645073848397937</v>
+        <v>0.899973251687017</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.3027522935779817</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2656525161151339</v>
+        <v>0.2425127615871322</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8324911864051716</v>
+        <v>0.8844176019769031</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>371</v>
+        <v>1030</v>
       </c>
       <c r="B43" t="n">
-        <v>419</v>
+        <v>1058</v>
       </c>
       <c r="C43" t="n">
-        <v>578</v>
+        <v>1106</v>
       </c>
       <c r="D43" t="n">
-        <v>1.247616333283599</v>
+        <v>1.522169527095681</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7959518125938532</v>
+        <v>0.9188543671272531</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4516645206897454</v>
+        <v>-0.603315159968428</v>
       </c>
       <c r="G43" t="n">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="H43" t="n">
-        <v>38.70116721430702</v>
+        <v>24.01246205553775</v>
       </c>
       <c r="I43" t="n">
+        <v>28</v>
+      </c>
+      <c r="J43" t="n">
         <v>48</v>
       </c>
-      <c r="J43" t="n">
-        <v>159</v>
-      </c>
       <c r="K43" t="n">
-        <v>143.4201464136172</v>
+        <v>93.23558903471029</v>
       </c>
       <c r="L43" t="n">
-        <v>5.528028346497331</v>
+        <v>5.163913080576611</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.6975427550212985</v>
+        <v>0.5791245894294825</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4277088106035989</v>
+        <v>0.1561945166421687</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6362608649239797</v>
+        <v>0.4060685210543276</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>773</v>
+        <v>1931</v>
       </c>
       <c r="B44" t="n">
-        <v>806</v>
+        <v>1953</v>
       </c>
       <c r="C44" t="n">
-        <v>915</v>
+        <v>2004</v>
       </c>
       <c r="D44" t="n">
-        <v>4.477229301222915</v>
+        <v>2.889611007343383</v>
       </c>
       <c r="E44" t="n">
-        <v>3.873914141254486</v>
+        <v>2.391007032006666</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.603315159968428</v>
+        <v>-0.4986039753367162</v>
       </c>
       <c r="G44" t="n">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="H44" t="n">
-        <v>109.2526474448301</v>
+        <v>52.81065935206334</v>
       </c>
       <c r="I44" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J44" t="n">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="K44" t="n">
-        <v>374.4079454036334</v>
+        <v>156.2268891568433</v>
       </c>
       <c r="L44" t="n">
-        <v>15.18886204313864</v>
+        <v>11.11338103693129</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.899973251687017</v>
+        <v>0.8170424799428941</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3027522935779817</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2425127615871322</v>
+        <v>0.3305373209421826</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8844176019769031</v>
+        <v>0.7702965302759285</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1030</v>
+        <v>36</v>
       </c>
       <c r="B45" t="n">
-        <v>1058</v>
+        <v>64</v>
       </c>
       <c r="C45" t="n">
-        <v>1106</v>
+        <v>152</v>
       </c>
       <c r="D45" t="n">
-        <v>1.522169527095681</v>
+        <v>1.802000465531419</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9188543671272531</v>
+        <v>1.329414799711904</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.603315159968428</v>
+        <v>-0.4725856658195143</v>
       </c>
       <c r="G45" t="n">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="H45" t="n">
-        <v>24.01246205553775</v>
+        <v>53.45972126921392</v>
       </c>
       <c r="I45" t="n">
         <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K45" t="n">
-        <v>93.23558903471029</v>
+        <v>117.2031381667733</v>
       </c>
       <c r="L45" t="n">
-        <v>5.163913080576611</v>
+        <v>6.66071847271104</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.5791245894294825</v>
+        <v>0.9274957726646927</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1561945166421687</v>
+        <v>0.24215802882815</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4060685210543276</v>
+        <v>0.8783574777377241</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1931</v>
+        <v>196</v>
       </c>
       <c r="B46" t="n">
-        <v>1953</v>
+        <v>250</v>
       </c>
       <c r="C46" t="n">
-        <v>2004</v>
+        <v>430</v>
       </c>
       <c r="D46" t="n">
-        <v>2.889611007343383</v>
+        <v>4.534816851429951</v>
       </c>
       <c r="E46" t="n">
-        <v>2.391007032006666</v>
+        <v>4.062231185610436</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.4986039753367162</v>
+        <v>-0.4725856658195143</v>
       </c>
       <c r="G46" t="n">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="H46" t="n">
-        <v>52.81065935206334</v>
+        <v>124.6786201519257</v>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J46" t="n">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="K46" t="n">
-        <v>156.2268891568433</v>
+        <v>587.90127881596</v>
       </c>
       <c r="L46" t="n">
-        <v>11.11338103693129</v>
+        <v>16.76200364563898</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8170424799428941</v>
+        <v>0.9461589817488709</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4313725490196079</v>
+        <v>0.3</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3305373209421826</v>
+        <v>0.251648587830515</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7702965302759285</v>
+        <v>0.9844721246602143</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>36</v>
+        <v>1849</v>
       </c>
       <c r="B47" t="n">
-        <v>64</v>
+        <v>1875</v>
       </c>
       <c r="C47" t="n">
-        <v>152</v>
+        <v>2004</v>
       </c>
       <c r="D47" t="n">
-        <v>1.802000465531419</v>
+        <v>1.818479945336677</v>
       </c>
       <c r="E47" t="n">
-        <v>1.329414799711904</v>
+        <v>1.345894279517163</v>
       </c>
       <c r="F47" t="n">
         <v>-0.4725856658195143</v>
       </c>
       <c r="G47" t="n">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H47" t="n">
-        <v>53.45972126921392</v>
+        <v>48.31993121053279</v>
       </c>
       <c r="I47" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J47" t="n">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="K47" t="n">
-        <v>117.2031381667733</v>
+        <v>112.4227186878277</v>
       </c>
       <c r="L47" t="n">
-        <v>6.66071847271104</v>
+        <v>6.721631428983326</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.9274957726646927</v>
+        <v>0.8199332978686892</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="R47" t="n">
-        <v>0.24215802882815</v>
+        <v>0.4799842430104975</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8783574777377241</v>
+        <v>0.521181214794793</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="B48" t="n">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="C48" t="n">
-        <v>430</v>
+        <v>669</v>
       </c>
       <c r="D48" t="n">
-        <v>4.534816851429951</v>
+        <v>4.374863142727157</v>
       </c>
       <c r="E48" t="n">
-        <v>4.062231185610436</v>
+        <v>3.885386275428173</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.4725856658195143</v>
+        <v>-0.4894768672989838</v>
       </c>
       <c r="G48" t="n">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="H48" t="n">
-        <v>124.6786201519257</v>
+        <v>203.2882931788763</v>
       </c>
       <c r="I48" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J48" t="n">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="K48" t="n">
-        <v>587.90127881596</v>
+        <v>677.7097675910154</v>
       </c>
       <c r="L48" t="n">
-        <v>16.76200364563898</v>
+        <v>20.67588537827696</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.9461589817488709</v>
+        <v>0.8000747884967236</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="R48" t="n">
-        <v>0.251648587830515</v>
+        <v>0.189191415929751</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9844721246602143</v>
+        <v>0.8311131872101765</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1849</v>
+        <v>669</v>
       </c>
       <c r="B49" t="n">
-        <v>1875</v>
+        <v>697</v>
       </c>
       <c r="C49" t="n">
-        <v>2004</v>
+        <v>800</v>
       </c>
       <c r="D49" t="n">
-        <v>1.818479945336677</v>
+        <v>1.058224023737115</v>
       </c>
       <c r="E49" t="n">
-        <v>1.345894279517163</v>
+        <v>0.5687471564381311</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.4725856658195143</v>
+        <v>-0.4894768672989838</v>
       </c>
       <c r="G49" t="n">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="H49" t="n">
-        <v>48.31993121053279</v>
+        <v>21.23135230069681</v>
       </c>
       <c r="I49" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J49" t="n">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K49" t="n">
-        <v>112.4227186878277</v>
+        <v>92.8984517104377</v>
       </c>
       <c r="L49" t="n">
-        <v>6.721631428983326</v>
+        <v>5.001234988504915</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8199332978686892</v>
+        <v>0.7966316637865257</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2015503875968992</v>
+        <v>0.2718446601941747</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4799842430104975</v>
+        <v>0.2105223433602831</v>
       </c>
       <c r="S49" t="n">
-        <v>0.521181214794793</v>
+        <v>0.6271152596481475</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>415</v>
+        <v>718</v>
       </c>
       <c r="B50" t="n">
-        <v>445</v>
+        <v>743</v>
       </c>
       <c r="C50" t="n">
-        <v>669</v>
+        <v>788</v>
       </c>
       <c r="D50" t="n">
-        <v>4.374863142727157</v>
+        <v>2.798659419808225</v>
       </c>
       <c r="E50" t="n">
-        <v>3.885386275428173</v>
+        <v>2.212420533800553</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.4894768672989838</v>
+        <v>-0.5862388860076716</v>
       </c>
       <c r="G50" t="n">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="H50" t="n">
-        <v>203.2882931788763</v>
+        <v>19.98321968690391</v>
       </c>
       <c r="I50" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J50" t="n">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="K50" t="n">
-        <v>677.7097675910154</v>
+        <v>144.0481243541809</v>
       </c>
       <c r="L50" t="n">
-        <v>20.67588537827696</v>
+        <v>10.28144816787799</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8000747884967236</v>
+        <v>0.8299342010858213</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1339285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R50" t="n">
-        <v>0.189191415929751</v>
+        <v>0.3070074812047121</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8311131872101765</v>
+        <v>0.9808986862558754</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>669</v>
+        <v>788</v>
       </c>
       <c r="B51" t="n">
-        <v>697</v>
+        <v>822</v>
       </c>
       <c r="C51" t="n">
-        <v>800</v>
+        <v>1029</v>
       </c>
       <c r="D51" t="n">
-        <v>1.058224023737115</v>
+        <v>1.843670393183632</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5687471564381311</v>
+        <v>1.25743150717596</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.4894768672989838</v>
+        <v>-0.5862388860076716</v>
       </c>
       <c r="G51" t="n">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="H51" t="n">
-        <v>21.23135230069681</v>
+        <v>100.8529753852183</v>
       </c>
       <c r="I51" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J51" t="n">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="K51" t="n">
-        <v>92.8984517104377</v>
+        <v>298.4981051226471</v>
       </c>
       <c r="L51" t="n">
-        <v>5.001234988504915</v>
+        <v>6.773100525203476</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7966316637865257</v>
+        <v>0.8316882459383566</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2718446601941747</v>
+        <v>0.1642512077294686</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2105223433602831</v>
+        <v>0.15551529450938</v>
       </c>
       <c r="S51" t="n">
-        <v>0.6271152596481475</v>
+        <v>0.823429221213636</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>718</v>
+        <v>605</v>
       </c>
       <c r="B52" t="n">
-        <v>743</v>
+        <v>675</v>
       </c>
       <c r="C52" t="n">
-        <v>788</v>
+        <v>886</v>
       </c>
       <c r="D52" t="n">
-        <v>2.798659419808225</v>
+        <v>4.770312090474881</v>
       </c>
       <c r="E52" t="n">
-        <v>2.212420533800553</v>
+        <v>4.290929952653066</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.5862388860076716</v>
+        <v>-0.4793821378218157</v>
       </c>
       <c r="G52" t="n">
+        <v>281</v>
+      </c>
+      <c r="H52" t="n">
+        <v>96.78718652152395</v>
+      </c>
+      <c r="I52" t="n">
         <v>70</v>
       </c>
-      <c r="H52" t="n">
-        <v>19.98321968690391</v>
-      </c>
-      <c r="I52" t="n">
-        <v>25</v>
-      </c>
       <c r="J52" t="n">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="K52" t="n">
-        <v>144.0481243541809</v>
+        <v>528.4936514001325</v>
       </c>
       <c r="L52" t="n">
-        <v>10.28144816787799</v>
+        <v>53.17747422713983</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.8299342010858213</v>
+        <v>0.9091893802065748</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3317535545023697</v>
       </c>
       <c r="R52" t="n">
-        <v>0.3070074812047121</v>
+        <v>0.5487232762367388</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9808986862558754</v>
+        <v>0.972137146910528</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>788</v>
+        <v>886</v>
       </c>
       <c r="B53" t="n">
-        <v>822</v>
+        <v>932</v>
       </c>
       <c r="C53" t="n">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="D53" t="n">
-        <v>1.843670393183632</v>
+        <v>0.805876212456331</v>
       </c>
       <c r="E53" t="n">
-        <v>1.25743150717596</v>
+        <v>0.3264940746345154</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5862388860076716</v>
+        <v>-0.4793821378218157</v>
       </c>
       <c r="G53" t="n">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="H53" t="n">
-        <v>100.8529753852183</v>
+        <v>51.52726992069881</v>
       </c>
       <c r="I53" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J53" t="n">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="K53" t="n">
-        <v>298.4981051226471</v>
+        <v>63.45065875647578</v>
       </c>
       <c r="L53" t="n">
-        <v>6.773100525203476</v>
+        <v>8.983576064914333</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.8316882459383566</v>
+        <v>0.738257242164659</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1642512077294686</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="R53" t="n">
-        <v>0.15551529450938</v>
+        <v>0.4724324199747622</v>
       </c>
       <c r="S53" t="n">
-        <v>0.823429221213636</v>
+        <v>0.9648465706207623</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>605</v>
+        <v>1889</v>
       </c>
       <c r="B54" t="n">
-        <v>675</v>
+        <v>1919</v>
       </c>
       <c r="C54" t="n">
-        <v>886</v>
+        <v>2004</v>
       </c>
       <c r="D54" t="n">
-        <v>4.770312090474881</v>
+        <v>4.160817174752556</v>
       </c>
       <c r="E54" t="n">
-        <v>4.290929952653066</v>
+        <v>3.681435036930741</v>
       </c>
       <c r="F54" t="n">
         <v>-0.4793821378218157</v>
       </c>
       <c r="G54" t="n">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="H54" t="n">
-        <v>96.78718652152395</v>
+        <v>31.17157259706869</v>
       </c>
       <c r="I54" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J54" t="n">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="K54" t="n">
-        <v>528.4936514001325</v>
+        <v>304.9120252351275</v>
       </c>
       <c r="L54" t="n">
-        <v>53.17747422713983</v>
+        <v>46.38307596604614</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,16 +5078,16 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.9091893802065748</v>
+        <v>0.8857859407172791</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3317535545023697</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="R54" t="n">
-        <v>0.5487232762367388</v>
+        <v>0.4092569064061239</v>
       </c>
       <c r="S54" t="n">
-        <v>0.972137146910528</v>
+        <v>0.9017542952218449</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>886</v>
+        <v>598</v>
       </c>
       <c r="B55" t="n">
-        <v>932</v>
+        <v>653</v>
       </c>
       <c r="C55" t="n">
-        <v>1016</v>
+        <v>753</v>
       </c>
       <c r="D55" t="n">
-        <v>0.805876212456331</v>
+        <v>1.370508664132581</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3264940746345154</v>
+        <v>0.889388424288917</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.4793821378218157</v>
+        <v>-0.4811202398436636</v>
       </c>
       <c r="G55" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H55" t="n">
-        <v>51.52726992069881</v>
+        <v>28.49279996617986</v>
       </c>
       <c r="I55" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J55" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>63.45065875647578</v>
+        <v>81.12466438690859</v>
       </c>
       <c r="L55" t="n">
-        <v>8.983576064914333</v>
+        <v>6.268294003533907</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.738257242164659</v>
+        <v>0.55846154996138</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.55</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4724324199747622</v>
+        <v>0.6077313261402685</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9648465706207623</v>
+        <v>0.7027092324844209</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1889</v>
+        <v>952</v>
       </c>
       <c r="B56" t="n">
-        <v>1919</v>
+        <v>1003</v>
       </c>
       <c r="C56" t="n">
-        <v>2004</v>
+        <v>1244</v>
       </c>
       <c r="D56" t="n">
-        <v>4.160817174752556</v>
+        <v>4.34983697376098</v>
       </c>
       <c r="E56" t="n">
-        <v>3.681435036930741</v>
+        <v>3.868716733917316</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.4793821378218157</v>
+        <v>-0.4811202398436636</v>
       </c>
       <c r="G56" t="n">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="H56" t="n">
-        <v>31.17157259706869</v>
+        <v>193.7604056434936</v>
       </c>
       <c r="I56" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J56" t="n">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="K56" t="n">
-        <v>304.9120252351275</v>
+        <v>616.3241296122367</v>
       </c>
       <c r="L56" t="n">
-        <v>46.38307596604614</v>
+        <v>19.89484468982413</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.8857859407172791</v>
+        <v>0.8228496790611152</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2116182572614108</v>
       </c>
       <c r="R56" t="n">
-        <v>0.4092569064061239</v>
+        <v>0.4772132935312856</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9017542952218449</v>
+        <v>0.9698782728786387</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>598</v>
+        <v>771</v>
       </c>
       <c r="B57" t="n">
-        <v>653</v>
+        <v>824</v>
       </c>
       <c r="C57" t="n">
-        <v>753</v>
+        <v>922</v>
       </c>
       <c r="D57" t="n">
-        <v>1.370508664132581</v>
+        <v>2.624965112045953</v>
       </c>
       <c r="E57" t="n">
-        <v>0.889388424288917</v>
+        <v>2.02236067935626</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.4811202398436636</v>
+        <v>-0.6026044326896935</v>
       </c>
       <c r="G57" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H57" t="n">
-        <v>28.49279996617986</v>
+        <v>85.1836043182584</v>
       </c>
       <c r="I57" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K57" t="n">
-        <v>81.12466438690859</v>
+        <v>266.2603936158045</v>
       </c>
       <c r="L57" t="n">
-        <v>6.268294003533907</v>
+        <v>7.722999593409648</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.55846154996138</v>
+        <v>0.7518085217465669</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.55</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="R57" t="n">
-        <v>0.6077313261402685</v>
+        <v>0.2444511577131335</v>
       </c>
       <c r="S57" t="n">
-        <v>0.7027092324844209</v>
+        <v>0.8809435302305022</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="B58" t="n">
-        <v>1003</v>
+        <v>949</v>
       </c>
       <c r="C58" t="n">
-        <v>1244</v>
+        <v>1000</v>
       </c>
       <c r="D58" t="n">
-        <v>4.34983697376098</v>
+        <v>1.722733490553021</v>
       </c>
       <c r="E58" t="n">
-        <v>3.868716733917316</v>
+        <v>1.120129057863328</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4811202398436636</v>
+        <v>-0.6026044326896935</v>
       </c>
       <c r="G58" t="n">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="H58" t="n">
-        <v>193.7604056434936</v>
+        <v>21.3008973700862</v>
       </c>
       <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="n">
         <v>51</v>
       </c>
-      <c r="J58" t="n">
-        <v>241</v>
-      </c>
       <c r="K58" t="n">
-        <v>616.3241296122367</v>
+        <v>81.52404357330342</v>
       </c>
       <c r="L58" t="n">
-        <v>19.89484468982413</v>
+        <v>5.068513096055676</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8228496790611152</v>
+        <v>0.8250134170050646</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.2116182572614108</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4772132935312856</v>
+        <v>0.3927823656077445</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9698782728786387</v>
+        <v>0.9478898967488075</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>771</v>
+        <v>1000</v>
       </c>
       <c r="B59" t="n">
-        <v>824</v>
+        <v>1037</v>
       </c>
       <c r="C59" t="n">
-        <v>922</v>
+        <v>1140</v>
       </c>
       <c r="D59" t="n">
-        <v>2.624965112045953</v>
+        <v>3.422339315449213</v>
       </c>
       <c r="E59" t="n">
-        <v>2.02236067935626</v>
+        <v>2.81973488275952</v>
       </c>
       <c r="F59" t="n">
         <v>-0.6026044326896935</v>
       </c>
       <c r="G59" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H59" t="n">
-        <v>85.1836043182584</v>
+        <v>46.10103741364571</v>
       </c>
       <c r="I59" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J59" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K59" t="n">
-        <v>266.2603936158045</v>
+        <v>276.1853442732676</v>
       </c>
       <c r="L59" t="n">
-        <v>7.722999593409648</v>
+        <v>10.06898149633824</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.7518085217465669</v>
+        <v>0.9267729940682494</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.5408163265306123</v>
+        <v>0.3592233009708738</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2444511577131335</v>
+        <v>0.2535690334163371</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8809435302305022</v>
+        <v>0.9695805524943647</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>922</v>
+        <v>1140</v>
       </c>
       <c r="B60" t="n">
-        <v>949</v>
+        <v>1175</v>
       </c>
       <c r="C60" t="n">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="D60" t="n">
-        <v>1.722733490553021</v>
+        <v>3.516809349009114</v>
       </c>
       <c r="E60" t="n">
-        <v>1.120129057863328</v>
+        <v>2.914204916319421</v>
       </c>
       <c r="F60" t="n">
         <v>-0.6026044326896935</v>
       </c>
       <c r="G60" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H60" t="n">
-        <v>21.3008973700862</v>
+        <v>82.36447404485057</v>
       </c>
       <c r="I60" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K60" t="n">
-        <v>81.52404357330342</v>
+        <v>245.2907211375688</v>
       </c>
       <c r="L60" t="n">
-        <v>5.068513096055676</v>
+        <v>10.34692501163465</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,16 +5594,16 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8250134170050646</v>
+        <v>0.6753415486509122</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3927823656077445</v>
+        <v>0.0741232279602153</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9478898967488075</v>
+        <v>0.9077977475919131</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1000</v>
+        <v>1634</v>
       </c>
       <c r="B61" t="n">
-        <v>1037</v>
+        <v>1660</v>
       </c>
       <c r="C61" t="n">
-        <v>1140</v>
+        <v>1833</v>
       </c>
       <c r="D61" t="n">
-        <v>3.422339315449213</v>
+        <v>4.737401711924798</v>
       </c>
       <c r="E61" t="n">
-        <v>2.81973488275952</v>
+        <v>4.256868119558325</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6026044326896935</v>
+        <v>-0.4805335923664726</v>
       </c>
       <c r="G61" t="n">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="H61" t="n">
-        <v>46.10103741364571</v>
+        <v>124.3098177217762</v>
       </c>
       <c r="I61" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J61" t="n">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="K61" t="n">
-        <v>276.1853442732676</v>
+        <v>506.7460471413731</v>
       </c>
       <c r="L61" t="n">
-        <v>10.06898149633824</v>
+        <v>26.40379887734943</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.9267729940682494</v>
+        <v>0.8812600291550837</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3592233009708738</v>
+        <v>0.1502890173410405</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2535690334163371</v>
+        <v>0.3985318562343611</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9695805524943647</v>
+        <v>0.9834485731350801</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1140</v>
+        <v>1833</v>
       </c>
       <c r="B62" t="n">
-        <v>1175</v>
+        <v>1853</v>
       </c>
       <c r="C62" t="n">
-        <v>1242</v>
+        <v>1891</v>
       </c>
       <c r="D62" t="n">
-        <v>3.516809349009114</v>
+        <v>0.8866637872189213</v>
       </c>
       <c r="E62" t="n">
-        <v>2.914204916319421</v>
+        <v>0.4061301948524487</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6026044326896935</v>
+        <v>-0.4805335923664726</v>
       </c>
       <c r="G62" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H62" t="n">
-        <v>82.36447404485057</v>
+        <v>19.67061668971269</v>
       </c>
       <c r="I62" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="K62" t="n">
-        <v>245.2907211375688</v>
+        <v>35.76618284201711</v>
       </c>
       <c r="L62" t="n">
-        <v>10.34692501163465</v>
+        <v>4.941800111784353</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.6753415486509122</v>
+        <v>0.8575635311399024</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R62" t="n">
-        <v>0.0741232279602153</v>
+        <v>0.292490881985806</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9077977475919131</v>
+        <v>0.9421407272529017</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1634</v>
+        <v>1833</v>
       </c>
       <c r="B63" t="n">
-        <v>1660</v>
+        <v>1850</v>
       </c>
       <c r="C63" t="n">
-        <v>1833</v>
+        <v>1875</v>
       </c>
       <c r="D63" t="n">
-        <v>4.737401711924798</v>
+        <v>3.146865506762348</v>
       </c>
       <c r="E63" t="n">
-        <v>4.256868119558325</v>
+        <v>2.678677464657472</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4805335923664726</v>
+        <v>-0.4681880421048759</v>
       </c>
       <c r="G63" t="n">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="H63" t="n">
-        <v>124.3098177217762</v>
+        <v>12.67158866424325</v>
       </c>
       <c r="I63" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J63" t="n">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="K63" t="n">
-        <v>506.7460471413731</v>
+        <v>116.0189940750798</v>
       </c>
       <c r="L63" t="n">
-        <v>26.40379887734943</v>
+        <v>10.53453520898486</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8812600291550837</v>
+        <v>0.670853329967568</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.1502890173410405</v>
+        <v>0.68</v>
       </c>
       <c r="R63" t="n">
-        <v>0.3985318562343611</v>
+        <v>0.09152031489893603</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9834485731350801</v>
+        <v>0.9131514469163859</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1833</v>
+        <v>1875</v>
       </c>
       <c r="B64" t="n">
-        <v>1853</v>
+        <v>1893</v>
       </c>
       <c r="C64" t="n">
-        <v>1891</v>
+        <v>2004</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8866637872189213</v>
+        <v>2.490973878328835</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4061301948524487</v>
+        <v>2.022785836223959</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4805335923664726</v>
+        <v>-0.4681880421048759</v>
       </c>
       <c r="G64" t="n">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="H64" t="n">
-        <v>19.67061668971269</v>
+        <v>13.66308895926477</v>
       </c>
       <c r="I64" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J64" t="n">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="K64" t="n">
-        <v>35.76618284201711</v>
+        <v>119.9813341600905</v>
       </c>
       <c r="L64" t="n">
-        <v>4.941800111784353</v>
+        <v>8.338854002348192</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.8575635311399024</v>
+        <v>0.6638945554632352</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="R64" t="n">
-        <v>0.292490881985806</v>
+        <v>0.6528955795617876</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9421407272529017</v>
+        <v>0.3110672625938089</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>673</v>
+        <v>713</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1833</v>
+        <v>1481</v>
       </c>
       <c r="B65" t="n">
-        <v>1850</v>
+        <v>1508</v>
       </c>
       <c r="C65" t="n">
-        <v>1875</v>
+        <v>1542</v>
       </c>
       <c r="D65" t="n">
-        <v>3.146865506762348</v>
+        <v>1.669272803249168</v>
       </c>
       <c r="E65" t="n">
-        <v>2.678677464657472</v>
+        <v>1.187537230933062</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4681880421048759</v>
+        <v>-0.4817355723161056</v>
       </c>
       <c r="G65" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H65" t="n">
-        <v>12.67158866424325</v>
+        <v>22.99371029242479</v>
       </c>
       <c r="I65" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J65" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K65" t="n">
-        <v>116.0189940750798</v>
+        <v>67.85367316452545</v>
       </c>
       <c r="L65" t="n">
-        <v>10.53453520898486</v>
+        <v>5.916512621442715</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.670853329967568</v>
+        <v>0.795418025043203</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.68</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="R65" t="n">
-        <v>0.09152031489893603</v>
+        <v>0.3284035787341945</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9131514469163859</v>
+        <v>0.9030586472497032</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>674</v>
+        <v>714</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1875</v>
+        <v>1662</v>
       </c>
       <c r="B66" t="n">
-        <v>1893</v>
+        <v>1710</v>
       </c>
       <c r="C66" t="n">
         <v>2004</v>
       </c>
       <c r="D66" t="n">
-        <v>2.490973878328835</v>
+        <v>4.617600622696094</v>
       </c>
       <c r="E66" t="n">
-        <v>2.022785836223959</v>
+        <v>4.185474188926719</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4681880421048759</v>
+        <v>-0.432126433769375</v>
       </c>
       <c r="G66" t="n">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="H66" t="n">
-        <v>13.66308895926477</v>
+        <v>102.1032252085256</v>
       </c>
       <c r="I66" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J66" t="n">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="K66" t="n">
-        <v>119.9813341600905</v>
+        <v>718.460687893682</v>
       </c>
       <c r="L66" t="n">
-        <v>8.338854002348192</v>
+        <v>27.49589294306918</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.6638945554632352</v>
+        <v>0.8883097506649832</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="R66" t="n">
-        <v>0.6528955795617876</v>
+        <v>0.2580481090654053</v>
       </c>
       <c r="S66" t="n">
-        <v>0.3110672625938089</v>
+        <v>0.9420144894972304</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1481</v>
+        <v>1684</v>
       </c>
       <c r="B67" t="n">
-        <v>1508</v>
+        <v>1712</v>
       </c>
       <c r="C67" t="n">
-        <v>1542</v>
+        <v>1786</v>
       </c>
       <c r="D67" t="n">
-        <v>1.669272803249168</v>
+        <v>4.977902741916038</v>
       </c>
       <c r="E67" t="n">
-        <v>1.187537230933062</v>
+        <v>4.538028944410119</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4817355723161056</v>
+        <v>-0.4398737975059193</v>
       </c>
       <c r="G67" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="H67" t="n">
-        <v>22.99371029242479</v>
+        <v>76.20002961968521</v>
       </c>
       <c r="I67" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J67" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K67" t="n">
-        <v>67.85367316452545</v>
+        <v>302.4319397360921</v>
       </c>
       <c r="L67" t="n">
-        <v>5.916512621442715</v>
+        <v>11.92359955902345</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.795418025043203</v>
+        <v>0.8830180548267943</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3284035787341945</v>
+        <v>0.2397969970468787</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9030586472497032</v>
+        <v>0.9720039681253257</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="B68" t="n">
-        <v>1710</v>
+        <v>1686</v>
       </c>
       <c r="C68" t="n">
-        <v>2004</v>
+        <v>1739</v>
       </c>
       <c r="D68" t="n">
-        <v>4.617600622696094</v>
+        <v>4.228217650992578</v>
       </c>
       <c r="E68" t="n">
-        <v>4.185474188926719</v>
+        <v>3.792486454332831</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.432126433769375</v>
+        <v>-0.4357311966597471</v>
       </c>
       <c r="G68" t="n">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="H68" t="n">
-        <v>102.1032252085256</v>
+        <v>59.04282424669555</v>
       </c>
       <c r="I68" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J68" t="n">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="K68" t="n">
-        <v>718.460687893682</v>
+        <v>205.1012037418574</v>
       </c>
       <c r="L68" t="n">
-        <v>27.49589294306918</v>
+        <v>9.170971996897668</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8883097506649832</v>
+        <v>0.761944644384739</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.163265306122449</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2580481090654053</v>
+        <v>0.176445343994994</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9420144894972304</v>
+        <v>0.9180441282003069</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1684</v>
+        <v>889</v>
       </c>
       <c r="B69" t="n">
-        <v>1712</v>
+        <v>924</v>
       </c>
       <c r="C69" t="n">
-        <v>1786</v>
+        <v>976</v>
       </c>
       <c r="D69" t="n">
-        <v>4.977902741916038</v>
+        <v>0.9879991924648512</v>
       </c>
       <c r="E69" t="n">
-        <v>4.538028944410119</v>
+        <v>0.5796843374773888</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4398737975059193</v>
+        <v>-0.4083148549874624</v>
       </c>
       <c r="G69" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H69" t="n">
-        <v>76.20002961968521</v>
+        <v>132.8066216038336</v>
       </c>
       <c r="I69" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J69" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="K69" t="n">
-        <v>302.4319397360921</v>
+        <v>56.40202432101303</v>
       </c>
       <c r="L69" t="n">
-        <v>11.92359955902345</v>
+        <v>5.008518044533201</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8830180548267943</v>
+        <v>0.7049907825731909</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2397969970468787</v>
+        <v>0.1736134126965458</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9720039681253257</v>
+        <v>0.9110648286295311</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1656</v>
+        <v>1903</v>
       </c>
       <c r="B70" t="n">
-        <v>1686</v>
+        <v>1931</v>
       </c>
       <c r="C70" t="n">
-        <v>1739</v>
+        <v>2004</v>
       </c>
       <c r="D70" t="n">
-        <v>4.228217650992578</v>
+        <v>6.236641121794552</v>
       </c>
       <c r="E70" t="n">
-        <v>3.792486454332831</v>
+        <v>5.82832626680709</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4357311966597471</v>
+        <v>-0.4083148549874624</v>
       </c>
       <c r="G70" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H70" t="n">
-        <v>59.04282424669555</v>
+        <v>35.96837086073833</v>
       </c>
       <c r="I70" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J70" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="K70" t="n">
-        <v>205.1012037418574</v>
+        <v>413.281626475327</v>
       </c>
       <c r="L70" t="n">
-        <v>9.170971996897668</v>
+        <v>31.61574405527366</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.761944644384739</v>
+        <v>0.9313254972378844</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.5660377358490566</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="R70" t="n">
-        <v>0.176445343994994</v>
+        <v>0.2747603577296966</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9180441282003069</v>
+        <v>0.9843186247873199</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>889</v>
+        <v>920</v>
       </c>
       <c r="B71" t="n">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="C71" t="n">
-        <v>976</v>
+        <v>1061</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9879991924648512</v>
+        <v>1.555472548314446</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5796843374773888</v>
+        <v>1.084134017912135</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4083148549874624</v>
+        <v>-0.4713385304023113</v>
       </c>
       <c r="G71" t="n">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="H71" t="n">
-        <v>132.8066216038336</v>
+        <v>72.43087764157178</v>
       </c>
       <c r="I71" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J71" t="n">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="K71" t="n">
-        <v>56.40202432101303</v>
+        <v>164.1790638164538</v>
       </c>
       <c r="L71" t="n">
-        <v>5.008518044533201</v>
+        <v>4.378310639633217</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.7049907825731909</v>
+        <v>0.6838501074115291</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1736134126965458</v>
+        <v>0.1339931383668297</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9110648286295311</v>
+        <v>0.8020872312440399</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,73 +6577,73 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1903</v>
+        <v>437</v>
       </c>
       <c r="B72" t="n">
-        <v>1931</v>
+        <v>454</v>
       </c>
       <c r="C72" t="n">
-        <v>2004</v>
+        <v>540</v>
       </c>
       <c r="D72" t="n">
-        <v>6.236641121794552</v>
+        <v>1.378602166574148</v>
       </c>
       <c r="E72" t="n">
-        <v>5.82832626680709</v>
+        <v>0.9109559381236892</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4083148549874624</v>
+        <v>-0.4676462284504583</v>
       </c>
       <c r="G72" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H72" t="n">
-        <v>35.96837086073833</v>
+        <v>34.0280364012425</v>
       </c>
       <c r="I72" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J72" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K72" t="n">
-        <v>413.281626475327</v>
+        <v>93.98320576968361</v>
       </c>
       <c r="L72" t="n">
-        <v>31.61574405527366</v>
+        <v>3.935393714832605</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(499), 'value': np.float64(0.7384822050865809), 'amplitude': np.float64(1.2061284335370392), 'start_idx': np.int64(481), 'end_idx': np.int64(505), 'duration': np.float64(24.0), 'fwhm': np.float64(32.338147962137725), 'rise_time': np.float64(18.0), 'decay_time': np.float64(6.0), 'auc': np.float64(25.69251775806716)}]</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.9313254972378844</v>
+        <v>0.8049108119377869</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3835616438356164</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2747603577296966</v>
+        <v>0.1968489351504733</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9843186247873199</v>
+        <v>0.5156907367694483</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>920</v>
+        <v>1613</v>
       </c>
       <c r="B73" t="n">
-        <v>953</v>
+        <v>1637</v>
       </c>
       <c r="C73" t="n">
-        <v>1061</v>
+        <v>1683</v>
       </c>
       <c r="D73" t="n">
-        <v>1.555472548314446</v>
+        <v>2.134592172433088</v>
       </c>
       <c r="E73" t="n">
-        <v>1.084134017912135</v>
+        <v>1.666945943982629</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4713385304023113</v>
+        <v>-0.4676462284504583</v>
       </c>
       <c r="G73" t="n">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="H73" t="n">
-        <v>72.43087764157178</v>
+        <v>32.38021150128839</v>
       </c>
       <c r="I73" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J73" t="n">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="K73" t="n">
-        <v>164.1790638164538</v>
+        <v>94.3127542309788</v>
       </c>
       <c r="L73" t="n">
-        <v>4.378310639633217</v>
+        <v>6.093462510652622</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.6838501074115291</v>
+        <v>0.8592072861639843</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1339931383668297</v>
+        <v>0.4608166632952855</v>
       </c>
       <c r="S73" t="n">
-        <v>0.8020872312440399</v>
+        <v>0.9642155016888104</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,73 +6749,73 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>437</v>
+        <v>744</v>
       </c>
       <c r="B74" t="n">
-        <v>454</v>
+        <v>790</v>
       </c>
       <c r="C74" t="n">
-        <v>540</v>
+        <v>876</v>
       </c>
       <c r="D74" t="n">
-        <v>1.378602166574148</v>
+        <v>0.7788405715273909</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9109559381236892</v>
+        <v>0.3495862122902221</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4676462284504583</v>
+        <v>-0.4292543592371689</v>
       </c>
       <c r="G74" t="n">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="H74" t="n">
-        <v>34.0280364012425</v>
+        <v>65.87785402151712</v>
       </c>
       <c r="I74" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J74" t="n">
         <v>86</v>
       </c>
       <c r="K74" t="n">
-        <v>93.98320576968361</v>
+        <v>38.53663936995466</v>
       </c>
       <c r="L74" t="n">
-        <v>3.935393714832605</v>
+        <v>5.434644461477384</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(499), 'value': np.float64(0.7384822050865809), 'amplitude': np.float64(1.2061284335370392), 'start_idx': np.int64(481), 'end_idx': np.int64(505), 'duration': np.float64(24.0), 'fwhm': np.float64(32.338147962137725), 'rise_time': np.float64(18.0), 'decay_time': np.float64(6.0), 'auc': np.float64(25.69251775806716)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.8049108119377869</v>
+        <v>0.6292148771206447</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.1976744186046512</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1968489351504733</v>
+        <v>0.3091590694983581</v>
       </c>
       <c r="S74" t="n">
-        <v>0.5156907367694483</v>
+        <v>0.4455916848395364</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>683</v>
+        <v>723</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1613</v>
+        <v>1822</v>
       </c>
       <c r="B75" t="n">
-        <v>1637</v>
+        <v>1839</v>
       </c>
       <c r="C75" t="n">
-        <v>1683</v>
+        <v>2004</v>
       </c>
       <c r="D75" t="n">
-        <v>2.134592172433088</v>
+        <v>3.152990487137137</v>
       </c>
       <c r="E75" t="n">
-        <v>1.666945943982629</v>
+        <v>2.723736127899969</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4676462284504583</v>
+        <v>-0.4292543592371689</v>
       </c>
       <c r="G75" t="n">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="H75" t="n">
-        <v>32.38021150128839</v>
+        <v>14.69970474483307</v>
       </c>
       <c r="I75" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J75" t="n">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="K75" t="n">
-        <v>94.3127542309788</v>
+        <v>292.2695761853521</v>
       </c>
       <c r="L75" t="n">
-        <v>6.093462510652622</v>
+        <v>22.00114235755127</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8592072861639843</v>
+        <v>0.7288105438204839</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4608166632952855</v>
+        <v>0.4981944939522727</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9642155016888104</v>
+        <v>0.7331656549397042</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6914,178 +6914,6 @@
         </is>
       </c>
       <c r="X75" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>744</v>
-      </c>
-      <c r="B76" t="n">
-        <v>790</v>
-      </c>
-      <c r="C76" t="n">
-        <v>876</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.7788405715273909</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.3495862122902221</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-0.4292543592371689</v>
-      </c>
-      <c r="G76" t="n">
-        <v>132</v>
-      </c>
-      <c r="H76" t="n">
-        <v>65.87785402151712</v>
-      </c>
-      <c r="I76" t="n">
-        <v>46</v>
-      </c>
-      <c r="J76" t="n">
-        <v>86</v>
-      </c>
-      <c r="K76" t="n">
-        <v>38.53663936995466</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5.434644461477384</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>0.6292148771206447</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.5348837209302325</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.3091590694983581</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.4455916848395364</v>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U76" t="n">
-        <v>685</v>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1822</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1839</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D77" t="n">
-        <v>3.152990487137137</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2.723736127899969</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-0.4292543592371689</v>
-      </c>
-      <c r="G77" t="n">
-        <v>182</v>
-      </c>
-      <c r="H77" t="n">
-        <v>14.69970474483307</v>
-      </c>
-      <c r="I77" t="n">
-        <v>17</v>
-      </c>
-      <c r="J77" t="n">
-        <v>165</v>
-      </c>
-      <c r="K77" t="n">
-        <v>292.2695761853521</v>
-      </c>
-      <c r="L77" t="n">
-        <v>22.00114235755127</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>0.7288105438204839</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.103030303030303</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.4981944939522727</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.7331656549397042</v>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U77" t="n">
-        <v>686</v>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9xuanwei2024-12-06215049trace.xlsx</t>
         </is>
